--- a/Iklim_Sumatra.xlsx
+++ b/Iklim_Sumatra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amirs\Downloads\Project Rshiny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1080742-5B2D-4411-A06C-8D06514DE170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48981FE3-0F21-4464-B55C-3BC01F1940E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E00CDE76-EA6C-402C-A9A6-A1123B03FB55}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="15">
   <si>
     <t>Provinsi</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>Lampung</t>
+  </si>
+  <si>
+    <t>Sumatera Utara</t>
+  </si>
+  <si>
+    <t>Bengkulu</t>
+  </si>
+  <si>
+    <t>Kepulauan Bangka Belitung</t>
+  </si>
+  <si>
+    <t>Kepulauan Riau</t>
   </si>
 </sst>
 </file>
@@ -125,10 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -447,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA0A9CD-D97B-4DFD-A731-6131B3F5BA44}">
-  <dimension ref="A1:E505"/>
+  <dimension ref="A1:E793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86:E169"/>
+    <sheetView tabSelected="1" topLeftCell="A765" workbookViewId="0">
+      <selection activeCell="J782" sqref="J782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -471,7 +482,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -488,7 +499,7 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>26.77</v>
       </c>
       <c r="E2" s="1">
@@ -505,7 +516,7 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>26.8</v>
       </c>
       <c r="E3" s="1">
@@ -522,7 +533,7 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>27.1</v>
       </c>
       <c r="E4" s="1">
@@ -539,7 +550,7 @@
       <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>27.93</v>
       </c>
       <c r="E5" s="1">
@@ -556,7 +567,7 @@
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>28.47</v>
       </c>
       <c r="E6" s="1">
@@ -573,7 +584,7 @@
       <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>28.8</v>
       </c>
       <c r="E7" s="1">
@@ -590,7 +601,7 @@
       <c r="C8" s="1">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>29.4</v>
       </c>
       <c r="E8" s="1">
@@ -607,7 +618,7 @@
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>28.83</v>
       </c>
       <c r="E9" s="1">
@@ -624,7 +635,7 @@
       <c r="C10" s="1">
         <v>9</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>27.77</v>
       </c>
       <c r="E10" s="1">
@@ -641,7 +652,7 @@
       <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>27.53</v>
       </c>
       <c r="E11" s="1">
@@ -658,7 +669,7 @@
       <c r="C12" s="1">
         <v>11</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>27.47</v>
       </c>
       <c r="E12" s="1">
@@ -675,7 +686,7 @@
       <c r="C13" s="1">
         <v>12</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>27.17</v>
       </c>
       <c r="E13" s="1">
@@ -692,7 +703,7 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>27.13</v>
       </c>
       <c r="E14" s="1">
@@ -709,7 +720,7 @@
       <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>23.33</v>
       </c>
       <c r="E15" s="1">
@@ -726,7 +737,7 @@
       <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>27.7</v>
       </c>
       <c r="E16" s="1">
@@ -743,7 +754,7 @@
       <c r="C17" s="1">
         <v>4</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>27.83</v>
       </c>
       <c r="E17" s="1">
@@ -760,7 +771,7 @@
       <c r="C18" s="1">
         <v>5</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>28.2</v>
       </c>
       <c r="E18" s="1">
@@ -777,7 +788,7 @@
       <c r="C19" s="1">
         <v>6</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>28.53</v>
       </c>
       <c r="E19" s="1">
@@ -794,7 +805,7 @@
       <c r="C20" s="1">
         <v>7</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>29.17</v>
       </c>
       <c r="E20" s="1">
@@ -811,7 +822,7 @@
       <c r="C21" s="1">
         <v>8</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>28.83</v>
       </c>
       <c r="E21" s="1">
@@ -828,7 +839,7 @@
       <c r="C22" s="1">
         <v>9</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>27.57</v>
       </c>
       <c r="E22" s="1">
@@ -845,7 +856,7 @@
       <c r="C23" s="1">
         <v>10</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>27.27</v>
       </c>
       <c r="E23" s="1">
@@ -862,7 +873,7 @@
       <c r="C24" s="1">
         <v>11</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>26.83</v>
       </c>
       <c r="E24" s="1">
@@ -879,7 +890,7 @@
       <c r="C25" s="1">
         <v>12</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>27.2</v>
       </c>
       <c r="E25" s="1">
@@ -896,7 +907,7 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <v>27.07</v>
       </c>
       <c r="E26" s="1">
@@ -913,7 +924,7 @@
       <c r="C27" s="1">
         <v>2</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>27.2</v>
       </c>
       <c r="E27" s="1">
@@ -930,7 +941,7 @@
       <c r="C28" s="1">
         <v>3</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>27.6</v>
       </c>
       <c r="E28" s="1">
@@ -947,7 +958,7 @@
       <c r="C29" s="1">
         <v>4</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>28.13</v>
       </c>
       <c r="E29" s="1">
@@ -964,7 +975,7 @@
       <c r="C30" s="1">
         <v>5</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30">
         <v>28.43</v>
       </c>
       <c r="E30" s="1">
@@ -981,7 +992,7 @@
       <c r="C31" s="1">
         <v>6</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31">
         <v>28.4</v>
       </c>
       <c r="E31" s="1">
@@ -998,7 +1009,7 @@
       <c r="C32" s="1">
         <v>7</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32">
         <v>27.97</v>
       </c>
       <c r="E32" s="1">
@@ -1015,7 +1026,7 @@
       <c r="C33" s="1">
         <v>8</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
         <v>28.3</v>
       </c>
       <c r="E33" s="1">
@@ -1032,7 +1043,7 @@
       <c r="C34" s="1">
         <v>9</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34">
         <v>27.9</v>
       </c>
       <c r="E34" s="1">
@@ -1049,7 +1060,7 @@
       <c r="C35" s="1">
         <v>10</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35">
         <v>26.33</v>
       </c>
       <c r="E35" s="1">
@@ -1066,7 +1077,7 @@
       <c r="C36" s="1">
         <v>11</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36">
         <v>27.2</v>
       </c>
       <c r="E36" s="1">
@@ -1083,7 +1094,7 @@
       <c r="C37" s="1">
         <v>12</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37">
         <v>26.83</v>
       </c>
       <c r="E37" s="1">
@@ -1100,7 +1111,7 @@
       <c r="C38" s="1">
         <v>1</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38">
         <v>27.09</v>
       </c>
       <c r="E38" s="1">
@@ -1117,7 +1128,7 @@
       <c r="C39" s="1">
         <v>2</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
         <v>26.4714285714285</v>
       </c>
       <c r="E39" s="1">
@@ -1134,7 +1145,7 @@
       <c r="C40" s="1">
         <v>3</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40">
         <v>27.7</v>
       </c>
       <c r="E40" s="1">
@@ -1151,7 +1162,7 @@
       <c r="C41" s="1">
         <v>4</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
         <v>27.965714285714199</v>
       </c>
       <c r="E41" s="1">
@@ -1168,7 +1179,7 @@
       <c r="C42" s="1">
         <v>5</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42">
         <v>28.389999999999901</v>
       </c>
       <c r="E42" s="1">
@@ -1185,7 +1196,7 @@
       <c r="C43" s="1">
         <v>6</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43">
         <v>28.608571428571398</v>
       </c>
       <c r="E43" s="1">
@@ -1202,7 +1213,7 @@
       <c r="C44" s="1">
         <v>7</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44">
         <v>28.601428571428499</v>
       </c>
       <c r="E44" s="1">
@@ -1219,7 +1230,7 @@
       <c r="C45" s="1">
         <v>8</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45">
         <v>28.275714285714201</v>
       </c>
       <c r="E45" s="1">
@@ -1236,7 +1247,7 @@
       <c r="C46" s="1">
         <v>9</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46">
         <v>27.6714285714285</v>
       </c>
       <c r="E46" s="1">
@@ -1253,7 +1264,7 @@
       <c r="C47" s="1">
         <v>10</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47">
         <v>27.128571428571401</v>
       </c>
       <c r="E47" s="1">
@@ -1270,7 +1281,7 @@
       <c r="C48" s="1">
         <v>11</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48">
         <v>27.112857142857099</v>
       </c>
       <c r="E48" s="1">
@@ -1287,7 +1298,7 @@
       <c r="C49" s="1">
         <v>12</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49">
         <v>26.9957142857142</v>
       </c>
       <c r="E49" s="1">
@@ -1304,7 +1315,7 @@
       <c r="C50" s="1">
         <v>1</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50">
         <v>27.09</v>
       </c>
       <c r="E50" s="1">
@@ -1321,7 +1332,7 @@
       <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51">
         <v>26.4714285714285</v>
       </c>
       <c r="E51" s="1">
@@ -1338,7 +1349,7 @@
       <c r="C52" s="1">
         <v>3</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52">
         <v>27.7</v>
       </c>
       <c r="E52" s="1">
@@ -1355,7 +1366,7 @@
       <c r="C53" s="1">
         <v>4</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53">
         <v>27.965714285714199</v>
       </c>
       <c r="E53" s="1">
@@ -1372,7 +1383,7 @@
       <c r="C54" s="1">
         <v>5</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54">
         <v>28.389999999999901</v>
       </c>
       <c r="E54" s="1">
@@ -1389,7 +1400,7 @@
       <c r="C55" s="1">
         <v>6</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55">
         <v>28.608571428571398</v>
       </c>
       <c r="E55" s="1">
@@ -1406,7 +1417,7 @@
       <c r="C56" s="1">
         <v>7</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56">
         <v>28.601428571428499</v>
       </c>
       <c r="E56" s="1">
@@ -1423,7 +1434,7 @@
       <c r="C57" s="1">
         <v>8</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57">
         <v>28.275714285714201</v>
       </c>
       <c r="E57" s="1">
@@ -1440,7 +1451,7 @@
       <c r="C58" s="1">
         <v>9</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58">
         <v>27.6714285714285</v>
       </c>
       <c r="E58" s="1">
@@ -1457,7 +1468,7 @@
       <c r="C59" s="1">
         <v>10</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59">
         <v>27.128571428571401</v>
       </c>
       <c r="E59" s="1">
@@ -1474,7 +1485,7 @@
       <c r="C60" s="1">
         <v>11</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60">
         <v>27.112857142857099</v>
       </c>
       <c r="E60" s="1">
@@ -1491,7 +1502,7 @@
       <c r="C61" s="1">
         <v>12</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61">
         <v>26.9957142857142</v>
       </c>
       <c r="E61" s="1">
@@ -1508,7 +1519,7 @@
       <c r="C62" s="1">
         <v>1</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62">
         <v>27.09</v>
       </c>
       <c r="E62" s="1">
@@ -1525,7 +1536,7 @@
       <c r="C63" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63">
         <v>26.4714285714285</v>
       </c>
       <c r="E63" s="1">
@@ -1542,7 +1553,7 @@
       <c r="C64" s="1">
         <v>3</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64">
         <v>27.7</v>
       </c>
       <c r="E64" s="1">
@@ -1559,7 +1570,7 @@
       <c r="C65" s="1">
         <v>4</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65">
         <v>27.965714285714199</v>
       </c>
       <c r="E65" s="1">
@@ -1576,7 +1587,7 @@
       <c r="C66" s="1">
         <v>5</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66">
         <v>28.389999999999901</v>
       </c>
       <c r="E66" s="1">
@@ -1593,7 +1604,7 @@
       <c r="C67" s="1">
         <v>6</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67">
         <v>28.608571428571398</v>
       </c>
       <c r="E67" s="1">
@@ -1610,7 +1621,7 @@
       <c r="C68" s="1">
         <v>7</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68">
         <v>28.601428571428499</v>
       </c>
       <c r="E68" s="1">
@@ -1627,7 +1638,7 @@
       <c r="C69" s="1">
         <v>8</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69">
         <v>28.275714285714201</v>
       </c>
       <c r="E69" s="1">
@@ -1644,7 +1655,7 @@
       <c r="C70" s="1">
         <v>9</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70">
         <v>27.6714285714285</v>
       </c>
       <c r="E70" s="1">
@@ -1661,7 +1672,7 @@
       <c r="C71" s="1">
         <v>10</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71">
         <v>27.128571428571401</v>
       </c>
       <c r="E71" s="1">
@@ -1678,7 +1689,7 @@
       <c r="C72" s="1">
         <v>11</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72">
         <v>27.112857142857099</v>
       </c>
       <c r="E72" s="1">
@@ -1695,7 +1706,7 @@
       <c r="C73" s="1">
         <v>12</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73">
         <v>26.9957142857142</v>
       </c>
       <c r="E73" s="1">
@@ -1712,7 +1723,7 @@
       <c r="C74" s="1">
         <v>1</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74">
         <v>27.09</v>
       </c>
       <c r="E74" s="1">
@@ -1729,7 +1740,7 @@
       <c r="C75" s="1">
         <v>2</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75">
         <v>26.4714285714285</v>
       </c>
       <c r="E75" s="1">
@@ -1746,7 +1757,7 @@
       <c r="C76" s="1">
         <v>3</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76">
         <v>27.7</v>
       </c>
       <c r="E76" s="1">
@@ -1763,7 +1774,7 @@
       <c r="C77" s="1">
         <v>4</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77">
         <v>27.965714285714199</v>
       </c>
       <c r="E77" s="1">
@@ -1780,7 +1791,7 @@
       <c r="C78" s="1">
         <v>5</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78">
         <v>28.389999999999901</v>
       </c>
       <c r="E78" s="1">
@@ -1797,7 +1808,7 @@
       <c r="C79" s="1">
         <v>6</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79">
         <v>28.608571428571398</v>
       </c>
       <c r="E79" s="1">
@@ -1814,7 +1825,7 @@
       <c r="C80" s="1">
         <v>7</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80">
         <v>28.601428571428499</v>
       </c>
       <c r="E80" s="1">
@@ -1831,7 +1842,7 @@
       <c r="C81" s="1">
         <v>8</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81">
         <v>28.275714285714201</v>
       </c>
       <c r="E81" s="1">
@@ -1848,7 +1859,7 @@
       <c r="C82" s="1">
         <v>9</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82">
         <v>27.6714285714285</v>
       </c>
       <c r="E82" s="1">
@@ -1865,7 +1876,7 @@
       <c r="C83" s="1">
         <v>10</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83">
         <v>27.128571428571401</v>
       </c>
       <c r="E83" s="1">
@@ -1882,7 +1893,7 @@
       <c r="C84" s="1">
         <v>11</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84">
         <v>27.112857142857099</v>
       </c>
       <c r="E84" s="1">
@@ -1899,7 +1910,7 @@
       <c r="C85" s="1">
         <v>12</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85">
         <v>26.9957142857142</v>
       </c>
       <c r="E85" s="1">
@@ -1916,10 +1927,10 @@
       <c r="C86" s="1">
         <v>1</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86">
         <v>27.377500000000001</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86">
         <v>29.816749999999981</v>
       </c>
     </row>
@@ -1933,10 +1944,10 @@
       <c r="C87" s="1">
         <v>2</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87">
         <v>27.59</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87">
         <v>29.816749999999981</v>
       </c>
     </row>
@@ -1950,10 +1961,10 @@
       <c r="C88" s="1">
         <v>3</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88">
         <v>28.227499999999999</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88">
         <v>29.816749999999981</v>
       </c>
     </row>
@@ -1967,10 +1978,10 @@
       <c r="C89" s="1">
         <v>4</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89">
         <v>28.225000000000001</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89">
         <v>29.816749999999981</v>
       </c>
     </row>
@@ -1984,10 +1995,10 @@
       <c r="C90" s="1">
         <v>5</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90">
         <v>28.664999999999999</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90">
         <v>29.816749999999981</v>
       </c>
     </row>
@@ -2001,10 +2012,10 @@
       <c r="C91" s="1">
         <v>6</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91">
         <v>27.782499999999999</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91">
         <v>29.816749999999981</v>
       </c>
     </row>
@@ -2018,10 +2029,10 @@
       <c r="C92" s="1">
         <v>7</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92">
         <v>28.0975</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92">
         <v>29.816749999999981</v>
       </c>
     </row>
@@ -2035,10 +2046,10 @@
       <c r="C93" s="1">
         <v>8</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93">
         <v>28.05</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93">
         <v>29.816749999999981</v>
       </c>
     </row>
@@ -2052,10 +2063,10 @@
       <c r="C94" s="1">
         <v>9</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94">
         <v>27.765000000000001</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94">
         <v>29.816749999999981</v>
       </c>
     </row>
@@ -2069,10 +2080,10 @@
       <c r="C95" s="1">
         <v>10</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95">
         <v>28.157499999999999</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95">
         <v>29.816749999999981</v>
       </c>
     </row>
@@ -2086,10 +2097,10 @@
       <c r="C96" s="1">
         <v>11</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96">
         <v>27.684999999999999</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96">
         <v>29.816749999999981</v>
       </c>
     </row>
@@ -2103,10 +2114,10 @@
       <c r="C97" s="1">
         <v>12</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97">
         <v>27.357500000000002</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97">
         <v>29.816749999999981</v>
       </c>
     </row>
@@ -2120,10 +2131,10 @@
       <c r="C98" s="1">
         <v>1</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98">
         <v>27.377500000000001</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98">
         <v>32.242949999999993</v>
       </c>
     </row>
@@ -2137,10 +2148,10 @@
       <c r="C99" s="1">
         <v>2</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99">
         <v>27.59</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99">
         <v>32.242949999999993</v>
       </c>
     </row>
@@ -2154,10 +2165,10 @@
       <c r="C100" s="1">
         <v>3</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100">
         <v>28.227499999999999</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100">
         <v>32.242949999999993</v>
       </c>
     </row>
@@ -2171,10 +2182,10 @@
       <c r="C101" s="1">
         <v>4</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101">
         <v>28.225000000000001</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101">
         <v>32.242949999999993</v>
       </c>
     </row>
@@ -2188,10 +2199,10 @@
       <c r="C102" s="1">
         <v>5</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102">
         <v>28.664999999999999</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102">
         <v>32.242949999999993</v>
       </c>
     </row>
@@ -2205,10 +2216,10 @@
       <c r="C103" s="1">
         <v>6</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103">
         <v>27.782499999999999</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103">
         <v>32.242949999999993</v>
       </c>
     </row>
@@ -2222,10 +2233,10 @@
       <c r="C104" s="1">
         <v>7</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104">
         <v>28.0975</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104">
         <v>32.242949999999993</v>
       </c>
     </row>
@@ -2239,10 +2250,10 @@
       <c r="C105" s="1">
         <v>8</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105">
         <v>28.05</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105">
         <v>32.242949999999993</v>
       </c>
     </row>
@@ -2256,10 +2267,10 @@
       <c r="C106" s="1">
         <v>9</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106">
         <v>27.765000000000001</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106">
         <v>32.242949999999993</v>
       </c>
     </row>
@@ -2273,10 +2284,10 @@
       <c r="C107" s="1">
         <v>10</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107">
         <v>28.157499999999999</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107">
         <v>32.242949999999993</v>
       </c>
     </row>
@@ -2290,10 +2301,10 @@
       <c r="C108" s="1">
         <v>11</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108">
         <v>27.684999999999999</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108">
         <v>32.242949999999993</v>
       </c>
     </row>
@@ -2307,10 +2318,10 @@
       <c r="C109" s="1">
         <v>12</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109">
         <v>27.357500000000002</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109">
         <v>32.242949999999993</v>
       </c>
     </row>
@@ -2324,10 +2335,10 @@
       <c r="C110" s="1">
         <v>1</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110">
         <v>28</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110">
         <v>34.834700000000012</v>
       </c>
     </row>
@@ -2341,10 +2352,10 @@
       <c r="C111" s="1">
         <v>2</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111">
         <v>27.73</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111">
         <v>34.834700000000012</v>
       </c>
     </row>
@@ -2358,10 +2369,10 @@
       <c r="C112" s="1">
         <v>3</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112">
         <v>28.67</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112">
         <v>34.834700000000012</v>
       </c>
     </row>
@@ -2375,10 +2386,10 @@
       <c r="C113" s="1">
         <v>4</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113">
         <v>28.57</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113">
         <v>34.834700000000012</v>
       </c>
     </row>
@@ -2392,10 +2403,10 @@
       <c r="C114" s="1">
         <v>5</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114">
         <v>29.2</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114">
         <v>34.834700000000012</v>
       </c>
     </row>
@@ -2409,10 +2420,10 @@
       <c r="C115" s="1">
         <v>6</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115">
         <v>27.87</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115">
         <v>34.834700000000012</v>
       </c>
     </row>
@@ -2426,10 +2437,10 @@
       <c r="C116" s="1">
         <v>7</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116">
         <v>28.3</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116">
         <v>34.834700000000012</v>
       </c>
     </row>
@@ -2443,10 +2454,10 @@
       <c r="C117" s="1">
         <v>8</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117">
         <v>28.33</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117">
         <v>34.834700000000012</v>
       </c>
     </row>
@@ -2460,10 +2471,10 @@
       <c r="C118" s="1">
         <v>9</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118">
         <v>28.37</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118">
         <v>34.834700000000012</v>
       </c>
     </row>
@@ -2477,10 +2488,10 @@
       <c r="C119" s="1">
         <v>10</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119">
         <v>28.07</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119">
         <v>34.834700000000012</v>
       </c>
     </row>
@@ -2494,10 +2505,10 @@
       <c r="C120" s="1">
         <v>11</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120">
         <v>27.33</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120">
         <v>34.834700000000012</v>
       </c>
     </row>
@@ -2511,10 +2522,10 @@
       <c r="C121" s="1">
         <v>12</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121">
         <v>27.1</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121">
         <v>34.834700000000012</v>
       </c>
     </row>
@@ -2528,10 +2539,10 @@
       <c r="C122" s="1">
         <v>1</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122">
         <v>27.77</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122">
         <v>31.46291031746031</v>
       </c>
     </row>
@@ -2545,10 +2556,10 @@
       <c r="C123" s="1">
         <v>2</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123">
         <v>28.2</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123">
         <v>31.46291031746031</v>
       </c>
     </row>
@@ -2562,10 +2573,10 @@
       <c r="C124" s="1">
         <v>3</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124">
         <v>28.77</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124">
         <v>31.46291031746031</v>
       </c>
     </row>
@@ -2579,10 +2590,10 @@
       <c r="C125" s="1">
         <v>4</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125">
         <v>28.93</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125">
         <v>31.46291031746031</v>
       </c>
     </row>
@@ -2596,10 +2607,10 @@
       <c r="C126" s="1">
         <v>5</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126">
         <v>29.03</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E126">
         <v>31.46291031746031</v>
       </c>
     </row>
@@ -2613,10 +2624,10 @@
       <c r="C127" s="1">
         <v>6</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127">
         <v>28.03</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127">
         <v>31.46291031746031</v>
       </c>
     </row>
@@ -2630,10 +2641,10 @@
       <c r="C128" s="1">
         <v>7</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128">
         <v>28.03</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E128">
         <v>31.46291031746031</v>
       </c>
     </row>
@@ -2647,10 +2658,10 @@
       <c r="C129" s="1">
         <v>8</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129">
         <v>28.67</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E129">
         <v>31.46291031746031</v>
       </c>
     </row>
@@ -2664,10 +2675,10 @@
       <c r="C130" s="1">
         <v>9</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130">
         <v>27.83</v>
       </c>
-      <c r="E130" s="4">
+      <c r="E130">
         <v>31.46291031746031</v>
       </c>
     </row>
@@ -2681,10 +2692,10 @@
       <c r="C131" s="1">
         <v>10</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131">
         <v>28.5</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E131">
         <v>31.46291031746031</v>
       </c>
     </row>
@@ -2698,10 +2709,10 @@
       <c r="C132" s="1">
         <v>11</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132">
         <v>27.87</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E132">
         <v>31.46291031746031</v>
       </c>
     </row>
@@ -2715,10 +2726,10 @@
       <c r="C133" s="1">
         <v>12</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133">
         <v>27.93</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E133">
         <v>31.46291031746031</v>
       </c>
     </row>
@@ -2732,10 +2743,10 @@
       <c r="C134" s="1">
         <v>1</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134">
         <v>26.57</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134">
         <v>31.886704761904749</v>
       </c>
     </row>
@@ -2749,10 +2760,10 @@
       <c r="C135" s="1">
         <v>2</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135">
         <v>27.5</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135">
         <v>31.886704761904749</v>
       </c>
     </row>
@@ -2766,10 +2777,10 @@
       <c r="C136" s="1">
         <v>3</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136">
         <v>27.27</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136">
         <v>31.886704761904749</v>
       </c>
     </row>
@@ -2783,10 +2794,10 @@
       <c r="C137" s="1">
         <v>4</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137">
         <v>27.67</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137">
         <v>31.886704761904749</v>
       </c>
     </row>
@@ -2800,10 +2811,10 @@
       <c r="C138" s="1">
         <v>5</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138">
         <v>28.2</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138">
         <v>31.886704761904749</v>
       </c>
     </row>
@@ -2817,10 +2828,10 @@
       <c r="C139" s="1">
         <v>6</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139">
         <v>27.93</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139">
         <v>31.886704761904749</v>
       </c>
     </row>
@@ -2834,10 +2845,10 @@
       <c r="C140" s="1">
         <v>7</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140">
         <v>28.03</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140">
         <v>31.886704761904749</v>
       </c>
     </row>
@@ -2851,10 +2862,10 @@
       <c r="C141" s="1">
         <v>8</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141">
         <v>27.6</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141">
         <v>31.886704761904749</v>
       </c>
     </row>
@@ -2868,10 +2879,10 @@
       <c r="C142" s="1">
         <v>9</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142">
         <v>27.43</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E142">
         <v>31.886704761904749</v>
       </c>
     </row>
@@ -2885,10 +2896,10 @@
       <c r="C143" s="1">
         <v>10</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143">
         <v>28.03</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143">
         <v>31.886704761904749</v>
       </c>
     </row>
@@ -2902,10 +2913,10 @@
       <c r="C144" s="1">
         <v>11</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144">
         <v>27.77</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E144">
         <v>31.886704761904749</v>
       </c>
     </row>
@@ -2919,10 +2930,10 @@
       <c r="C145" s="1">
         <v>12</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145">
         <v>27.2</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145">
         <v>31.886704761904749</v>
       </c>
     </row>
@@ -2936,10 +2947,10 @@
       <c r="C146" s="1">
         <v>1</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146">
         <v>27.17</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E146">
         <v>29.481854761904749</v>
       </c>
     </row>
@@ -2953,10 +2964,10 @@
       <c r="C147" s="1">
         <v>2</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147">
         <v>26.93</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147">
         <v>29.481854761904749</v>
       </c>
     </row>
@@ -2970,10 +2981,10 @@
       <c r="C148" s="1">
         <v>3</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148">
         <v>28.2</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148">
         <v>29.481854761904749</v>
       </c>
     </row>
@@ -2987,10 +2998,10 @@
       <c r="C149" s="1">
         <v>4</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149">
         <v>27.73</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E149">
         <v>29.481854761904749</v>
       </c>
     </row>
@@ -3004,10 +3015,10 @@
       <c r="C150" s="1">
         <v>5</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150">
         <v>28.23</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150">
         <v>29.481854761904749</v>
       </c>
     </row>
@@ -3021,10 +3032,10 @@
       <c r="C151" s="1">
         <v>6</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151">
         <v>27.3</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E151">
         <v>29.481854761904749</v>
       </c>
     </row>
@@ -3038,10 +3049,10 @@
       <c r="C152" s="1">
         <v>7</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152">
         <v>28.03</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E152">
         <v>29.481854761904749</v>
       </c>
     </row>
@@ -3055,10 +3066,10 @@
       <c r="C153" s="1">
         <v>8</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153">
         <v>27.6</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153">
         <v>29.481854761904749</v>
       </c>
     </row>
@@ -3072,10 +3083,10 @@
       <c r="C154" s="1">
         <v>9</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154">
         <v>27.43</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E154">
         <v>29.481854761904749</v>
       </c>
     </row>
@@ -3089,10 +3100,10 @@
       <c r="C155" s="1">
         <v>10</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155">
         <v>28.03</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155">
         <v>29.481854761904749</v>
       </c>
     </row>
@@ -3106,10 +3117,10 @@
       <c r="C156" s="1">
         <v>11</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156">
         <v>27.77</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156">
         <v>29.481854761904749</v>
       </c>
     </row>
@@ -3123,10 +3134,10 @@
       <c r="C157" s="1">
         <v>12</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157">
         <v>27.2</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E157">
         <v>29.481854761904749</v>
       </c>
     </row>
@@ -3140,10 +3151,10 @@
       <c r="C158" s="1">
         <v>1</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158">
         <v>27.377500000000001</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E158">
         <v>28.940338095238079</v>
       </c>
     </row>
@@ -3157,10 +3168,10 @@
       <c r="C159" s="1">
         <v>2</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159">
         <v>27.59</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E159">
         <v>28.940338095238079</v>
       </c>
     </row>
@@ -3174,10 +3185,10 @@
       <c r="C160" s="1">
         <v>3</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160">
         <v>28.227499999999999</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E160">
         <v>28.940338095238079</v>
       </c>
     </row>
@@ -3191,10 +3202,10 @@
       <c r="C161" s="1">
         <v>4</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161">
         <v>28.225000000000001</v>
       </c>
-      <c r="E161" s="4">
+      <c r="E161">
         <v>28.940338095238079</v>
       </c>
     </row>
@@ -3208,10 +3219,10 @@
       <c r="C162" s="1">
         <v>5</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162">
         <v>28.664999999999999</v>
       </c>
-      <c r="E162" s="4">
+      <c r="E162">
         <v>28.940338095238079</v>
       </c>
     </row>
@@ -3225,10 +3236,10 @@
       <c r="C163" s="1">
         <v>6</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163">
         <v>27.782499999999999</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E163">
         <v>28.940338095238079</v>
       </c>
     </row>
@@ -3242,10 +3253,10 @@
       <c r="C164" s="1">
         <v>7</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164">
         <v>28.0975</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E164">
         <v>28.940338095238079</v>
       </c>
     </row>
@@ -3259,10 +3270,10 @@
       <c r="C165" s="1">
         <v>8</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165">
         <v>28.05</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E165">
         <v>28.940338095238079</v>
       </c>
     </row>
@@ -3276,10 +3287,10 @@
       <c r="C166" s="1">
         <v>9</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166">
         <v>27.765000000000001</v>
       </c>
-      <c r="E166" s="4">
+      <c r="E166">
         <v>28.940338095238079</v>
       </c>
     </row>
@@ -3293,10 +3304,10 @@
       <c r="C167" s="1">
         <v>10</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167">
         <v>28.157499999999999</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167">
         <v>28.940338095238079</v>
       </c>
     </row>
@@ -3310,10 +3321,10 @@
       <c r="C168" s="1">
         <v>11</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168">
         <v>27.684999999999999</v>
       </c>
-      <c r="E168" s="4">
+      <c r="E168">
         <v>28.940338095238079</v>
       </c>
     </row>
@@ -3327,10 +3338,10 @@
       <c r="C169" s="1">
         <v>12</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169">
         <v>27.357500000000002</v>
       </c>
-      <c r="E169" s="4">
+      <c r="E169">
         <v>28.940338095238079</v>
       </c>
     </row>
@@ -3344,7 +3355,7 @@
       <c r="C170" s="1">
         <v>1</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170">
         <v>26.78808571428571</v>
       </c>
       <c r="E170" s="1">
@@ -3361,7 +3372,7 @@
       <c r="C171" s="1">
         <v>2</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171">
         <v>26.78808571428571</v>
       </c>
       <c r="E171" s="1">
@@ -3378,7 +3389,7 @@
       <c r="C172" s="1">
         <v>3</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D172">
         <v>26.78808571428571</v>
       </c>
       <c r="E172" s="1">
@@ -3395,7 +3406,7 @@
       <c r="C173" s="1">
         <v>4</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173">
         <v>26.78808571428571</v>
       </c>
       <c r="E173" s="1">
@@ -3412,7 +3423,7 @@
       <c r="C174" s="1">
         <v>5</v>
       </c>
-      <c r="D174" s="2">
+      <c r="D174">
         <v>26.78808571428571</v>
       </c>
       <c r="E174" s="1">
@@ -3429,7 +3440,7 @@
       <c r="C175" s="1">
         <v>6</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175">
         <v>26.78808571428571</v>
       </c>
       <c r="E175" s="1">
@@ -3446,7 +3457,7 @@
       <c r="C176" s="1">
         <v>7</v>
       </c>
-      <c r="D176" s="2">
+      <c r="D176">
         <v>26.78808571428571</v>
       </c>
       <c r="E176" s="1">
@@ -3463,7 +3474,7 @@
       <c r="C177" s="1">
         <v>8</v>
       </c>
-      <c r="D177" s="2">
+      <c r="D177">
         <v>26.78808571428571</v>
       </c>
       <c r="E177" s="1">
@@ -3480,7 +3491,7 @@
       <c r="C178" s="1">
         <v>9</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178">
         <v>26.78808571428571</v>
       </c>
       <c r="E178" s="1">
@@ -3497,7 +3508,7 @@
       <c r="C179" s="1">
         <v>10</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179">
         <v>26.78808571428571</v>
       </c>
       <c r="E179" s="1">
@@ -3514,7 +3525,7 @@
       <c r="C180" s="1">
         <v>11</v>
       </c>
-      <c r="D180" s="2">
+      <c r="D180">
         <v>26.78808571428571</v>
       </c>
       <c r="E180" s="1">
@@ -3531,7 +3542,7 @@
       <c r="C181" s="1">
         <v>12</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D181">
         <v>26.78808571428571</v>
       </c>
       <c r="E181" s="1">
@@ -3548,7 +3559,7 @@
       <c r="C182" s="1">
         <v>1</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182">
         <v>26.669916666666669</v>
       </c>
       <c r="E182" s="1">
@@ -3565,7 +3576,7 @@
       <c r="C183" s="1">
         <v>2</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183">
         <v>26.669916666666669</v>
       </c>
       <c r="E183" s="1">
@@ -3582,7 +3593,7 @@
       <c r="C184" s="1">
         <v>3</v>
       </c>
-      <c r="D184" s="2">
+      <c r="D184">
         <v>26.669916666666669</v>
       </c>
       <c r="E184" s="1">
@@ -3599,7 +3610,7 @@
       <c r="C185" s="1">
         <v>4</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185">
         <v>26.669916666666669</v>
       </c>
       <c r="E185" s="1">
@@ -3616,7 +3627,7 @@
       <c r="C186" s="1">
         <v>5</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186">
         <v>26.669916666666669</v>
       </c>
       <c r="E186" s="1">
@@ -3633,7 +3644,7 @@
       <c r="C187" s="1">
         <v>6</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187">
         <v>26.669916666666669</v>
       </c>
       <c r="E187" s="1">
@@ -3650,7 +3661,7 @@
       <c r="C188" s="1">
         <v>7</v>
       </c>
-      <c r="D188" s="2">
+      <c r="D188">
         <v>26.669916666666669</v>
       </c>
       <c r="E188" s="1">
@@ -3667,7 +3678,7 @@
       <c r="C189" s="1">
         <v>8</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189">
         <v>26.669916666666669</v>
       </c>
       <c r="E189" s="1">
@@ -3684,7 +3695,7 @@
       <c r="C190" s="1">
         <v>9</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190">
         <v>26.669916666666669</v>
       </c>
       <c r="E190" s="1">
@@ -3701,7 +3712,7 @@
       <c r="C191" s="1">
         <v>10</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D191">
         <v>26.669916666666669</v>
       </c>
       <c r="E191" s="1">
@@ -3718,7 +3729,7 @@
       <c r="C192" s="1">
         <v>11</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192">
         <v>26.669916666666669</v>
       </c>
       <c r="E192" s="1">
@@ -3735,7 +3746,7 @@
       <c r="C193" s="1">
         <v>12</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193">
         <v>26.669916666666669</v>
       </c>
       <c r="E193" s="1">
@@ -3752,7 +3763,7 @@
       <c r="C194" s="1">
         <v>1</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194">
         <v>26.831666666666671</v>
       </c>
       <c r="E194" s="1">
@@ -3769,7 +3780,7 @@
       <c r="C195" s="1">
         <v>2</v>
       </c>
-      <c r="D195" s="2">
+      <c r="D195">
         <v>26.831666666666671</v>
       </c>
       <c r="E195" s="1">
@@ -3786,7 +3797,7 @@
       <c r="C196" s="1">
         <v>3</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D196">
         <v>26.831666666666671</v>
       </c>
       <c r="E196" s="1">
@@ -3803,7 +3814,7 @@
       <c r="C197" s="1">
         <v>4</v>
       </c>
-      <c r="D197" s="2">
+      <c r="D197">
         <v>26.831666666666671</v>
       </c>
       <c r="E197" s="1">
@@ -3820,7 +3831,7 @@
       <c r="C198" s="1">
         <v>5</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D198">
         <v>26.831666666666671</v>
       </c>
       <c r="E198" s="1">
@@ -3837,7 +3848,7 @@
       <c r="C199" s="1">
         <v>6</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199">
         <v>26.831666666666671</v>
       </c>
       <c r="E199" s="1">
@@ -3854,7 +3865,7 @@
       <c r="C200" s="1">
         <v>7</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D200">
         <v>26.831666666666671</v>
       </c>
       <c r="E200" s="1">
@@ -3871,7 +3882,7 @@
       <c r="C201" s="1">
         <v>8</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D201">
         <v>26.831666666666671</v>
       </c>
       <c r="E201" s="1">
@@ -3888,7 +3899,7 @@
       <c r="C202" s="1">
         <v>9</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202">
         <v>26.831666666666671</v>
       </c>
       <c r="E202" s="1">
@@ -3905,7 +3916,7 @@
       <c r="C203" s="1">
         <v>10</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203">
         <v>26.831666666666671</v>
       </c>
       <c r="E203" s="1">
@@ -3922,7 +3933,7 @@
       <c r="C204" s="1">
         <v>11</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D204">
         <v>26.831666666666671</v>
       </c>
       <c r="E204" s="1">
@@ -3939,7 +3950,7 @@
       <c r="C205" s="1">
         <v>12</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D205">
         <v>26.831666666666671</v>
       </c>
       <c r="E205" s="1">
@@ -3956,7 +3967,7 @@
       <c r="C206" s="1">
         <v>1</v>
       </c>
-      <c r="D206" s="2">
+      <c r="D206">
         <v>26.8436738095238</v>
       </c>
       <c r="E206" s="1">
@@ -3973,7 +3984,7 @@
       <c r="C207" s="1">
         <v>2</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D207">
         <v>26.8436738095238</v>
       </c>
       <c r="E207" s="1">
@@ -3990,7 +4001,7 @@
       <c r="C208" s="1">
         <v>3</v>
       </c>
-      <c r="D208" s="2">
+      <c r="D208">
         <v>26.8436738095238</v>
       </c>
       <c r="E208" s="1">
@@ -4007,7 +4018,7 @@
       <c r="C209" s="1">
         <v>4</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D209">
         <v>26.8436738095238</v>
       </c>
       <c r="E209" s="1">
@@ -4024,7 +4035,7 @@
       <c r="C210" s="1">
         <v>5</v>
       </c>
-      <c r="D210" s="2">
+      <c r="D210">
         <v>26.8436738095238</v>
       </c>
       <c r="E210" s="1">
@@ -4041,7 +4052,7 @@
       <c r="C211" s="1">
         <v>6</v>
       </c>
-      <c r="D211" s="2">
+      <c r="D211">
         <v>26.8436738095238</v>
       </c>
       <c r="E211" s="1">
@@ -4058,7 +4069,7 @@
       <c r="C212" s="1">
         <v>7</v>
       </c>
-      <c r="D212" s="2">
+      <c r="D212">
         <v>26.8436738095238</v>
       </c>
       <c r="E212" s="1">
@@ -4075,7 +4086,7 @@
       <c r="C213" s="1">
         <v>8</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D213">
         <v>26.8436738095238</v>
       </c>
       <c r="E213" s="1">
@@ -4092,7 +4103,7 @@
       <c r="C214" s="1">
         <v>9</v>
       </c>
-      <c r="D214" s="2">
+      <c r="D214">
         <v>26.8436738095238</v>
       </c>
       <c r="E214" s="1">
@@ -4109,7 +4120,7 @@
       <c r="C215" s="1">
         <v>10</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215">
         <v>26.8436738095238</v>
       </c>
       <c r="E215" s="1">
@@ -4126,7 +4137,7 @@
       <c r="C216" s="1">
         <v>11</v>
       </c>
-      <c r="D216" s="2">
+      <c r="D216">
         <v>26.8436738095238</v>
       </c>
       <c r="E216" s="1">
@@ -4143,7 +4154,7 @@
       <c r="C217" s="1">
         <v>12</v>
       </c>
-      <c r="D217" s="2">
+      <c r="D217">
         <v>26.8436738095238</v>
       </c>
       <c r="E217" s="1">
@@ -4160,7 +4171,7 @@
       <c r="C218" s="1">
         <v>1</v>
       </c>
-      <c r="D218" s="2">
+      <c r="D218">
         <v>26.709657142857129</v>
       </c>
       <c r="E218" s="1">
@@ -4177,7 +4188,7 @@
       <c r="C219" s="1">
         <v>2</v>
       </c>
-      <c r="D219" s="2">
+      <c r="D219">
         <v>26.709657142857129</v>
       </c>
       <c r="E219" s="1">
@@ -4194,7 +4205,7 @@
       <c r="C220" s="1">
         <v>3</v>
       </c>
-      <c r="D220" s="2">
+      <c r="D220">
         <v>26.709657142857129</v>
       </c>
       <c r="E220" s="1">
@@ -4211,7 +4222,7 @@
       <c r="C221" s="1">
         <v>4</v>
       </c>
-      <c r="D221" s="2">
+      <c r="D221">
         <v>26.709657142857129</v>
       </c>
       <c r="E221" s="1">
@@ -4228,7 +4239,7 @@
       <c r="C222" s="1">
         <v>5</v>
       </c>
-      <c r="D222" s="2">
+      <c r="D222">
         <v>26.709657142857129</v>
       </c>
       <c r="E222" s="1">
@@ -4245,7 +4256,7 @@
       <c r="C223" s="1">
         <v>6</v>
       </c>
-      <c r="D223" s="2">
+      <c r="D223">
         <v>26.709657142857129</v>
       </c>
       <c r="E223" s="1">
@@ -4262,7 +4273,7 @@
       <c r="C224" s="1">
         <v>7</v>
       </c>
-      <c r="D224" s="2">
+      <c r="D224">
         <v>26.709657142857129</v>
       </c>
       <c r="E224" s="1">
@@ -4279,7 +4290,7 @@
       <c r="C225" s="1">
         <v>8</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D225">
         <v>26.709657142857129</v>
       </c>
       <c r="E225" s="1">
@@ -4296,7 +4307,7 @@
       <c r="C226" s="1">
         <v>9</v>
       </c>
-      <c r="D226" s="2">
+      <c r="D226">
         <v>26.709657142857129</v>
       </c>
       <c r="E226" s="1">
@@ -4313,7 +4324,7 @@
       <c r="C227" s="1">
         <v>10</v>
       </c>
-      <c r="D227" s="2">
+      <c r="D227">
         <v>26.709657142857129</v>
       </c>
       <c r="E227" s="1">
@@ -4330,7 +4341,7 @@
       <c r="C228" s="1">
         <v>11</v>
       </c>
-      <c r="D228" s="2">
+      <c r="D228">
         <v>26.709657142857129</v>
       </c>
       <c r="E228" s="1">
@@ -4347,7 +4358,7 @@
       <c r="C229" s="1">
         <v>12</v>
       </c>
-      <c r="D229" s="2">
+      <c r="D229">
         <v>26.709657142857129</v>
       </c>
       <c r="E229" s="1">
@@ -4364,7 +4375,7 @@
       <c r="C230" s="1">
         <v>1</v>
       </c>
-      <c r="D230" s="2">
+      <c r="D230">
         <v>28.155323809523789</v>
       </c>
       <c r="E230" s="1">
@@ -4381,7 +4392,7 @@
       <c r="C231" s="1">
         <v>2</v>
       </c>
-      <c r="D231" s="2">
+      <c r="D231">
         <v>28.155323809523789</v>
       </c>
       <c r="E231" s="1">
@@ -4398,7 +4409,7 @@
       <c r="C232" s="1">
         <v>3</v>
       </c>
-      <c r="D232" s="2">
+      <c r="D232">
         <v>28.155323809523789</v>
       </c>
       <c r="E232" s="1">
@@ -4415,7 +4426,7 @@
       <c r="C233" s="1">
         <v>4</v>
       </c>
-      <c r="D233" s="2">
+      <c r="D233">
         <v>28.155323809523789</v>
       </c>
       <c r="E233" s="1">
@@ -4432,7 +4443,7 @@
       <c r="C234" s="1">
         <v>5</v>
       </c>
-      <c r="D234" s="2">
+      <c r="D234">
         <v>28.155323809523789</v>
       </c>
       <c r="E234" s="1">
@@ -4449,7 +4460,7 @@
       <c r="C235" s="1">
         <v>6</v>
       </c>
-      <c r="D235" s="2">
+      <c r="D235">
         <v>28.155323809523789</v>
       </c>
       <c r="E235" s="1">
@@ -4466,7 +4477,7 @@
       <c r="C236" s="1">
         <v>7</v>
       </c>
-      <c r="D236" s="2">
+      <c r="D236">
         <v>28.155323809523789</v>
       </c>
       <c r="E236" s="1">
@@ -4483,7 +4494,7 @@
       <c r="C237" s="1">
         <v>8</v>
       </c>
-      <c r="D237" s="2">
+      <c r="D237">
         <v>28.155323809523789</v>
       </c>
       <c r="E237" s="1">
@@ -4500,7 +4511,7 @@
       <c r="C238" s="1">
         <v>9</v>
       </c>
-      <c r="D238" s="2">
+      <c r="D238">
         <v>28.155323809523789</v>
       </c>
       <c r="E238" s="1">
@@ -4517,7 +4528,7 @@
       <c r="C239" s="1">
         <v>10</v>
       </c>
-      <c r="D239" s="2">
+      <c r="D239">
         <v>28.155323809523789</v>
       </c>
       <c r="E239" s="1">
@@ -4534,7 +4545,7 @@
       <c r="C240" s="1">
         <v>11</v>
       </c>
-      <c r="D240" s="2">
+      <c r="D240">
         <v>28.155323809523789</v>
       </c>
       <c r="E240" s="1">
@@ -4551,7 +4562,7 @@
       <c r="C241" s="1">
         <v>12</v>
       </c>
-      <c r="D241" s="2">
+      <c r="D241">
         <v>28.155323809523789</v>
       </c>
       <c r="E241" s="1">
@@ -4568,7 +4579,7 @@
       <c r="C242" s="1">
         <v>1</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D242">
         <v>27.269640476190471</v>
       </c>
       <c r="E242" s="1">
@@ -4585,7 +4596,7 @@
       <c r="C243" s="1">
         <v>2</v>
       </c>
-      <c r="D243" s="2">
+      <c r="D243">
         <v>27.269640476190471</v>
       </c>
       <c r="E243" s="1">
@@ -4602,7 +4613,7 @@
       <c r="C244" s="1">
         <v>3</v>
       </c>
-      <c r="D244" s="2">
+      <c r="D244">
         <v>27.269640476190471</v>
       </c>
       <c r="E244" s="1">
@@ -4619,7 +4630,7 @@
       <c r="C245" s="1">
         <v>4</v>
       </c>
-      <c r="D245" s="2">
+      <c r="D245">
         <v>27.269640476190471</v>
       </c>
       <c r="E245" s="1">
@@ -4636,7 +4647,7 @@
       <c r="C246" s="1">
         <v>5</v>
       </c>
-      <c r="D246" s="2">
+      <c r="D246">
         <v>27.269640476190471</v>
       </c>
       <c r="E246" s="1">
@@ -4653,7 +4664,7 @@
       <c r="C247" s="1">
         <v>6</v>
       </c>
-      <c r="D247" s="2">
+      <c r="D247">
         <v>27.269640476190471</v>
       </c>
       <c r="E247" s="1">
@@ -4670,7 +4681,7 @@
       <c r="C248" s="1">
         <v>7</v>
       </c>
-      <c r="D248" s="2">
+      <c r="D248">
         <v>27.269640476190471</v>
       </c>
       <c r="E248" s="1">
@@ -4687,7 +4698,7 @@
       <c r="C249" s="1">
         <v>8</v>
       </c>
-      <c r="D249" s="2">
+      <c r="D249">
         <v>27.269640476190471</v>
       </c>
       <c r="E249" s="1">
@@ -4704,7 +4715,7 @@
       <c r="C250" s="1">
         <v>9</v>
       </c>
-      <c r="D250" s="2">
+      <c r="D250">
         <v>27.269640476190471</v>
       </c>
       <c r="E250" s="1">
@@ -4721,7 +4732,7 @@
       <c r="C251" s="1">
         <v>10</v>
       </c>
-      <c r="D251" s="2">
+      <c r="D251">
         <v>27.269640476190471</v>
       </c>
       <c r="E251" s="1">
@@ -4738,7 +4749,7 @@
       <c r="C252" s="1">
         <v>11</v>
       </c>
-      <c r="D252" s="2">
+      <c r="D252">
         <v>27.269640476190471</v>
       </c>
       <c r="E252" s="1">
@@ -4755,7 +4766,7 @@
       <c r="C253" s="1">
         <v>12</v>
       </c>
-      <c r="D253" s="2">
+      <c r="D253">
         <v>27.269640476190471</v>
       </c>
       <c r="E253" s="1">
@@ -4772,7 +4783,7 @@
       <c r="C254" s="1">
         <v>1</v>
       </c>
-      <c r="D254" s="2">
+      <c r="D254">
         <v>27.884285714285699</v>
       </c>
       <c r="E254" s="1">
@@ -4789,7 +4800,7 @@
       <c r="C255" s="1">
         <v>2</v>
       </c>
-      <c r="D255" s="2">
+      <c r="D255">
         <v>27.7921428571428</v>
       </c>
       <c r="E255" s="1">
@@ -4806,7 +4817,7 @@
       <c r="C256" s="1">
         <v>3</v>
       </c>
-      <c r="D256" s="2">
+      <c r="D256">
         <v>27.907</v>
       </c>
       <c r="E256" s="1">
@@ -4823,7 +4834,7 @@
       <c r="C257" s="1">
         <v>4</v>
       </c>
-      <c r="D257" s="2">
+      <c r="D257">
         <v>27.921285714285698</v>
       </c>
       <c r="E257" s="1">
@@ -4840,7 +4851,7 @@
       <c r="C258" s="1">
         <v>5</v>
       </c>
-      <c r="D258" s="2">
+      <c r="D258">
         <v>27.9248571428571</v>
       </c>
       <c r="E258" s="1">
@@ -4857,7 +4868,7 @@
       <c r="C259" s="1">
         <v>6</v>
       </c>
-      <c r="D259" s="2">
+      <c r="D259">
         <v>27.910142857142802</v>
       </c>
       <c r="E259" s="1">
@@ -4874,7 +4885,7 @@
       <c r="C260" s="1">
         <v>7</v>
       </c>
-      <c r="D260" s="2">
+      <c r="D260">
         <v>27.8775714285714</v>
       </c>
       <c r="E260" s="1">
@@ -4891,7 +4902,7 @@
       <c r="C261" s="1">
         <v>8</v>
       </c>
-      <c r="D261" s="2">
+      <c r="D261">
         <v>27.914428571428498</v>
       </c>
       <c r="E261" s="1">
@@ -4908,7 +4919,7 @@
       <c r="C262" s="1">
         <v>9</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D262">
         <v>27.935285714285701</v>
       </c>
       <c r="E262" s="1">
@@ -4925,7 +4936,7 @@
       <c r="C263" s="1">
         <v>10</v>
       </c>
-      <c r="D263" s="2">
+      <c r="D263">
         <v>27.946142857142799</v>
       </c>
       <c r="E263" s="1">
@@ -4942,7 +4953,7 @@
       <c r="C264" s="1">
         <v>11</v>
       </c>
-      <c r="D264" s="2">
+      <c r="D264">
         <v>27.9368571428571</v>
       </c>
       <c r="E264" s="1">
@@ -4959,7 +4970,7 @@
       <c r="C265" s="1">
         <v>12</v>
       </c>
-      <c r="D265" s="2">
+      <c r="D265">
         <v>27.915142857142801</v>
       </c>
       <c r="E265" s="1">
@@ -4976,7 +4987,7 @@
       <c r="C266" s="1">
         <v>1</v>
       </c>
-      <c r="D266" s="2">
+      <c r="D266">
         <v>27.884</v>
       </c>
       <c r="E266" s="1">
@@ -4993,7 +5004,7 @@
       <c r="C267" s="1">
         <v>2</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D267">
         <v>27.928999999999998</v>
       </c>
       <c r="E267" s="1">
@@ -5010,7 +5021,7 @@
       <c r="C268" s="1">
         <v>3</v>
       </c>
-      <c r="D268" s="2">
+      <c r="D268">
         <v>27.97</v>
       </c>
       <c r="E268" s="1">
@@ -5027,7 +5038,7 @@
       <c r="C269" s="1">
         <v>4</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D269">
         <v>27.946000000000002</v>
       </c>
       <c r="E269" s="1">
@@ -5044,7 +5055,7 @@
       <c r="C270" s="1">
         <v>5</v>
       </c>
-      <c r="D270" s="2">
+      <c r="D270">
         <v>28.02</v>
       </c>
       <c r="E270" s="1">
@@ -5061,7 +5072,7 @@
       <c r="C271" s="1">
         <v>6</v>
       </c>
-      <c r="D271" s="2">
+      <c r="D271">
         <v>27.939</v>
       </c>
       <c r="E271" s="1">
@@ -5078,7 +5089,7 @@
       <c r="C272" s="1">
         <v>7</v>
       </c>
-      <c r="D272" s="2">
+      <c r="D272">
         <v>27.914999999999999</v>
       </c>
       <c r="E272" s="1">
@@ -5095,7 +5106,7 @@
       <c r="C273" s="1">
         <v>8</v>
       </c>
-      <c r="D273" s="2">
+      <c r="D273">
         <v>27.925999999999998</v>
       </c>
       <c r="E273" s="1">
@@ -5112,7 +5123,7 @@
       <c r="C274" s="1">
         <v>9</v>
       </c>
-      <c r="D274" s="2">
+      <c r="D274">
         <v>28.021000000000001</v>
       </c>
       <c r="E274" s="1">
@@ -5129,7 +5140,7 @@
       <c r="C275" s="1">
         <v>10</v>
       </c>
-      <c r="D275" s="2">
+      <c r="D275">
         <v>28.032</v>
       </c>
       <c r="E275" s="1">
@@ -5146,7 +5157,7 @@
       <c r="C276" s="1">
         <v>11</v>
       </c>
-      <c r="D276" s="2">
+      <c r="D276">
         <v>27.981000000000002</v>
       </c>
       <c r="E276" s="1">
@@ -5163,7 +5174,7 @@
       <c r="C277" s="1">
         <v>12</v>
       </c>
-      <c r="D277" s="2">
+      <c r="D277">
         <v>27.962</v>
       </c>
       <c r="E277" s="1">
@@ -5180,7 +5191,7 @@
       <c r="C278" s="1">
         <v>1</v>
       </c>
-      <c r="D278" s="2">
+      <c r="D278">
         <v>27.931000000000001</v>
       </c>
       <c r="E278" s="1">
@@ -5197,7 +5208,7 @@
       <c r="C279" s="1">
         <v>2</v>
       </c>
-      <c r="D279" s="2">
+      <c r="D279">
         <v>27.965</v>
       </c>
       <c r="E279" s="1">
@@ -5214,7 +5225,7 @@
       <c r="C280" s="1">
         <v>3</v>
       </c>
-      <c r="D280" s="2">
+      <c r="D280">
         <v>27.956</v>
       </c>
       <c r="E280" s="1">
@@ -5231,7 +5242,7 @@
       <c r="C281" s="1">
         <v>4</v>
       </c>
-      <c r="D281" s="2">
+      <c r="D281">
         <v>27.951000000000001</v>
       </c>
       <c r="E281" s="1">
@@ -5248,7 +5259,7 @@
       <c r="C282" s="1">
         <v>5</v>
       </c>
-      <c r="D282" s="2">
+      <c r="D282">
         <v>27.917999999999999</v>
       </c>
       <c r="E282" s="1">
@@ -5265,7 +5276,7 @@
       <c r="C283" s="1">
         <v>6</v>
       </c>
-      <c r="D283" s="2">
+      <c r="D283">
         <v>27.952000000000002</v>
       </c>
       <c r="E283" s="1">
@@ -5282,7 +5293,7 @@
       <c r="C284" s="1">
         <v>7</v>
       </c>
-      <c r="D284" s="2">
+      <c r="D284">
         <v>27.896000000000001</v>
       </c>
       <c r="E284" s="1">
@@ -5299,7 +5310,7 @@
       <c r="C285" s="1">
         <v>8</v>
       </c>
-      <c r="D285" s="2">
+      <c r="D285">
         <v>27.916</v>
       </c>
       <c r="E285" s="1">
@@ -5316,7 +5327,7 @@
       <c r="C286" s="1">
         <v>9</v>
       </c>
-      <c r="D286" s="2">
+      <c r="D286">
         <v>27.971</v>
       </c>
       <c r="E286" s="1">
@@ -5333,7 +5344,7 @@
       <c r="C287" s="1">
         <v>10</v>
       </c>
-      <c r="D287" s="2">
+      <c r="D287">
         <v>28.006</v>
       </c>
       <c r="E287" s="1">
@@ -5350,7 +5361,7 @@
       <c r="C288" s="1">
         <v>11</v>
       </c>
-      <c r="D288" s="2">
+      <c r="D288">
         <v>27.954999999999998</v>
       </c>
       <c r="E288" s="1">
@@ -5367,7 +5378,7 @@
       <c r="C289" s="1">
         <v>12</v>
       </c>
-      <c r="D289" s="2">
+      <c r="D289">
         <v>27.971</v>
       </c>
       <c r="E289" s="1">
@@ -5384,7 +5395,7 @@
       <c r="C290" s="1">
         <v>1</v>
       </c>
-      <c r="D290" s="2">
+      <c r="D290">
         <v>27.835999999999999</v>
       </c>
       <c r="E290" s="1">
@@ -5401,7 +5412,7 @@
       <c r="C291" s="1">
         <v>2</v>
       </c>
-      <c r="D291" s="2">
+      <c r="D291">
         <v>27.295000000000002</v>
       </c>
       <c r="E291" s="1">
@@ -5418,7 +5429,7 @@
       <c r="C292" s="1">
         <v>3</v>
       </c>
-      <c r="D292" s="2">
+      <c r="D292">
         <v>27.855</v>
       </c>
       <c r="E292" s="1">
@@ -5435,7 +5446,7 @@
       <c r="C293" s="1">
         <v>4</v>
       </c>
-      <c r="D293" s="2">
+      <c r="D293">
         <v>27.946000000000002</v>
       </c>
       <c r="E293" s="1">
@@ -5452,7 +5463,7 @@
       <c r="C294" s="1">
         <v>5</v>
       </c>
-      <c r="D294" s="2">
+      <c r="D294">
         <v>27.876999999999999</v>
       </c>
       <c r="E294" s="1">
@@ -5469,7 +5480,7 @@
       <c r="C295" s="1">
         <v>6</v>
       </c>
-      <c r="D295" s="2">
+      <c r="D295">
         <v>27.885000000000002</v>
       </c>
       <c r="E295" s="1">
@@ -5486,7 +5497,7 @@
       <c r="C296" s="1">
         <v>7</v>
       </c>
-      <c r="D296" s="2">
+      <c r="D296">
         <v>27.890999999999998</v>
       </c>
       <c r="E296" s="1">
@@ -5503,7 +5514,7 @@
       <c r="C297" s="1">
         <v>8</v>
       </c>
-      <c r="D297" s="2">
+      <c r="D297">
         <v>27.853000000000002</v>
       </c>
       <c r="E297" s="1">
@@ -5520,7 +5531,7 @@
       <c r="C298" s="1">
         <v>9</v>
       </c>
-      <c r="D298" s="2">
+      <c r="D298">
         <v>27.914000000000001</v>
       </c>
       <c r="E298" s="1">
@@ -5537,7 +5548,7 @@
       <c r="C299" s="1">
         <v>10</v>
       </c>
-      <c r="D299" s="2">
+      <c r="D299">
         <v>27.853000000000002</v>
       </c>
       <c r="E299" s="1">
@@ -5554,7 +5565,7 @@
       <c r="C300" s="1">
         <v>11</v>
       </c>
-      <c r="D300" s="2">
+      <c r="D300">
         <v>27.908000000000001</v>
       </c>
       <c r="E300" s="1">
@@ -5571,7 +5582,7 @@
       <c r="C301" s="1">
         <v>12</v>
       </c>
-      <c r="D301" s="2">
+      <c r="D301">
         <v>27.814</v>
       </c>
       <c r="E301" s="1">
@@ -5588,7 +5599,7 @@
       <c r="C302" s="1">
         <v>1</v>
       </c>
-      <c r="D302" s="2">
+      <c r="D302">
         <v>27.811</v>
       </c>
       <c r="E302" s="1">
@@ -5605,7 +5616,7 @@
       <c r="C303" s="1">
         <v>2</v>
       </c>
-      <c r="D303" s="2">
+      <c r="D303">
         <v>27.818999999999999</v>
       </c>
       <c r="E303" s="1">
@@ -5622,7 +5633,7 @@
       <c r="C304" s="1">
         <v>3</v>
       </c>
-      <c r="D304" s="2">
+      <c r="D304">
         <v>27.93</v>
       </c>
       <c r="E304" s="1">
@@ -5639,7 +5650,7 @@
       <c r="C305" s="1">
         <v>4</v>
       </c>
-      <c r="D305" s="2">
+      <c r="D305">
         <v>27.904</v>
       </c>
       <c r="E305" s="1">
@@ -5656,7 +5667,7 @@
       <c r="C306" s="1">
         <v>5</v>
       </c>
-      <c r="D306" s="2">
+      <c r="D306">
         <v>27.92</v>
       </c>
       <c r="E306" s="1">
@@ -5673,7 +5684,7 @@
       <c r="C307" s="1">
         <v>6</v>
       </c>
-      <c r="D307" s="2">
+      <c r="D307">
         <v>27.852</v>
       </c>
       <c r="E307" s="1">
@@ -5690,7 +5701,7 @@
       <c r="C308" s="1">
         <v>7</v>
       </c>
-      <c r="D308" s="2">
+      <c r="D308">
         <v>27.827000000000002</v>
       </c>
       <c r="E308" s="1">
@@ -5707,7 +5718,7 @@
       <c r="C309" s="1">
         <v>8</v>
       </c>
-      <c r="D309" s="2">
+      <c r="D309">
         <v>27.917999999999999</v>
       </c>
       <c r="E309" s="1">
@@ -5724,7 +5735,7 @@
       <c r="C310" s="1">
         <v>9</v>
       </c>
-      <c r="D310" s="2">
+      <c r="D310">
         <v>27.902000000000001</v>
       </c>
       <c r="E310" s="1">
@@ -5741,7 +5752,7 @@
       <c r="C311" s="1">
         <v>10</v>
       </c>
-      <c r="D311" s="2">
+      <c r="D311">
         <v>27.875</v>
       </c>
       <c r="E311" s="1">
@@ -5758,7 +5769,7 @@
       <c r="C312" s="1">
         <v>11</v>
       </c>
-      <c r="D312" s="2">
+      <c r="D312">
         <v>27.858000000000001</v>
       </c>
       <c r="E312" s="1">
@@ -5775,7 +5786,7 @@
       <c r="C313" s="1">
         <v>12</v>
       </c>
-      <c r="D313" s="2">
+      <c r="D313">
         <v>27.94</v>
       </c>
       <c r="E313" s="1">
@@ -5792,7 +5803,7 @@
       <c r="C314" s="1">
         <v>1</v>
       </c>
-      <c r="D314" s="2">
+      <c r="D314">
         <v>27.88</v>
       </c>
       <c r="E314" s="1">
@@ -5809,7 +5820,7 @@
       <c r="C315" s="1">
         <v>2</v>
       </c>
-      <c r="D315" s="2">
+      <c r="D315">
         <v>27.77</v>
       </c>
       <c r="E315" s="1">
@@ -5826,7 +5837,7 @@
       <c r="C316" s="1">
         <v>3</v>
       </c>
-      <c r="D316" s="2">
+      <c r="D316">
         <v>27.792000000000002</v>
       </c>
       <c r="E316" s="1">
@@ -5843,7 +5854,7 @@
       <c r="C317" s="1">
         <v>4</v>
       </c>
-      <c r="D317" s="2">
+      <c r="D317">
         <v>27.827000000000002</v>
       </c>
       <c r="E317" s="1">
@@ -5860,7 +5871,7 @@
       <c r="C318" s="1">
         <v>5</v>
       </c>
-      <c r="D318" s="2">
+      <c r="D318">
         <v>27.826000000000001</v>
       </c>
       <c r="E318" s="1">
@@ -5877,7 +5888,7 @@
       <c r="C319" s="1">
         <v>6</v>
       </c>
-      <c r="D319" s="2">
+      <c r="D319">
         <v>27.888999999999999</v>
       </c>
       <c r="E319" s="1">
@@ -5894,7 +5905,7 @@
       <c r="C320" s="1">
         <v>7</v>
       </c>
-      <c r="D320" s="2">
+      <c r="D320">
         <v>27.814</v>
       </c>
       <c r="E320" s="1">
@@ -5911,7 +5922,7 @@
       <c r="C321" s="1">
         <v>8</v>
       </c>
-      <c r="D321" s="2">
+      <c r="D321">
         <v>27.858000000000001</v>
       </c>
       <c r="E321" s="1">
@@ -5928,7 +5939,7 @@
       <c r="C322" s="1">
         <v>9</v>
       </c>
-      <c r="D322" s="2">
+      <c r="D322">
         <v>27.884</v>
       </c>
       <c r="E322" s="1">
@@ -5945,7 +5956,7 @@
       <c r="C323" s="1">
         <v>10</v>
       </c>
-      <c r="D323" s="2">
+      <c r="D323">
         <v>27.905999999999999</v>
       </c>
       <c r="E323" s="1">
@@ -5962,7 +5973,7 @@
       <c r="C324" s="1">
         <v>11</v>
       </c>
-      <c r="D324" s="2">
+      <c r="D324">
         <v>27.96</v>
       </c>
       <c r="E324" s="1">
@@ -5979,7 +5990,7 @@
       <c r="C325" s="1">
         <v>12</v>
       </c>
-      <c r="D325" s="2">
+      <c r="D325">
         <v>27.87</v>
       </c>
       <c r="E325" s="1">
@@ -5996,7 +6007,7 @@
       <c r="C326" s="1">
         <v>1</v>
       </c>
-      <c r="D326" s="2">
+      <c r="D326">
         <v>27.905000000000001</v>
       </c>
       <c r="E326" s="1">
@@ -6013,7 +6024,7 @@
       <c r="C327" s="1">
         <v>2</v>
       </c>
-      <c r="D327" s="2">
+      <c r="D327">
         <v>27.879000000000001</v>
       </c>
       <c r="E327" s="1">
@@ -6030,7 +6041,7 @@
       <c r="C328" s="1">
         <v>3</v>
       </c>
-      <c r="D328" s="2">
+      <c r="D328">
         <v>27.917000000000002</v>
       </c>
       <c r="E328" s="1">
@@ -6047,7 +6058,7 @@
       <c r="C329" s="1">
         <v>4</v>
       </c>
-      <c r="D329" s="2">
+      <c r="D329">
         <v>27.936</v>
       </c>
       <c r="E329" s="1">
@@ -6064,7 +6075,7 @@
       <c r="C330" s="1">
         <v>5</v>
       </c>
-      <c r="D330" s="2">
+      <c r="D330">
         <v>27.966000000000001</v>
       </c>
       <c r="E330" s="1">
@@ -6081,7 +6092,7 @@
       <c r="C331" s="1">
         <v>6</v>
       </c>
-      <c r="D331" s="2">
+      <c r="D331">
         <v>27.93</v>
       </c>
       <c r="E331" s="1">
@@ -6098,7 +6109,7 @@
       <c r="C332" s="1">
         <v>7</v>
       </c>
-      <c r="D332" s="2">
+      <c r="D332">
         <v>27.96</v>
       </c>
       <c r="E332" s="1">
@@ -6115,7 +6126,7 @@
       <c r="C333" s="1">
         <v>8</v>
       </c>
-      <c r="D333" s="2">
+      <c r="D333">
         <v>27.971</v>
       </c>
       <c r="E333" s="1">
@@ -6132,7 +6143,7 @@
       <c r="C334" s="1">
         <v>9</v>
       </c>
-      <c r="D334" s="2">
+      <c r="D334">
         <v>27.936</v>
       </c>
       <c r="E334" s="1">
@@ -6149,7 +6160,7 @@
       <c r="C335" s="1">
         <v>10</v>
       </c>
-      <c r="D335" s="2">
+      <c r="D335">
         <v>28.041</v>
       </c>
       <c r="E335" s="1">
@@ -6166,7 +6177,7 @@
       <c r="C336" s="1">
         <v>11</v>
       </c>
-      <c r="D336" s="2">
+      <c r="D336">
         <v>27.986000000000001</v>
       </c>
       <c r="E336" s="1">
@@ -6183,7 +6194,7 @@
       <c r="C337" s="1">
         <v>12</v>
       </c>
-      <c r="D337" s="2">
+      <c r="D337">
         <v>27.948</v>
       </c>
       <c r="E337" s="1">
@@ -6200,7 +6211,7 @@
       <c r="C338" s="1">
         <v>1</v>
       </c>
-      <c r="D338" s="2">
+      <c r="D338">
         <v>22.7</v>
       </c>
       <c r="E338" s="1">
@@ -6217,7 +6228,7 @@
       <c r="C339" s="1">
         <v>2</v>
       </c>
-      <c r="D339" s="2">
+      <c r="D339">
         <v>22.8</v>
       </c>
       <c r="E339" s="1">
@@ -6234,7 +6245,7 @@
       <c r="C340" s="1">
         <v>3</v>
       </c>
-      <c r="D340" s="2">
+      <c r="D340">
         <v>21.77</v>
       </c>
       <c r="E340" s="1">
@@ -6251,7 +6262,7 @@
       <c r="C341" s="1">
         <v>4</v>
       </c>
-      <c r="D341" s="2">
+      <c r="D341">
         <v>23.83</v>
       </c>
       <c r="E341" s="1">
@@ -6268,7 +6279,7 @@
       <c r="C342" s="1">
         <v>5</v>
       </c>
-      <c r="D342" s="2">
+      <c r="D342">
         <v>24.27</v>
       </c>
       <c r="E342" s="1">
@@ -6285,7 +6296,7 @@
       <c r="C343" s="1">
         <v>6</v>
       </c>
-      <c r="D343" s="2">
+      <c r="D343">
         <v>23.53</v>
       </c>
       <c r="E343" s="1">
@@ -6302,7 +6313,7 @@
       <c r="C344" s="1">
         <v>7</v>
       </c>
-      <c r="D344" s="2">
+      <c r="D344">
         <v>23.73</v>
       </c>
       <c r="E344" s="1">
@@ -6319,7 +6330,7 @@
       <c r="C345" s="1">
         <v>8</v>
       </c>
-      <c r="D345" s="2">
+      <c r="D345">
         <v>23.2</v>
       </c>
       <c r="E345" s="1">
@@ -6336,7 +6347,7 @@
       <c r="C346" s="1">
         <v>9</v>
       </c>
-      <c r="D346" s="2">
+      <c r="D346">
         <v>23.63</v>
       </c>
       <c r="E346" s="1">
@@ -6353,7 +6364,7 @@
       <c r="C347" s="1">
         <v>10</v>
       </c>
-      <c r="D347" s="2">
+      <c r="D347">
         <v>23.57</v>
       </c>
       <c r="E347" s="1">
@@ -6370,7 +6381,7 @@
       <c r="C348" s="1">
         <v>11</v>
       </c>
-      <c r="D348" s="2">
+      <c r="D348">
         <v>23.77</v>
       </c>
       <c r="E348" s="1">
@@ -6387,7 +6398,7 @@
       <c r="C349" s="1">
         <v>12</v>
       </c>
-      <c r="D349" s="2">
+      <c r="D349">
         <v>23.7</v>
       </c>
       <c r="E349" s="1">
@@ -6404,7 +6415,7 @@
       <c r="C350" s="1">
         <v>1</v>
       </c>
-      <c r="D350" s="2">
+      <c r="D350">
         <v>22.8</v>
       </c>
       <c r="E350" s="1">
@@ -6421,7 +6432,7 @@
       <c r="C351" s="1">
         <v>2</v>
       </c>
-      <c r="D351" s="2">
+      <c r="D351">
         <v>22.9</v>
       </c>
       <c r="E351" s="1">
@@ -6438,7 +6449,7 @@
       <c r="C352" s="1">
         <v>3</v>
       </c>
-      <c r="D352" s="2">
+      <c r="D352">
         <v>23.13</v>
       </c>
       <c r="E352" s="1">
@@ -6455,7 +6466,7 @@
       <c r="C353" s="1">
         <v>4</v>
       </c>
-      <c r="D353" s="2">
+      <c r="D353">
         <v>23.67</v>
       </c>
       <c r="E353" s="1">
@@ -6472,7 +6483,7 @@
       <c r="C354" s="1">
         <v>5</v>
       </c>
-      <c r="D354" s="2">
+      <c r="D354">
         <v>24.17</v>
       </c>
       <c r="E354" s="1">
@@ -6489,7 +6500,7 @@
       <c r="C355" s="1">
         <v>6</v>
       </c>
-      <c r="D355" s="2">
+      <c r="D355">
         <v>23.73</v>
       </c>
       <c r="E355" s="1">
@@ -6506,7 +6517,7 @@
       <c r="C356" s="1">
         <v>7</v>
       </c>
-      <c r="D356" s="2">
+      <c r="D356">
         <v>22.33</v>
       </c>
       <c r="E356" s="1">
@@ -6523,7 +6534,7 @@
       <c r="C357" s="1">
         <v>8</v>
       </c>
-      <c r="D357" s="2">
+      <c r="D357">
         <v>23</v>
       </c>
       <c r="E357" s="1">
@@ -6540,7 +6551,7 @@
       <c r="C358" s="1">
         <v>9</v>
       </c>
-      <c r="D358" s="2">
+      <c r="D358">
         <v>23</v>
       </c>
       <c r="E358" s="1">
@@ -6557,7 +6568,7 @@
       <c r="C359" s="1">
         <v>10</v>
       </c>
-      <c r="D359" s="2">
+      <c r="D359">
         <v>23</v>
       </c>
       <c r="E359" s="1">
@@ -6574,7 +6585,7 @@
       <c r="C360" s="1">
         <v>11</v>
       </c>
-      <c r="D360" s="2">
+      <c r="D360">
         <v>23.67</v>
       </c>
       <c r="E360" s="1">
@@ -6591,7 +6602,7 @@
       <c r="C361" s="1">
         <v>12</v>
       </c>
-      <c r="D361" s="2">
+      <c r="D361">
         <v>23</v>
       </c>
       <c r="E361" s="1">
@@ -6608,7 +6619,7 @@
       <c r="C362" s="1">
         <v>1</v>
       </c>
-      <c r="D362" s="2">
+      <c r="D362">
         <v>23.107999999999901</v>
       </c>
       <c r="E362" s="1">
@@ -6625,7 +6636,7 @@
       <c r="C363" s="1">
         <v>2</v>
       </c>
-      <c r="D363" s="2">
+      <c r="D363">
         <v>23.032</v>
       </c>
       <c r="E363" s="1">
@@ -6642,7 +6653,7 @@
       <c r="C364" s="1">
         <v>3</v>
       </c>
-      <c r="D364" s="2">
+      <c r="D364">
         <v>23.1</v>
       </c>
       <c r="E364" s="1">
@@ -6659,7 +6670,7 @@
       <c r="C365" s="1">
         <v>4</v>
       </c>
-      <c r="D365" s="2">
+      <c r="D365">
         <v>22.545999999999999</v>
       </c>
       <c r="E365" s="1">
@@ -6676,7 +6687,7 @@
       <c r="C366" s="1">
         <v>5</v>
       </c>
-      <c r="D366" s="2">
+      <c r="D366">
         <v>24.228000000000002</v>
       </c>
       <c r="E366" s="1">
@@ -6693,7 +6704,7 @@
       <c r="C367" s="1">
         <v>6</v>
       </c>
-      <c r="D367" s="2">
+      <c r="D367">
         <v>23.518000000000001</v>
       </c>
       <c r="E367" s="1">
@@ -6710,7 +6721,7 @@
       <c r="C368" s="1">
         <v>7</v>
       </c>
-      <c r="D368" s="2">
+      <c r="D368">
         <v>23.103999999999999</v>
       </c>
       <c r="E368" s="1">
@@ -6727,7 +6738,7 @@
       <c r="C369" s="1">
         <v>8</v>
       </c>
-      <c r="D369" s="2">
+      <c r="D369">
         <v>23.213999999999999</v>
       </c>
       <c r="E369" s="1">
@@ -6744,7 +6755,7 @@
       <c r="C370" s="1">
         <v>9</v>
       </c>
-      <c r="D370" s="2">
+      <c r="D370">
         <v>23.125999999999902</v>
       </c>
       <c r="E370" s="1">
@@ -6761,7 +6772,7 @@
       <c r="C371" s="1">
         <v>10</v>
       </c>
-      <c r="D371" s="2">
+      <c r="D371">
         <v>23.262</v>
       </c>
       <c r="E371" s="1">
@@ -6778,7 +6789,7 @@
       <c r="C372" s="1">
         <v>11</v>
       </c>
-      <c r="D372" s="2">
+      <c r="D372">
         <v>23.728000000000002</v>
       </c>
       <c r="E372" s="1">
@@ -6795,7 +6806,7 @@
       <c r="C373" s="1">
         <v>12</v>
       </c>
-      <c r="D373" s="2">
+      <c r="D373">
         <v>23.245999999999999</v>
       </c>
       <c r="E373" s="1">
@@ -6812,7 +6823,7 @@
       <c r="C374" s="1">
         <v>1</v>
       </c>
-      <c r="D374" s="2">
+      <c r="D374">
         <v>23.107999999999901</v>
       </c>
       <c r="E374" s="1">
@@ -6829,7 +6840,7 @@
       <c r="C375" s="1">
         <v>2</v>
       </c>
-      <c r="D375" s="2">
+      <c r="D375">
         <v>23.032</v>
       </c>
       <c r="E375" s="1">
@@ -6846,7 +6857,7 @@
       <c r="C376" s="1">
         <v>3</v>
       </c>
-      <c r="D376" s="2">
+      <c r="D376">
         <v>23.1</v>
       </c>
       <c r="E376" s="1">
@@ -6863,7 +6874,7 @@
       <c r="C377" s="1">
         <v>4</v>
       </c>
-      <c r="D377" s="2">
+      <c r="D377">
         <v>22.545999999999999</v>
       </c>
       <c r="E377" s="1">
@@ -6880,7 +6891,7 @@
       <c r="C378" s="1">
         <v>5</v>
       </c>
-      <c r="D378" s="2">
+      <c r="D378">
         <v>24.228000000000002</v>
       </c>
       <c r="E378" s="1">
@@ -6897,7 +6908,7 @@
       <c r="C379" s="1">
         <v>6</v>
       </c>
-      <c r="D379" s="2">
+      <c r="D379">
         <v>23.518000000000001</v>
       </c>
       <c r="E379" s="1">
@@ -6914,7 +6925,7 @@
       <c r="C380" s="1">
         <v>7</v>
       </c>
-      <c r="D380" s="2">
+      <c r="D380">
         <v>23.103999999999999</v>
       </c>
       <c r="E380" s="1">
@@ -6931,7 +6942,7 @@
       <c r="C381" s="1">
         <v>8</v>
       </c>
-      <c r="D381" s="2">
+      <c r="D381">
         <v>23.213999999999999</v>
       </c>
       <c r="E381" s="1">
@@ -6948,7 +6959,7 @@
       <c r="C382" s="1">
         <v>9</v>
       </c>
-      <c r="D382" s="2">
+      <c r="D382">
         <v>23.125999999999902</v>
       </c>
       <c r="E382" s="1">
@@ -6965,7 +6976,7 @@
       <c r="C383" s="1">
         <v>10</v>
       </c>
-      <c r="D383" s="2">
+      <c r="D383">
         <v>23.262</v>
       </c>
       <c r="E383" s="1">
@@ -6982,7 +6993,7 @@
       <c r="C384" s="1">
         <v>11</v>
       </c>
-      <c r="D384" s="2">
+      <c r="D384">
         <v>23.728000000000002</v>
       </c>
       <c r="E384" s="1">
@@ -6999,7 +7010,7 @@
       <c r="C385" s="1">
         <v>12</v>
       </c>
-      <c r="D385" s="2">
+      <c r="D385">
         <v>23.245999999999999</v>
       </c>
       <c r="E385" s="1">
@@ -7016,7 +7027,7 @@
       <c r="C386" s="1">
         <v>1</v>
       </c>
-      <c r="D386" s="2">
+      <c r="D386">
         <v>23.107999999999901</v>
       </c>
       <c r="E386" s="1">
@@ -7033,7 +7044,7 @@
       <c r="C387" s="1">
         <v>2</v>
       </c>
-      <c r="D387" s="2">
+      <c r="D387">
         <v>23.032</v>
       </c>
       <c r="E387" s="1">
@@ -7050,7 +7061,7 @@
       <c r="C388" s="1">
         <v>3</v>
       </c>
-      <c r="D388" s="2">
+      <c r="D388">
         <v>23.1</v>
       </c>
       <c r="E388" s="1">
@@ -7067,7 +7078,7 @@
       <c r="C389" s="1">
         <v>4</v>
       </c>
-      <c r="D389" s="2">
+      <c r="D389">
         <v>22.545999999999999</v>
       </c>
       <c r="E389" s="1">
@@ -7084,7 +7095,7 @@
       <c r="C390" s="1">
         <v>5</v>
       </c>
-      <c r="D390" s="2">
+      <c r="D390">
         <v>24.228000000000002</v>
       </c>
       <c r="E390" s="1">
@@ -7101,7 +7112,7 @@
       <c r="C391" s="1">
         <v>6</v>
       </c>
-      <c r="D391" s="2">
+      <c r="D391">
         <v>23.518000000000001</v>
       </c>
       <c r="E391" s="1">
@@ -7118,7 +7129,7 @@
       <c r="C392" s="1">
         <v>7</v>
       </c>
-      <c r="D392" s="2">
+      <c r="D392">
         <v>23.103999999999999</v>
       </c>
       <c r="E392" s="1">
@@ -7135,7 +7146,7 @@
       <c r="C393" s="1">
         <v>8</v>
       </c>
-      <c r="D393" s="2">
+      <c r="D393">
         <v>23.213999999999999</v>
       </c>
       <c r="E393" s="1">
@@ -7152,7 +7163,7 @@
       <c r="C394" s="1">
         <v>9</v>
       </c>
-      <c r="D394" s="2">
+      <c r="D394">
         <v>23.125999999999902</v>
       </c>
       <c r="E394" s="1">
@@ -7169,7 +7180,7 @@
       <c r="C395" s="1">
         <v>10</v>
       </c>
-      <c r="D395" s="2">
+      <c r="D395">
         <v>23.262</v>
       </c>
       <c r="E395" s="1">
@@ -7186,7 +7197,7 @@
       <c r="C396" s="1">
         <v>11</v>
       </c>
-      <c r="D396" s="2">
+      <c r="D396">
         <v>23.728000000000002</v>
       </c>
       <c r="E396" s="1">
@@ -7203,7 +7214,7 @@
       <c r="C397" s="1">
         <v>12</v>
       </c>
-      <c r="D397" s="2">
+      <c r="D397">
         <v>23.245999999999999</v>
       </c>
       <c r="E397" s="1">
@@ -7220,7 +7231,7 @@
       <c r="C398" s="1">
         <v>1</v>
       </c>
-      <c r="D398" s="2">
+      <c r="D398">
         <v>23.107999999999901</v>
       </c>
       <c r="E398" s="1">
@@ -7237,7 +7248,7 @@
       <c r="C399" s="1">
         <v>2</v>
       </c>
-      <c r="D399" s="2">
+      <c r="D399">
         <v>23.032</v>
       </c>
       <c r="E399" s="1">
@@ -7254,7 +7265,7 @@
       <c r="C400" s="1">
         <v>3</v>
       </c>
-      <c r="D400" s="2">
+      <c r="D400">
         <v>23.1</v>
       </c>
       <c r="E400" s="1">
@@ -7271,7 +7282,7 @@
       <c r="C401" s="1">
         <v>4</v>
       </c>
-      <c r="D401" s="2">
+      <c r="D401">
         <v>22.545999999999999</v>
       </c>
       <c r="E401" s="1">
@@ -7288,7 +7299,7 @@
       <c r="C402" s="1">
         <v>5</v>
       </c>
-      <c r="D402" s="2">
+      <c r="D402">
         <v>24.228000000000002</v>
       </c>
       <c r="E402" s="1">
@@ -7305,7 +7316,7 @@
       <c r="C403" s="1">
         <v>6</v>
       </c>
-      <c r="D403" s="2">
+      <c r="D403">
         <v>23.518000000000001</v>
       </c>
       <c r="E403" s="1">
@@ -7322,7 +7333,7 @@
       <c r="C404" s="1">
         <v>7</v>
       </c>
-      <c r="D404" s="2">
+      <c r="D404">
         <v>23.103999999999999</v>
       </c>
       <c r="E404" s="1">
@@ -7339,7 +7350,7 @@
       <c r="C405" s="1">
         <v>8</v>
       </c>
-      <c r="D405" s="2">
+      <c r="D405">
         <v>23.213999999999999</v>
       </c>
       <c r="E405" s="1">
@@ -7356,7 +7367,7 @@
       <c r="C406" s="1">
         <v>9</v>
       </c>
-      <c r="D406" s="2">
+      <c r="D406">
         <v>23.125999999999902</v>
       </c>
       <c r="E406" s="1">
@@ -7373,7 +7384,7 @@
       <c r="C407" s="1">
         <v>10</v>
       </c>
-      <c r="D407" s="2">
+      <c r="D407">
         <v>23.262</v>
       </c>
       <c r="E407" s="1">
@@ -7390,7 +7401,7 @@
       <c r="C408" s="1">
         <v>11</v>
       </c>
-      <c r="D408" s="2">
+      <c r="D408">
         <v>23.728000000000002</v>
       </c>
       <c r="E408" s="1">
@@ -7407,7 +7418,7 @@
       <c r="C409" s="1">
         <v>12</v>
       </c>
-      <c r="D409" s="2">
+      <c r="D409">
         <v>23.245999999999999</v>
       </c>
       <c r="E409" s="1">
@@ -7424,7 +7435,7 @@
       <c r="C410" s="1">
         <v>1</v>
       </c>
-      <c r="D410" s="2">
+      <c r="D410">
         <v>23.107999999999901</v>
       </c>
       <c r="E410" s="1">
@@ -7441,7 +7452,7 @@
       <c r="C411" s="1">
         <v>2</v>
       </c>
-      <c r="D411" s="2">
+      <c r="D411">
         <v>23.032</v>
       </c>
       <c r="E411" s="1">
@@ -7458,7 +7469,7 @@
       <c r="C412" s="1">
         <v>3</v>
       </c>
-      <c r="D412" s="2">
+      <c r="D412">
         <v>23.1</v>
       </c>
       <c r="E412" s="1">
@@ -7475,7 +7486,7 @@
       <c r="C413" s="1">
         <v>4</v>
       </c>
-      <c r="D413" s="2">
+      <c r="D413">
         <v>22.545999999999999</v>
       </c>
       <c r="E413" s="1">
@@ -7492,7 +7503,7 @@
       <c r="C414" s="1">
         <v>5</v>
       </c>
-      <c r="D414" s="2">
+      <c r="D414">
         <v>24.228000000000002</v>
       </c>
       <c r="E414" s="1">
@@ -7509,7 +7520,7 @@
       <c r="C415" s="1">
         <v>6</v>
       </c>
-      <c r="D415" s="2">
+      <c r="D415">
         <v>23.518000000000001</v>
       </c>
       <c r="E415" s="1">
@@ -7526,7 +7537,7 @@
       <c r="C416" s="1">
         <v>7</v>
       </c>
-      <c r="D416" s="2">
+      <c r="D416">
         <v>23.103999999999999</v>
       </c>
       <c r="E416" s="1">
@@ -7543,7 +7554,7 @@
       <c r="C417" s="1">
         <v>8</v>
       </c>
-      <c r="D417" s="2">
+      <c r="D417">
         <v>23.213999999999999</v>
       </c>
       <c r="E417" s="1">
@@ -7560,7 +7571,7 @@
       <c r="C418" s="1">
         <v>9</v>
       </c>
-      <c r="D418" s="2">
+      <c r="D418">
         <v>23.125999999999902</v>
       </c>
       <c r="E418" s="1">
@@ -7577,7 +7588,7 @@
       <c r="C419" s="1">
         <v>10</v>
       </c>
-      <c r="D419" s="2">
+      <c r="D419">
         <v>23.262</v>
       </c>
       <c r="E419" s="1">
@@ -7594,7 +7605,7 @@
       <c r="C420" s="1">
         <v>11</v>
       </c>
-      <c r="D420" s="2">
+      <c r="D420">
         <v>23.728000000000002</v>
       </c>
       <c r="E420" s="1">
@@ -7611,7 +7622,7 @@
       <c r="C421" s="1">
         <v>12</v>
       </c>
-      <c r="D421" s="2">
+      <c r="D421">
         <v>23.245999999999999</v>
       </c>
       <c r="E421" s="1">
@@ -7628,7 +7639,7 @@
       <c r="C422" s="1">
         <v>1</v>
       </c>
-      <c r="D422" s="2">
+      <c r="D422">
         <v>26.6</v>
       </c>
       <c r="E422" s="1">
@@ -7645,7 +7656,7 @@
       <c r="C423" s="1">
         <v>2</v>
       </c>
-      <c r="D423" s="2">
+      <c r="D423">
         <v>26.4</v>
       </c>
       <c r="E423" s="1">
@@ -7662,7 +7673,7 @@
       <c r="C424" s="1">
         <v>3</v>
       </c>
-      <c r="D424" s="2">
+      <c r="D424">
         <v>26.8</v>
       </c>
       <c r="E424" s="1">
@@ -7679,7 +7690,7 @@
       <c r="C425" s="1">
         <v>4</v>
       </c>
-      <c r="D425" s="2">
+      <c r="D425">
         <v>27.2</v>
       </c>
       <c r="E425" s="1">
@@ -7696,7 +7707,7 @@
       <c r="C426" s="1">
         <v>5</v>
       </c>
-      <c r="D426" s="2">
+      <c r="D426">
         <v>27.1</v>
       </c>
       <c r="E426" s="1">
@@ -7713,7 +7724,7 @@
       <c r="C427" s="1">
         <v>6</v>
       </c>
-      <c r="D427" s="2">
+      <c r="D427">
         <v>26.7</v>
       </c>
       <c r="E427" s="1">
@@ -7730,7 +7741,7 @@
       <c r="C428" s="1">
         <v>7</v>
       </c>
-      <c r="D428" s="2">
+      <c r="D428">
         <v>26.5</v>
       </c>
       <c r="E428" s="1">
@@ -7747,7 +7758,7 @@
       <c r="C429" s="1">
         <v>8</v>
       </c>
-      <c r="D429" s="2">
+      <c r="D429">
         <v>26.5</v>
       </c>
       <c r="E429" s="1">
@@ -7764,7 +7775,7 @@
       <c r="C430" s="1">
         <v>9</v>
       </c>
-      <c r="D430" s="2">
+      <c r="D430">
         <v>27.4</v>
       </c>
       <c r="E430" s="1">
@@ -7781,7 +7792,7 @@
       <c r="C431" s="1">
         <v>10</v>
       </c>
-      <c r="D431" s="2">
+      <c r="D431">
         <v>27.7</v>
       </c>
       <c r="E431" s="1">
@@ -7798,7 +7809,7 @@
       <c r="C432" s="1">
         <v>11</v>
       </c>
-      <c r="D432" s="2">
+      <c r="D432">
         <v>27.3</v>
       </c>
       <c r="E432" s="1">
@@ -7815,7 +7826,7 @@
       <c r="C433" s="1">
         <v>12</v>
       </c>
-      <c r="D433" s="2">
+      <c r="D433">
         <v>26.7</v>
       </c>
       <c r="E433" s="1">
@@ -7832,7 +7843,7 @@
       <c r="C434" s="1">
         <v>1</v>
       </c>
-      <c r="D434" s="2">
+      <c r="D434">
         <v>26.6</v>
       </c>
       <c r="E434" s="1">
@@ -7849,7 +7860,7 @@
       <c r="C435" s="1">
         <v>2</v>
       </c>
-      <c r="D435" s="2">
+      <c r="D435">
         <v>26.1</v>
       </c>
       <c r="E435" s="1">
@@ -7866,7 +7877,7 @@
       <c r="C436" s="1">
         <v>3</v>
       </c>
-      <c r="D436" s="2">
+      <c r="D436">
         <v>26.4</v>
       </c>
       <c r="E436" s="1">
@@ -7883,7 +7894,7 @@
       <c r="C437" s="1">
         <v>4</v>
       </c>
-      <c r="D437" s="2">
+      <c r="D437">
         <v>26.9</v>
       </c>
       <c r="E437" s="1">
@@ -7900,7 +7911,7 @@
       <c r="C438" s="1">
         <v>5</v>
       </c>
-      <c r="D438" s="2">
+      <c r="D438">
         <v>26.8</v>
       </c>
       <c r="E438" s="1">
@@ -7917,7 +7928,7 @@
       <c r="C439" s="1">
         <v>6</v>
       </c>
-      <c r="D439" s="2">
+      <c r="D439">
         <v>26.6</v>
       </c>
       <c r="E439" s="1">
@@ -7934,7 +7945,7 @@
       <c r="C440" s="1">
         <v>7</v>
       </c>
-      <c r="D440" s="2">
+      <c r="D440">
         <v>26.2</v>
       </c>
       <c r="E440" s="1">
@@ -7951,7 +7962,7 @@
       <c r="C441" s="1">
         <v>8</v>
       </c>
-      <c r="D441" s="2">
+      <c r="D441">
         <v>26.9</v>
       </c>
       <c r="E441" s="1">
@@ -7968,7 +7979,7 @@
       <c r="C442" s="1">
         <v>9</v>
       </c>
-      <c r="D442" s="2">
+      <c r="D442">
         <v>26.6</v>
       </c>
       <c r="E442" s="1">
@@ -7985,7 +7996,7 @@
       <c r="C443" s="1">
         <v>10</v>
       </c>
-      <c r="D443" s="2">
+      <c r="D443">
         <v>27.9</v>
       </c>
       <c r="E443" s="1">
@@ -8002,7 +8013,7 @@
       <c r="C444" s="1">
         <v>11</v>
       </c>
-      <c r="D444" s="2">
+      <c r="D444">
         <v>27.5</v>
       </c>
       <c r="E444" s="1">
@@ -8019,7 +8030,7 @@
       <c r="C445" s="1">
         <v>12</v>
       </c>
-      <c r="D445" s="2">
+      <c r="D445">
         <v>27.2</v>
       </c>
       <c r="E445" s="1">
@@ -8036,7 +8047,7 @@
       <c r="C446" s="1">
         <v>1</v>
       </c>
-      <c r="D446" s="2">
+      <c r="D446">
         <v>27</v>
       </c>
       <c r="E446" s="1">
@@ -8053,7 +8064,7 @@
       <c r="C447" s="1">
         <v>2</v>
       </c>
-      <c r="D447" s="2">
+      <c r="D447">
         <v>26.9</v>
       </c>
       <c r="E447" s="1">
@@ -8070,7 +8081,7 @@
       <c r="C448" s="1">
         <v>3</v>
       </c>
-      <c r="D448" s="2">
+      <c r="D448">
         <v>26.9</v>
       </c>
       <c r="E448" s="1">
@@ -8087,7 +8098,7 @@
       <c r="C449" s="1">
         <v>4</v>
       </c>
-      <c r="D449" s="2">
+      <c r="D449">
         <v>27</v>
       </c>
       <c r="E449" s="1">
@@ -8104,7 +8115,7 @@
       <c r="C450" s="1">
         <v>5</v>
       </c>
-      <c r="D450" s="2">
+      <c r="D450">
         <v>27.3</v>
       </c>
       <c r="E450" s="1">
@@ -8121,7 +8132,7 @@
       <c r="C451" s="1">
         <v>6</v>
       </c>
-      <c r="D451" s="2">
+      <c r="D451">
         <v>27</v>
       </c>
       <c r="E451" s="1">
@@ -8138,7 +8149,7 @@
       <c r="C452" s="1">
         <v>7</v>
       </c>
-      <c r="D452" s="2">
+      <c r="D452">
         <v>26.4</v>
       </c>
       <c r="E452" s="1">
@@ -8155,7 +8166,7 @@
       <c r="C453" s="1">
         <v>8</v>
       </c>
-      <c r="D453" s="2">
+      <c r="D453">
         <v>26.5</v>
       </c>
       <c r="E453" s="1">
@@ -8172,7 +8183,7 @@
       <c r="C454" s="1">
         <v>9</v>
       </c>
-      <c r="D454" s="2">
+      <c r="D454">
         <v>27.2</v>
       </c>
       <c r="E454" s="1">
@@ -8189,7 +8200,7 @@
       <c r="C455" s="1">
         <v>10</v>
       </c>
-      <c r="D455" s="2">
+      <c r="D455">
         <v>27.9</v>
       </c>
       <c r="E455" s="1">
@@ -8206,7 +8217,7 @@
       <c r="C456" s="1">
         <v>11</v>
       </c>
-      <c r="D456" s="2">
+      <c r="D456">
         <v>28.6</v>
       </c>
       <c r="E456" s="1">
@@ -8223,7 +8234,7 @@
       <c r="C457" s="1">
         <v>12</v>
       </c>
-      <c r="D457" s="2">
+      <c r="D457">
         <v>27.7</v>
       </c>
       <c r="E457" s="1">
@@ -8240,7 +8251,7 @@
       <c r="C458" s="1">
         <v>1</v>
       </c>
-      <c r="D458" s="2">
+      <c r="D458">
         <v>27.17</v>
       </c>
       <c r="E458" s="1">
@@ -8257,7 +8268,7 @@
       <c r="C459" s="1">
         <v>2</v>
       </c>
-      <c r="D459" s="2">
+      <c r="D459">
         <v>27.22</v>
       </c>
       <c r="E459" s="1">
@@ -8274,7 +8285,7 @@
       <c r="C460" s="1">
         <v>3</v>
       </c>
-      <c r="D460" s="2">
+      <c r="D460">
         <v>27.4</v>
       </c>
       <c r="E460" s="1">
@@ -8291,7 +8302,7 @@
       <c r="C461" s="1">
         <v>4</v>
       </c>
-      <c r="D461" s="2">
+      <c r="D461">
         <v>27.35</v>
       </c>
       <c r="E461" s="1">
@@ -8308,7 +8319,7 @@
       <c r="C462" s="1">
         <v>5</v>
       </c>
-      <c r="D462" s="2">
+      <c r="D462">
         <v>27.62</v>
       </c>
       <c r="E462" s="1">
@@ -8325,7 +8336,7 @@
       <c r="C463" s="1">
         <v>6</v>
       </c>
-      <c r="D463" s="2">
+      <c r="D463">
         <v>26.71</v>
       </c>
       <c r="E463" s="1">
@@ -8342,7 +8353,7 @@
       <c r="C464" s="1">
         <v>7</v>
       </c>
-      <c r="D464" s="2">
+      <c r="D464">
         <v>26.45</v>
       </c>
       <c r="E464" s="1">
@@ -8359,7 +8370,7 @@
       <c r="C465" s="1">
         <v>8</v>
       </c>
-      <c r="D465" s="2">
+      <c r="D465">
         <v>27.02</v>
       </c>
       <c r="E465" s="1">
@@ -8376,7 +8387,7 @@
       <c r="C466" s="1">
         <v>9</v>
       </c>
-      <c r="D466" s="2">
+      <c r="D466">
         <v>27.4</v>
       </c>
       <c r="E466" s="1">
@@ -8393,7 +8404,7 @@
       <c r="C467" s="1">
         <v>10</v>
       </c>
-      <c r="D467" s="2">
+      <c r="D467">
         <v>27.5</v>
       </c>
       <c r="E467" s="1">
@@ -8410,7 +8421,7 @@
       <c r="C468" s="1">
         <v>11</v>
       </c>
-      <c r="D468" s="2">
+      <c r="D468">
         <v>27.36</v>
       </c>
       <c r="E468" s="1">
@@ -8427,7 +8438,7 @@
       <c r="C469" s="1">
         <v>12</v>
       </c>
-      <c r="D469" s="2">
+      <c r="D469">
         <v>26.71</v>
       </c>
       <c r="E469" s="1">
@@ -8444,7 +8455,7 @@
       <c r="C470" s="1">
         <v>1</v>
       </c>
-      <c r="D470" s="2">
+      <c r="D470">
         <v>26.2</v>
       </c>
       <c r="E470" s="1">
@@ -8461,7 +8472,7 @@
       <c r="C471" s="1">
         <v>2</v>
       </c>
-      <c r="D471" s="2">
+      <c r="D471">
         <v>26.5</v>
       </c>
       <c r="E471" s="1">
@@ -8478,7 +8489,7 @@
       <c r="C472" s="1">
         <v>3</v>
       </c>
-      <c r="D472" s="2">
+      <c r="D472">
         <v>27.1</v>
       </c>
       <c r="E472" s="1">
@@ -8495,7 +8506,7 @@
       <c r="C473" s="1">
         <v>4</v>
       </c>
-      <c r="D473" s="2">
+      <c r="D473">
         <v>27.5</v>
       </c>
       <c r="E473" s="1">
@@ -8512,7 +8523,7 @@
       <c r="C474" s="1">
         <v>5</v>
       </c>
-      <c r="D474" s="2">
+      <c r="D474">
         <v>27.8</v>
       </c>
       <c r="E474" s="1">
@@ -8529,7 +8540,7 @@
       <c r="C475" s="1">
         <v>6</v>
       </c>
-      <c r="D475" s="2">
+      <c r="D475">
         <v>27.2</v>
       </c>
       <c r="E475" s="1">
@@ -8546,7 +8557,7 @@
       <c r="C476" s="1">
         <v>7</v>
       </c>
-      <c r="D476" s="2">
+      <c r="D476">
         <v>26.8</v>
       </c>
       <c r="E476" s="1">
@@ -8563,7 +8574,7 @@
       <c r="C477" s="1">
         <v>8</v>
       </c>
-      <c r="D477" s="2">
+      <c r="D477">
         <v>27</v>
       </c>
       <c r="E477" s="1">
@@ -8580,7 +8591,7 @@
       <c r="C478" s="1">
         <v>9</v>
       </c>
-      <c r="D478" s="2">
+      <c r="D478">
         <v>27.1</v>
       </c>
       <c r="E478" s="1">
@@ -8597,7 +8608,7 @@
       <c r="C479" s="1">
         <v>10</v>
       </c>
-      <c r="D479" s="2">
+      <c r="D479">
         <v>27.9</v>
       </c>
       <c r="E479" s="1">
@@ -8614,7 +8625,7 @@
       <c r="C480" s="1">
         <v>11</v>
       </c>
-      <c r="D480" s="2">
+      <c r="D480">
         <v>27.3</v>
       </c>
       <c r="E480" s="1">
@@ -8631,7 +8642,7 @@
       <c r="C481" s="1">
         <v>12</v>
       </c>
-      <c r="D481" s="2">
+      <c r="D481">
         <v>27.2</v>
       </c>
       <c r="E481" s="1">
@@ -8648,7 +8659,7 @@
       <c r="C482" s="1">
         <v>1</v>
       </c>
-      <c r="D482" s="2">
+      <c r="D482">
         <v>34.200000000000003</v>
       </c>
       <c r="E482" s="1">
@@ -8665,7 +8676,7 @@
       <c r="C483" s="1">
         <v>2</v>
       </c>
-      <c r="D483" s="2">
+      <c r="D483">
         <v>34.4</v>
       </c>
       <c r="E483" s="1">
@@ -8682,7 +8693,7 @@
       <c r="C484" s="1">
         <v>3</v>
       </c>
-      <c r="D484" s="2">
+      <c r="D484">
         <v>34.6</v>
       </c>
       <c r="E484" s="1">
@@ -8699,7 +8710,7 @@
       <c r="C485" s="1">
         <v>4</v>
       </c>
-      <c r="D485" s="2">
+      <c r="D485">
         <v>35.200000000000003</v>
       </c>
       <c r="E485" s="1">
@@ -8716,7 +8727,7 @@
       <c r="C486" s="1">
         <v>5</v>
       </c>
-      <c r="D486" s="2">
+      <c r="D486">
         <v>35</v>
       </c>
       <c r="E486" s="1">
@@ -8733,7 +8744,7 @@
       <c r="C487" s="1">
         <v>6</v>
       </c>
-      <c r="D487" s="2">
+      <c r="D487">
         <v>34.200000000000003</v>
       </c>
       <c r="E487" s="1">
@@ -8750,7 +8761,7 @@
       <c r="C488" s="1">
         <v>7</v>
       </c>
-      <c r="D488" s="2">
+      <c r="D488">
         <v>33.4</v>
       </c>
       <c r="E488" s="1">
@@ -8767,7 +8778,7 @@
       <c r="C489" s="1">
         <v>8</v>
       </c>
-      <c r="D489" s="2">
+      <c r="D489">
         <v>34.200000000000003</v>
       </c>
       <c r="E489" s="1">
@@ -8784,7 +8795,7 @@
       <c r="C490" s="1">
         <v>9</v>
       </c>
-      <c r="D490" s="2">
+      <c r="D490">
         <v>34</v>
       </c>
       <c r="E490" s="1">
@@ -8801,7 +8812,7 @@
       <c r="C491" s="1">
         <v>10</v>
       </c>
-      <c r="D491" s="2">
+      <c r="D491">
         <v>34.4</v>
       </c>
       <c r="E491" s="1">
@@ -8818,7 +8829,7 @@
       <c r="C492" s="1">
         <v>11</v>
       </c>
-      <c r="D492" s="2">
+      <c r="D492">
         <v>35</v>
       </c>
       <c r="E492" s="1">
@@ -8835,7 +8846,7 @@
       <c r="C493" s="1">
         <v>12</v>
       </c>
-      <c r="D493" s="2">
+      <c r="D493">
         <v>33.6</v>
       </c>
       <c r="E493" s="1">
@@ -8852,7 +8863,7 @@
       <c r="C494" s="1">
         <v>1</v>
       </c>
-      <c r="D494" s="2">
+      <c r="D494">
         <v>27.8</v>
       </c>
       <c r="E494" s="1">
@@ -8869,7 +8880,7 @@
       <c r="C495" s="1">
         <v>2</v>
       </c>
-      <c r="D495" s="2">
+      <c r="D495">
         <v>27.9</v>
       </c>
       <c r="E495" s="1">
@@ -8886,7 +8897,7 @@
       <c r="C496" s="1">
         <v>3</v>
       </c>
-      <c r="D496" s="2">
+      <c r="D496">
         <v>28.3</v>
       </c>
       <c r="E496" s="1">
@@ -8903,7 +8914,7 @@
       <c r="C497" s="1">
         <v>4</v>
       </c>
-      <c r="D497" s="2">
+      <c r="D497">
         <v>29.6</v>
       </c>
       <c r="E497" s="1">
@@ -8920,7 +8931,7 @@
       <c r="C498" s="1">
         <v>5</v>
       </c>
-      <c r="D498" s="2">
+      <c r="D498">
         <v>30</v>
       </c>
       <c r="E498" s="1">
@@ -8937,7 +8948,7 @@
       <c r="C499" s="1">
         <v>6</v>
       </c>
-      <c r="D499" s="2">
+      <c r="D499">
         <v>29.1</v>
       </c>
       <c r="E499" s="1">
@@ -8954,7 +8965,7 @@
       <c r="C500" s="1">
         <v>7</v>
       </c>
-      <c r="D500" s="2">
+      <c r="D500">
         <v>28.9</v>
       </c>
       <c r="E500" s="1">
@@ -8971,7 +8982,7 @@
       <c r="C501" s="1">
         <v>8</v>
       </c>
-      <c r="D501" s="2">
+      <c r="D501">
         <v>29.6</v>
       </c>
       <c r="E501" s="1">
@@ -8988,7 +8999,7 @@
       <c r="C502" s="1">
         <v>9</v>
       </c>
-      <c r="D502" s="2">
+      <c r="D502">
         <v>30.9</v>
       </c>
       <c r="E502" s="1">
@@ -9005,7 +9016,7 @@
       <c r="C503" s="1">
         <v>10</v>
       </c>
-      <c r="D503" s="2">
+      <c r="D503">
         <v>32.200000000000003</v>
       </c>
       <c r="E503" s="1">
@@ -9022,7 +9033,7 @@
       <c r="C504" s="1">
         <v>11</v>
       </c>
-      <c r="D504" s="2">
+      <c r="D504">
         <v>30.4</v>
       </c>
       <c r="E504" s="1">
@@ -9039,11 +9050,4907 @@
       <c r="C505" s="1">
         <v>12</v>
       </c>
-      <c r="D505" s="2">
+      <c r="D505">
         <v>29.9</v>
       </c>
       <c r="E505" s="1">
         <v>118.9</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A506" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B506" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C506" s="3">
+        <v>1</v>
+      </c>
+      <c r="D506" s="3">
+        <v>26.79</v>
+      </c>
+      <c r="E506" s="3">
+        <v>377.52</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A507" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B507" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C507" s="3">
+        <v>2</v>
+      </c>
+      <c r="D507" s="3">
+        <v>27.19</v>
+      </c>
+      <c r="E507" s="3">
+        <v>365.8</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A508" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B508" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C508" s="3">
+        <v>3</v>
+      </c>
+      <c r="D508" s="3">
+        <v>27.55</v>
+      </c>
+      <c r="E508" s="3">
+        <v>265.55</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A509" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B509" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C509" s="3">
+        <v>4</v>
+      </c>
+      <c r="D509" s="3">
+        <v>27.85</v>
+      </c>
+      <c r="E509" s="3">
+        <v>384.39</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A510" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B510" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C510" s="3">
+        <v>5</v>
+      </c>
+      <c r="D510" s="3">
+        <v>26.68</v>
+      </c>
+      <c r="E510" s="3">
+        <v>331.57</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A511" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B511" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C511" s="3">
+        <v>6</v>
+      </c>
+      <c r="D511" s="3">
+        <v>26.71</v>
+      </c>
+      <c r="E511" s="3">
+        <v>217.83</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A512" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B512" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C512" s="3">
+        <v>7</v>
+      </c>
+      <c r="D512" s="3">
+        <v>27.37</v>
+      </c>
+      <c r="E512" s="3">
+        <v>238.05</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A513" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B513" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C513" s="3">
+        <v>8</v>
+      </c>
+      <c r="D513" s="3">
+        <v>27.16</v>
+      </c>
+      <c r="E513" s="3">
+        <v>262.64</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A514" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B514" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C514" s="3">
+        <v>9</v>
+      </c>
+      <c r="D514" s="3">
+        <v>27.92</v>
+      </c>
+      <c r="E514" s="3">
+        <v>299.35000000000002</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A515" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B515" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C515" s="3">
+        <v>10</v>
+      </c>
+      <c r="D515" s="3">
+        <v>27.17</v>
+      </c>
+      <c r="E515" s="3">
+        <v>376.64</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A516" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B516" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C516" s="3">
+        <v>11</v>
+      </c>
+      <c r="D516" s="3">
+        <v>27.19</v>
+      </c>
+      <c r="E516" s="3">
+        <v>357.79</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A517" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B517" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C517" s="3">
+        <v>12</v>
+      </c>
+      <c r="D517" s="3">
+        <v>26.64</v>
+      </c>
+      <c r="E517" s="3">
+        <v>390.05</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A518" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B518" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C518" s="3">
+        <v>1</v>
+      </c>
+      <c r="D518" s="3">
+        <v>26.54</v>
+      </c>
+      <c r="E518" s="3">
+        <v>372.97</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A519" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B519" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C519" s="3">
+        <v>2</v>
+      </c>
+      <c r="D519" s="3">
+        <v>27.58</v>
+      </c>
+      <c r="E519" s="3">
+        <v>314.58</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A520" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B520" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C520" s="3">
+        <v>3</v>
+      </c>
+      <c r="D520" s="3">
+        <v>27.73</v>
+      </c>
+      <c r="E520" s="3">
+        <v>213.85</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A521" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B521" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C521" s="3">
+        <v>4</v>
+      </c>
+      <c r="D521" s="3">
+        <v>27.09</v>
+      </c>
+      <c r="E521" s="3">
+        <v>396.83</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A522" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B522" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C522" s="3">
+        <v>5</v>
+      </c>
+      <c r="D522" s="3">
+        <v>26.9</v>
+      </c>
+      <c r="E522" s="3">
+        <v>319.19</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A523" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B523" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C523" s="3">
+        <v>6</v>
+      </c>
+      <c r="D523" s="3">
+        <v>27.21</v>
+      </c>
+      <c r="E523" s="3">
+        <v>385.78</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A524" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B524" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C524" s="3">
+        <v>7</v>
+      </c>
+      <c r="D524" s="3">
+        <v>27.28</v>
+      </c>
+      <c r="E524" s="3">
+        <v>381.2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A525" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B525" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C525" s="3">
+        <v>8</v>
+      </c>
+      <c r="D525" s="3">
+        <v>26.57</v>
+      </c>
+      <c r="E525" s="3">
+        <v>320.01</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A526" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B526" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C526" s="3">
+        <v>9</v>
+      </c>
+      <c r="D526" s="3">
+        <v>26.78</v>
+      </c>
+      <c r="E526" s="3">
+        <v>221.48</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A527" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B527" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C527" s="3">
+        <v>10</v>
+      </c>
+      <c r="D527" s="3">
+        <v>27.44</v>
+      </c>
+      <c r="E527" s="3">
+        <v>382.05</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A528" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B528" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C528" s="3">
+        <v>11</v>
+      </c>
+      <c r="D528" s="3">
+        <v>27.89</v>
+      </c>
+      <c r="E528" s="3">
+        <v>296.49</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A529" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B529" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C529" s="3">
+        <v>12</v>
+      </c>
+      <c r="D529" s="3">
+        <v>27.64</v>
+      </c>
+      <c r="E529" s="3">
+        <v>372.1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A530" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B530" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C530" s="3">
+        <v>1</v>
+      </c>
+      <c r="D530" s="3">
+        <v>26.73</v>
+      </c>
+      <c r="E530" s="3">
+        <v>325.91000000000003</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A531" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B531" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C531" s="3">
+        <v>2</v>
+      </c>
+      <c r="D531" s="3">
+        <v>27.26</v>
+      </c>
+      <c r="E531" s="3">
+        <v>289.56</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A532" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B532" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C532" s="3">
+        <v>3</v>
+      </c>
+      <c r="D532" s="3">
+        <v>26.89</v>
+      </c>
+      <c r="E532" s="3">
+        <v>307.86</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A533" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B533" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C533" s="3">
+        <v>4</v>
+      </c>
+      <c r="D533" s="3">
+        <v>26.51</v>
+      </c>
+      <c r="E533" s="3">
+        <v>342.72</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A534" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B534" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C534" s="3">
+        <v>5</v>
+      </c>
+      <c r="D534" s="3">
+        <v>27.48</v>
+      </c>
+      <c r="E534" s="3">
+        <v>256.33999999999997</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A535" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B535" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C535" s="3">
+        <v>6</v>
+      </c>
+      <c r="D535" s="3">
+        <v>26.96</v>
+      </c>
+      <c r="E535" s="3">
+        <v>336.66</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A536" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B536" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C536" s="3">
+        <v>7</v>
+      </c>
+      <c r="D536" s="3">
+        <v>26.78</v>
+      </c>
+      <c r="E536" s="3">
+        <v>328.04</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A537" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B537" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C537" s="3">
+        <v>8</v>
+      </c>
+      <c r="D537" s="3">
+        <v>26.72</v>
+      </c>
+      <c r="E537" s="3">
+        <v>278.2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A538" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B538" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C538" s="3">
+        <v>9</v>
+      </c>
+      <c r="D538" s="3">
+        <v>26.94</v>
+      </c>
+      <c r="E538" s="3">
+        <v>303.11</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A539" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B539" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C539" s="3">
+        <v>10</v>
+      </c>
+      <c r="D539" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="E539" s="3">
+        <v>319.19</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A540" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B540" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C540" s="3">
+        <v>11</v>
+      </c>
+      <c r="D540" s="3">
+        <v>26.98</v>
+      </c>
+      <c r="E540" s="3">
+        <v>239.94</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A541" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B541" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C541" s="3">
+        <v>12</v>
+      </c>
+      <c r="D541" s="3">
+        <v>26.98</v>
+      </c>
+      <c r="E541" s="3">
+        <v>386.54</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A542" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B542" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C542" s="3">
+        <v>1</v>
+      </c>
+      <c r="D542" s="3">
+        <v>27.01</v>
+      </c>
+      <c r="E542" s="3">
+        <v>233.4</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A543" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B543" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C543" s="3">
+        <v>2</v>
+      </c>
+      <c r="D543" s="3">
+        <v>27.96</v>
+      </c>
+      <c r="E543" s="3">
+        <v>272.99</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A544" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B544" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C544" s="3">
+        <v>3</v>
+      </c>
+      <c r="D544" s="3">
+        <v>27.37</v>
+      </c>
+      <c r="E544" s="3">
+        <v>307.83999999999997</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A545" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B545" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C545" s="3">
+        <v>4</v>
+      </c>
+      <c r="D545" s="3">
+        <v>27.02</v>
+      </c>
+      <c r="E545" s="3">
+        <v>379.99</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A546" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B546" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C546" s="3">
+        <v>5</v>
+      </c>
+      <c r="D546" s="3">
+        <v>27.92</v>
+      </c>
+      <c r="E546" s="3">
+        <v>363.43</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A547" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B547" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C547" s="3">
+        <v>6</v>
+      </c>
+      <c r="D547" s="3">
+        <v>27.13</v>
+      </c>
+      <c r="E547" s="3">
+        <v>242.09</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A548" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B548" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C548" s="3">
+        <v>7</v>
+      </c>
+      <c r="D548" s="3">
+        <v>26.86</v>
+      </c>
+      <c r="E548" s="3">
+        <v>384.35</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A549" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B549" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C549" s="3">
+        <v>8</v>
+      </c>
+      <c r="D549" s="3">
+        <v>26.71</v>
+      </c>
+      <c r="E549" s="3">
+        <v>381.39</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A550" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B550" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C550" s="3">
+        <v>9</v>
+      </c>
+      <c r="D550" s="3">
+        <v>27.99</v>
+      </c>
+      <c r="E550" s="3">
+        <v>279.7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A551" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B551" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C551" s="3">
+        <v>10</v>
+      </c>
+      <c r="D551" s="3">
+        <v>27.02</v>
+      </c>
+      <c r="E551" s="3">
+        <v>240.56</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A552" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B552" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C552" s="3">
+        <v>11</v>
+      </c>
+      <c r="D552" s="3">
+        <v>27.25</v>
+      </c>
+      <c r="E552" s="3">
+        <v>259.18</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A553" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B553" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C553" s="3">
+        <v>12</v>
+      </c>
+      <c r="D553" s="3">
+        <v>27.81</v>
+      </c>
+      <c r="E553" s="3">
+        <v>306.11</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A554" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B554" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C554" s="3">
+        <v>1</v>
+      </c>
+      <c r="D554" s="3">
+        <v>27.58</v>
+      </c>
+      <c r="E554" s="3">
+        <v>368.42</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A555" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B555" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C555" s="3">
+        <v>2</v>
+      </c>
+      <c r="D555" s="3">
+        <v>26.52</v>
+      </c>
+      <c r="E555" s="3">
+        <v>282.04000000000002</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A556" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B556" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C556" s="3">
+        <v>3</v>
+      </c>
+      <c r="D556" s="3">
+        <v>27.23</v>
+      </c>
+      <c r="E556" s="3">
+        <v>238.74</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A557" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B557" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C557" s="3">
+        <v>4</v>
+      </c>
+      <c r="D557" s="3">
+        <v>26.93</v>
+      </c>
+      <c r="E557" s="3">
+        <v>270.52999999999997</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A558" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B558" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C558" s="3">
+        <v>5</v>
+      </c>
+      <c r="D558" s="3">
+        <v>26.54</v>
+      </c>
+      <c r="E558" s="3">
+        <v>308.08999999999997</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A559" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B559" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C559" s="3">
+        <v>6</v>
+      </c>
+      <c r="D559" s="3">
+        <v>27.03</v>
+      </c>
+      <c r="E559" s="3">
+        <v>327.93</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A560" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B560" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C560" s="3">
+        <v>7</v>
+      </c>
+      <c r="D560" s="3">
+        <v>26.92</v>
+      </c>
+      <c r="E560" s="3">
+        <v>348.87</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A561" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B561" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C561" s="3">
+        <v>8</v>
+      </c>
+      <c r="D561" s="3">
+        <v>27.13</v>
+      </c>
+      <c r="E561" s="3">
+        <v>360.64</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A562" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B562" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C562" s="3">
+        <v>9</v>
+      </c>
+      <c r="D562" s="3">
+        <v>27.68</v>
+      </c>
+      <c r="E562" s="3">
+        <v>319.20999999999998</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A563" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B563" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C563" s="3">
+        <v>10</v>
+      </c>
+      <c r="D563" s="3">
+        <v>27.9</v>
+      </c>
+      <c r="E563" s="3">
+        <v>369.6</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A564" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B564" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C564" s="3">
+        <v>11</v>
+      </c>
+      <c r="D564" s="3">
+        <v>26.67</v>
+      </c>
+      <c r="E564" s="3">
+        <v>355.56</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A565" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B565" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C565" s="3">
+        <v>12</v>
+      </c>
+      <c r="D565" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="E565" s="3">
+        <v>301.27999999999997</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A566" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B566" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C566" s="3">
+        <v>1</v>
+      </c>
+      <c r="D566" s="3">
+        <v>26.91</v>
+      </c>
+      <c r="E566" s="3">
+        <v>238.55</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A567" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B567" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C567" s="3">
+        <v>2</v>
+      </c>
+      <c r="D567" s="3">
+        <v>27.14</v>
+      </c>
+      <c r="E567" s="3">
+        <v>331.43</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A568" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B568" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C568" s="3">
+        <v>3</v>
+      </c>
+      <c r="D568" s="3">
+        <v>27.36</v>
+      </c>
+      <c r="E568" s="3">
+        <v>339.91</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A569" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B569" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C569" s="3">
+        <v>4</v>
+      </c>
+      <c r="D569" s="3">
+        <v>27.32</v>
+      </c>
+      <c r="E569" s="3">
+        <v>323.8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A570" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B570" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C570" s="3">
+        <v>5</v>
+      </c>
+      <c r="D570" s="3">
+        <v>27.67</v>
+      </c>
+      <c r="E570" s="3">
+        <v>218.61</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A571" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B571" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C571" s="3">
+        <v>6</v>
+      </c>
+      <c r="D571" s="3">
+        <v>26.69</v>
+      </c>
+      <c r="E571" s="3">
+        <v>311.27999999999997</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A572" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B572" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C572" s="3">
+        <v>7</v>
+      </c>
+      <c r="D572" s="3">
+        <v>27.87</v>
+      </c>
+      <c r="E572" s="3">
+        <v>296.48</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A573" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B573" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C573" s="3">
+        <v>8</v>
+      </c>
+      <c r="D573" s="3">
+        <v>27.14</v>
+      </c>
+      <c r="E573" s="3">
+        <v>223.86</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A574" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B574" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C574" s="3">
+        <v>9</v>
+      </c>
+      <c r="D574" s="3">
+        <v>27.24</v>
+      </c>
+      <c r="E574" s="3">
+        <v>316.57</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A575" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B575" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C575" s="3">
+        <v>10</v>
+      </c>
+      <c r="D575" s="3">
+        <v>27.96</v>
+      </c>
+      <c r="E575" s="3">
+        <v>352.26</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A576" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B576" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C576" s="3">
+        <v>11</v>
+      </c>
+      <c r="D576" s="3">
+        <v>27.99</v>
+      </c>
+      <c r="E576" s="3">
+        <v>263.02</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A577" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B577" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C577" s="3">
+        <v>12</v>
+      </c>
+      <c r="D577" s="3">
+        <v>27.14</v>
+      </c>
+      <c r="E577" s="3">
+        <v>222.39</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A578" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B578" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C578" s="3">
+        <v>1</v>
+      </c>
+      <c r="D578" s="3">
+        <v>28.14</v>
+      </c>
+      <c r="E578" s="3">
+        <v>202.32</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A579" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B579" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C579" s="3">
+        <v>2</v>
+      </c>
+      <c r="D579" s="3">
+        <v>27.41</v>
+      </c>
+      <c r="E579" s="3">
+        <v>145.55000000000001</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A580" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B580" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C580" s="3">
+        <v>3</v>
+      </c>
+      <c r="D580" s="3">
+        <v>28.35</v>
+      </c>
+      <c r="E580" s="3">
+        <v>152.16999999999999</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A581" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B581" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C581" s="3">
+        <v>4</v>
+      </c>
+      <c r="D581" s="3">
+        <v>28.03</v>
+      </c>
+      <c r="E581" s="3">
+        <v>111.27</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A582" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B582" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C582" s="3">
+        <v>5</v>
+      </c>
+      <c r="D582" s="3">
+        <v>27.42</v>
+      </c>
+      <c r="E582" s="3">
+        <v>136.22</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A583" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B583" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C583" s="3">
+        <v>6</v>
+      </c>
+      <c r="D583" s="3">
+        <v>28.04</v>
+      </c>
+      <c r="E583" s="3">
+        <v>111.84</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A584" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B584" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C584" s="3">
+        <v>7</v>
+      </c>
+      <c r="D584" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="E584" s="3">
+        <v>107.26</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A585" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B585" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C585" s="3">
+        <v>8</v>
+      </c>
+      <c r="D585" s="3">
+        <v>28.74</v>
+      </c>
+      <c r="E585" s="3">
+        <v>266.67</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A586" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B586" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C586" s="3">
+        <v>9</v>
+      </c>
+      <c r="D586" s="3">
+        <v>28.03</v>
+      </c>
+      <c r="E586" s="3">
+        <v>240.27</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A587" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B587" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C587" s="3">
+        <v>10</v>
+      </c>
+      <c r="D587" s="3">
+        <v>27.59</v>
+      </c>
+      <c r="E587" s="3">
+        <v>259.83</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A588" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B588" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C588" s="3">
+        <v>11</v>
+      </c>
+      <c r="D588" s="3">
+        <v>27.66</v>
+      </c>
+      <c r="E588" s="3">
+        <v>286.32</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A589" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B589" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C589" s="3">
+        <v>12</v>
+      </c>
+      <c r="D589" s="3">
+        <v>28.85</v>
+      </c>
+      <c r="E589" s="3">
+        <v>260.48</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A590" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B590" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C590" s="3">
+        <v>1</v>
+      </c>
+      <c r="D590" s="3">
+        <v>28.51</v>
+      </c>
+      <c r="E590" s="3">
+        <v>115.06</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A591" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B591" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C591" s="3">
+        <v>2</v>
+      </c>
+      <c r="D591" s="3">
+        <v>29.35</v>
+      </c>
+      <c r="E591" s="3">
+        <v>281.06</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A592" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B592" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C592" s="3">
+        <v>3</v>
+      </c>
+      <c r="D592" s="3">
+        <v>27.67</v>
+      </c>
+      <c r="E592" s="3">
+        <v>219.26</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A593" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B593" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C593" s="3">
+        <v>4</v>
+      </c>
+      <c r="D593" s="3">
+        <v>29.17</v>
+      </c>
+      <c r="E593" s="3">
+        <v>178.28</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A594" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B594" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C594" s="3">
+        <v>5</v>
+      </c>
+      <c r="D594" s="3">
+        <v>28.2</v>
+      </c>
+      <c r="E594" s="3">
+        <v>158.28</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A595" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B595" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C595" s="3">
+        <v>6</v>
+      </c>
+      <c r="D595" s="3">
+        <v>27.8</v>
+      </c>
+      <c r="E595" s="3">
+        <v>113.7</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A596" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B596" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C596" s="3">
+        <v>7</v>
+      </c>
+      <c r="D596" s="3">
+        <v>27.36</v>
+      </c>
+      <c r="E596" s="3">
+        <v>133.16999999999999</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A597" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B597" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C597" s="3">
+        <v>8</v>
+      </c>
+      <c r="D597" s="3">
+        <v>28.66</v>
+      </c>
+      <c r="E597" s="3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A598" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B598" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C598" s="3">
+        <v>9</v>
+      </c>
+      <c r="D598" s="3">
+        <v>28.32</v>
+      </c>
+      <c r="E598" s="3">
+        <v>152.08000000000001</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A599" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B599" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C599" s="3">
+        <v>10</v>
+      </c>
+      <c r="D599" s="3">
+        <v>27.14</v>
+      </c>
+      <c r="E599" s="3">
+        <v>255.12</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A600" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B600" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C600" s="3">
+        <v>11</v>
+      </c>
+      <c r="D600" s="3">
+        <v>28.72</v>
+      </c>
+      <c r="E600" s="3">
+        <v>299.14999999999998</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A601" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B601" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C601" s="3">
+        <v>12</v>
+      </c>
+      <c r="D601" s="3">
+        <v>27.07</v>
+      </c>
+      <c r="E601" s="3">
+        <v>173.72</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A602" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B602" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C602" s="3">
+        <v>1</v>
+      </c>
+      <c r="D602" s="3">
+        <v>28.27</v>
+      </c>
+      <c r="E602" s="3">
+        <v>275.39999999999998</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A603" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B603" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C603" s="3">
+        <v>2</v>
+      </c>
+      <c r="D603" s="3">
+        <v>29.01</v>
+      </c>
+      <c r="E603" s="3">
+        <v>195.14</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A604" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B604" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C604" s="3">
+        <v>3</v>
+      </c>
+      <c r="D604" s="3">
+        <v>29</v>
+      </c>
+      <c r="E604" s="3">
+        <v>101.37</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A605" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B605" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C605" s="3">
+        <v>4</v>
+      </c>
+      <c r="D605" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="E605" s="3">
+        <v>159.58000000000001</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A606" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B606" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C606" s="3">
+        <v>5</v>
+      </c>
+      <c r="D606" s="3">
+        <v>27.86</v>
+      </c>
+      <c r="E606" s="3">
+        <v>185.57</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A607" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B607" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C607" s="3">
+        <v>6</v>
+      </c>
+      <c r="D607" s="3">
+        <v>28.36</v>
+      </c>
+      <c r="E607" s="3">
+        <v>178.27</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A608" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B608" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C608" s="3">
+        <v>7</v>
+      </c>
+      <c r="D608" s="3">
+        <v>29.15</v>
+      </c>
+      <c r="E608" s="3">
+        <v>226.86</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A609" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B609" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C609" s="3">
+        <v>8</v>
+      </c>
+      <c r="D609" s="3">
+        <v>27.79</v>
+      </c>
+      <c r="E609" s="3">
+        <v>117.35</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A610" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B610" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C610" s="3">
+        <v>9</v>
+      </c>
+      <c r="D610" s="3">
+        <v>28.1</v>
+      </c>
+      <c r="E610" s="3">
+        <v>274.07</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A611" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B611" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C611" s="3">
+        <v>10</v>
+      </c>
+      <c r="D611" s="3">
+        <v>27.69</v>
+      </c>
+      <c r="E611" s="3">
+        <v>183.85</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A612" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B612" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C612" s="3">
+        <v>11</v>
+      </c>
+      <c r="D612" s="3">
+        <v>27.13</v>
+      </c>
+      <c r="E612" s="3">
+        <v>260.31</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A613" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B613" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C613" s="3">
+        <v>12</v>
+      </c>
+      <c r="D613" s="3">
+        <v>28.82</v>
+      </c>
+      <c r="E613" s="3">
+        <v>168.17</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A614" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B614" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C614" s="3">
+        <v>1</v>
+      </c>
+      <c r="D614" s="3">
+        <v>29.2</v>
+      </c>
+      <c r="E614" s="3">
+        <v>228.99</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A615" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B615" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C615" s="3">
+        <v>2</v>
+      </c>
+      <c r="D615" s="3">
+        <v>27.01</v>
+      </c>
+      <c r="E615" s="3">
+        <v>277.39</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A616" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B616" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C616" s="3">
+        <v>3</v>
+      </c>
+      <c r="D616" s="3">
+        <v>28.84</v>
+      </c>
+      <c r="E616" s="3">
+        <v>247.43</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A617" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B617" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C617" s="3">
+        <v>4</v>
+      </c>
+      <c r="D617" s="3">
+        <v>28.66</v>
+      </c>
+      <c r="E617" s="3">
+        <v>156.94</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A618" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B618" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C618" s="3">
+        <v>5</v>
+      </c>
+      <c r="D618" s="3">
+        <v>29.4</v>
+      </c>
+      <c r="E618" s="3">
+        <v>240.97</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A619" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B619" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C619" s="3">
+        <v>6</v>
+      </c>
+      <c r="D619" s="3">
+        <v>27.18</v>
+      </c>
+      <c r="E619" s="3">
+        <v>165.76</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A620" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B620" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C620" s="3">
+        <v>7</v>
+      </c>
+      <c r="D620" s="3">
+        <v>28.3</v>
+      </c>
+      <c r="E620" s="3">
+        <v>130.07</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A621" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B621" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C621" s="3">
+        <v>8</v>
+      </c>
+      <c r="D621" s="3">
+        <v>28.67</v>
+      </c>
+      <c r="E621" s="3">
+        <v>218.44</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A622" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B622" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C622" s="3">
+        <v>9</v>
+      </c>
+      <c r="D622" s="3">
+        <v>28.44</v>
+      </c>
+      <c r="E622" s="3">
+        <v>255.68</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A623" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B623" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C623" s="3">
+        <v>10</v>
+      </c>
+      <c r="D623" s="3">
+        <v>27.39</v>
+      </c>
+      <c r="E623" s="3">
+        <v>256.06</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A624" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B624" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C624" s="3">
+        <v>11</v>
+      </c>
+      <c r="D624" s="3">
+        <v>29.39</v>
+      </c>
+      <c r="E624" s="3">
+        <v>110.2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A625" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B625" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C625" s="3">
+        <v>12</v>
+      </c>
+      <c r="D625" s="3">
+        <v>27.31</v>
+      </c>
+      <c r="E625" s="3">
+        <v>167.68</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A626" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B626" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C626" s="3">
+        <v>1</v>
+      </c>
+      <c r="D626" s="3">
+        <v>27.88</v>
+      </c>
+      <c r="E626" s="3">
+        <v>226.71</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A627" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B627" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C627" s="3">
+        <v>2</v>
+      </c>
+      <c r="D627" s="3">
+        <v>28.45</v>
+      </c>
+      <c r="E627" s="3">
+        <v>247.81</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A628" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B628" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C628" s="3">
+        <v>3</v>
+      </c>
+      <c r="D628" s="3">
+        <v>27.78</v>
+      </c>
+      <c r="E628" s="3">
+        <v>172.76</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A629" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B629" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C629" s="3">
+        <v>4</v>
+      </c>
+      <c r="D629" s="3">
+        <v>28.45</v>
+      </c>
+      <c r="E629" s="3">
+        <v>155.44</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A630" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B630" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C630" s="3">
+        <v>5</v>
+      </c>
+      <c r="D630" s="3">
+        <v>27.96</v>
+      </c>
+      <c r="E630" s="3">
+        <v>174.77</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A631" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B631" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C631" s="3">
+        <v>6</v>
+      </c>
+      <c r="D631" s="3">
+        <v>29.38</v>
+      </c>
+      <c r="E631" s="3">
+        <v>123.43</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A632" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B632" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C632" s="3">
+        <v>7</v>
+      </c>
+      <c r="D632" s="3">
+        <v>28.09</v>
+      </c>
+      <c r="E632" s="3">
+        <v>292.27</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A633" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B633" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C633" s="3">
+        <v>8</v>
+      </c>
+      <c r="D633" s="3">
+        <v>29.44</v>
+      </c>
+      <c r="E633" s="3">
+        <v>297.99</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A634" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B634" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C634" s="3">
+        <v>9</v>
+      </c>
+      <c r="D634" s="3">
+        <v>28.68</v>
+      </c>
+      <c r="E634" s="3">
+        <v>277.2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A635" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B635" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C635" s="3">
+        <v>10</v>
+      </c>
+      <c r="D635" s="3">
+        <v>27.02</v>
+      </c>
+      <c r="E635" s="3">
+        <v>296.14</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A636" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B636" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C636" s="3">
+        <v>11</v>
+      </c>
+      <c r="D636" s="3">
+        <v>29.02</v>
+      </c>
+      <c r="E636" s="3">
+        <v>172.24</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A637" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B637" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C637" s="3">
+        <v>12</v>
+      </c>
+      <c r="D637" s="3">
+        <v>27.65</v>
+      </c>
+      <c r="E637" s="3">
+        <v>176.23</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A638" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B638" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C638" s="3">
+        <v>1</v>
+      </c>
+      <c r="D638" s="3">
+        <v>29.15</v>
+      </c>
+      <c r="E638" s="3">
+        <v>277.29000000000002</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A639" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B639" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C639" s="3">
+        <v>2</v>
+      </c>
+      <c r="D639" s="3">
+        <v>27.57</v>
+      </c>
+      <c r="E639" s="3">
+        <v>117.1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A640" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B640" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C640" s="3">
+        <v>3</v>
+      </c>
+      <c r="D640" s="3">
+        <v>27.93</v>
+      </c>
+      <c r="E640" s="3">
+        <v>125.04</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A641" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B641" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C641" s="3">
+        <v>4</v>
+      </c>
+      <c r="D641" s="3">
+        <v>27.86</v>
+      </c>
+      <c r="E641" s="3">
+        <v>201.69</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A642" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B642" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C642" s="3">
+        <v>5</v>
+      </c>
+      <c r="D642" s="3">
+        <v>27.17</v>
+      </c>
+      <c r="E642" s="3">
+        <v>247.86</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A643" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B643" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C643" s="3">
+        <v>6</v>
+      </c>
+      <c r="D643" s="3">
+        <v>29.49</v>
+      </c>
+      <c r="E643" s="3">
+        <v>144.47999999999999</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A644" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B644" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C644" s="3">
+        <v>7</v>
+      </c>
+      <c r="D644" s="3">
+        <v>28.35</v>
+      </c>
+      <c r="E644" s="3">
+        <v>100.73</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A645" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B645" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C645" s="3">
+        <v>8</v>
+      </c>
+      <c r="D645" s="3">
+        <v>29.15</v>
+      </c>
+      <c r="E645" s="3">
+        <v>272.2</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A646" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B646" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C646" s="3">
+        <v>9</v>
+      </c>
+      <c r="D646" s="3">
+        <v>27.88</v>
+      </c>
+      <c r="E646" s="3">
+        <v>180.8</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A647" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B647" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C647" s="3">
+        <v>10</v>
+      </c>
+      <c r="D647" s="3">
+        <v>28.86</v>
+      </c>
+      <c r="E647" s="3">
+        <v>211.61</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A648" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B648" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C648" s="3">
+        <v>11</v>
+      </c>
+      <c r="D648" s="3">
+        <v>28.7</v>
+      </c>
+      <c r="E648" s="3">
+        <v>110.18</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A649" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B649" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C649" s="3">
+        <v>12</v>
+      </c>
+      <c r="D649" s="3">
+        <v>29.18</v>
+      </c>
+      <c r="E649" s="3">
+        <v>231.12</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A650" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B650" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C650" s="3">
+        <v>1</v>
+      </c>
+      <c r="D650" s="3">
+        <v>28.67</v>
+      </c>
+      <c r="E650" s="3">
+        <v>248.63</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A651" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B651" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C651" s="3">
+        <v>2</v>
+      </c>
+      <c r="D651" s="3">
+        <v>29.04</v>
+      </c>
+      <c r="E651" s="3">
+        <v>175.29</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A652" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B652" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C652" s="3">
+        <v>3</v>
+      </c>
+      <c r="D652" s="3">
+        <v>27.23</v>
+      </c>
+      <c r="E652" s="3">
+        <v>121.11</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A653" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B653" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C653" s="3">
+        <v>4</v>
+      </c>
+      <c r="D653" s="3">
+        <v>28.91</v>
+      </c>
+      <c r="E653" s="3">
+        <v>251.09</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A654" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B654" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C654" s="3">
+        <v>5</v>
+      </c>
+      <c r="D654" s="3">
+        <v>27.71</v>
+      </c>
+      <c r="E654" s="3">
+        <v>165.61</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A655" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B655" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C655" s="3">
+        <v>6</v>
+      </c>
+      <c r="D655" s="3">
+        <v>27.37</v>
+      </c>
+      <c r="E655" s="3">
+        <v>120.68</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A656" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B656" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C656" s="3">
+        <v>7</v>
+      </c>
+      <c r="D656" s="3">
+        <v>28.01</v>
+      </c>
+      <c r="E656" s="3">
+        <v>122.62</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A657" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B657" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C657" s="3">
+        <v>8</v>
+      </c>
+      <c r="D657" s="3">
+        <v>28.33</v>
+      </c>
+      <c r="E657" s="3">
+        <v>264.95</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A658" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B658" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C658" s="3">
+        <v>9</v>
+      </c>
+      <c r="D658" s="3">
+        <v>28.03</v>
+      </c>
+      <c r="E658" s="3">
+        <v>248.21</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A659" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B659" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C659" s="3">
+        <v>10</v>
+      </c>
+      <c r="D659" s="3">
+        <v>28.37</v>
+      </c>
+      <c r="E659" s="3">
+        <v>195.9</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A660" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B660" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C660" s="3">
+        <v>11</v>
+      </c>
+      <c r="D660" s="3">
+        <v>28.82</v>
+      </c>
+      <c r="E660" s="3">
+        <v>159.59</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A661" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B661" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C661" s="3">
+        <v>12</v>
+      </c>
+      <c r="D661" s="3">
+        <v>28.04</v>
+      </c>
+      <c r="E661" s="3">
+        <v>184.2</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A662" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B662" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C662" s="3">
+        <v>1</v>
+      </c>
+      <c r="D662" s="3">
+        <v>28.99</v>
+      </c>
+      <c r="E662" s="3">
+        <v>118.16</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A663" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B663" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C663" s="3">
+        <v>2</v>
+      </c>
+      <c r="D663" s="3">
+        <v>28.92</v>
+      </c>
+      <c r="E663" s="3">
+        <v>146.54</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A664" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B664" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C664" s="3">
+        <v>3</v>
+      </c>
+      <c r="D664" s="3">
+        <v>28.68</v>
+      </c>
+      <c r="E664" s="3">
+        <v>236.41</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A665" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B665" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C665" s="3">
+        <v>4</v>
+      </c>
+      <c r="D665" s="3">
+        <v>28.88</v>
+      </c>
+      <c r="E665" s="3">
+        <v>185.97</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A666" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B666" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C666" s="3">
+        <v>5</v>
+      </c>
+      <c r="D666" s="3">
+        <v>27.31</v>
+      </c>
+      <c r="E666" s="3">
+        <v>260.67</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A667" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B667" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C667" s="3">
+        <v>6</v>
+      </c>
+      <c r="D667" s="3">
+        <v>27.02</v>
+      </c>
+      <c r="E667" s="3">
+        <v>109.3</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A668" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B668" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C668" s="3">
+        <v>7</v>
+      </c>
+      <c r="D668" s="3">
+        <v>27.11</v>
+      </c>
+      <c r="E668" s="3">
+        <v>174.43</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A669" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B669" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C669" s="3">
+        <v>8</v>
+      </c>
+      <c r="D669" s="3">
+        <v>27.98</v>
+      </c>
+      <c r="E669" s="3">
+        <v>120.39</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A670" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B670" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C670" s="3">
+        <v>9</v>
+      </c>
+      <c r="D670" s="3">
+        <v>29.44</v>
+      </c>
+      <c r="E670" s="3">
+        <v>205.27</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A671" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B671" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C671" s="3">
+        <v>10</v>
+      </c>
+      <c r="D671" s="3">
+        <v>27.16</v>
+      </c>
+      <c r="E671" s="3">
+        <v>105.09</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A672" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B672" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C672" s="3">
+        <v>11</v>
+      </c>
+      <c r="D672" s="3">
+        <v>29.39</v>
+      </c>
+      <c r="E672" s="3">
+        <v>222.77</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A673" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B673" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C673" s="3">
+        <v>12</v>
+      </c>
+      <c r="D673" s="3">
+        <v>27.87</v>
+      </c>
+      <c r="E673" s="3">
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A674" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B674" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C674" s="3">
+        <v>1</v>
+      </c>
+      <c r="D674" s="3">
+        <v>28.62</v>
+      </c>
+      <c r="E674" s="3">
+        <v>199.78</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A675" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B675" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C675" s="3">
+        <v>2</v>
+      </c>
+      <c r="D675" s="3">
+        <v>29.18</v>
+      </c>
+      <c r="E675" s="3">
+        <v>250.16</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A676" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B676" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C676" s="3">
+        <v>3</v>
+      </c>
+      <c r="D676" s="3">
+        <v>28.48</v>
+      </c>
+      <c r="E676" s="3">
+        <v>132.30000000000001</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A677" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B677" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C677" s="3">
+        <v>4</v>
+      </c>
+      <c r="D677" s="3">
+        <v>27.17</v>
+      </c>
+      <c r="E677" s="3">
+        <v>186.05</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A678" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B678" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C678" s="3">
+        <v>5</v>
+      </c>
+      <c r="D678" s="3">
+        <v>28.74</v>
+      </c>
+      <c r="E678" s="3">
+        <v>119.57</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A679" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B679" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C679" s="3">
+        <v>6</v>
+      </c>
+      <c r="D679" s="3">
+        <v>28.96</v>
+      </c>
+      <c r="E679" s="3">
+        <v>296.82</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A680" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B680" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C680" s="3">
+        <v>7</v>
+      </c>
+      <c r="D680" s="3">
+        <v>28.05</v>
+      </c>
+      <c r="E680" s="3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A681" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B681" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C681" s="3">
+        <v>8</v>
+      </c>
+      <c r="D681" s="3">
+        <v>28.06</v>
+      </c>
+      <c r="E681" s="3">
+        <v>258.72000000000003</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A682" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B682" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C682" s="3">
+        <v>9</v>
+      </c>
+      <c r="D682" s="3">
+        <v>28.49</v>
+      </c>
+      <c r="E682" s="3">
+        <v>230.11</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A683" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B683" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C683" s="3">
+        <v>10</v>
+      </c>
+      <c r="D683" s="3">
+        <v>28.94</v>
+      </c>
+      <c r="E683" s="3">
+        <v>229.76</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A684" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B684" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C684" s="3">
+        <v>11</v>
+      </c>
+      <c r="D684" s="3">
+        <v>27.98</v>
+      </c>
+      <c r="E684" s="3">
+        <v>106.08</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A685" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B685" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C685" s="3">
+        <v>12</v>
+      </c>
+      <c r="D685" s="3">
+        <v>27.08</v>
+      </c>
+      <c r="E685" s="3">
+        <v>220.11</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A686" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B686" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C686" s="3">
+        <v>1</v>
+      </c>
+      <c r="D686" s="3">
+        <v>27.36</v>
+      </c>
+      <c r="E686" s="3">
+        <v>233.64</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A687" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B687" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C687" s="3">
+        <v>2</v>
+      </c>
+      <c r="D687" s="3">
+        <v>27.49</v>
+      </c>
+      <c r="E687" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A688" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B688" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C688" s="3">
+        <v>3</v>
+      </c>
+      <c r="D688" s="3">
+        <v>29.05</v>
+      </c>
+      <c r="E688" s="3">
+        <v>279.64999999999998</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A689" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B689" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C689" s="3">
+        <v>4</v>
+      </c>
+      <c r="D689" s="3">
+        <v>27.35</v>
+      </c>
+      <c r="E689" s="3">
+        <v>282.54000000000002</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A690" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B690" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C690" s="3">
+        <v>5</v>
+      </c>
+      <c r="D690" s="3">
+        <v>28.41</v>
+      </c>
+      <c r="E690" s="3">
+        <v>197.9</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A691" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B691" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C691" s="3">
+        <v>6</v>
+      </c>
+      <c r="D691" s="3">
+        <v>28.79</v>
+      </c>
+      <c r="E691" s="3">
+        <v>274.92</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A692" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B692" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C692" s="3">
+        <v>7</v>
+      </c>
+      <c r="D692" s="3">
+        <v>27.24</v>
+      </c>
+      <c r="E692" s="3">
+        <v>289.83</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A693" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B693" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C693" s="3">
+        <v>8</v>
+      </c>
+      <c r="D693" s="3">
+        <v>27.42</v>
+      </c>
+      <c r="E693" s="3">
+        <v>179.55</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A694" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B694" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C694" s="3">
+        <v>9</v>
+      </c>
+      <c r="D694" s="3">
+        <v>28.33</v>
+      </c>
+      <c r="E694" s="3">
+        <v>166.57</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A695" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B695" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C695" s="3">
+        <v>10</v>
+      </c>
+      <c r="D695" s="3">
+        <v>29.27</v>
+      </c>
+      <c r="E695" s="3">
+        <v>283.61</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A696" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B696" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C696" s="3">
+        <v>11</v>
+      </c>
+      <c r="D696" s="3">
+        <v>28.58</v>
+      </c>
+      <c r="E696" s="3">
+        <v>173.76</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A697" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B697" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C697" s="3">
+        <v>12</v>
+      </c>
+      <c r="D697" s="3">
+        <v>28.34</v>
+      </c>
+      <c r="E697" s="3">
+        <v>223.28</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A698" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B698" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C698" s="3">
+        <v>1</v>
+      </c>
+      <c r="D698" s="3">
+        <v>28.56</v>
+      </c>
+      <c r="E698" s="3">
+        <v>193.73</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A699" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B699" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C699" s="3">
+        <v>2</v>
+      </c>
+      <c r="D699" s="3">
+        <v>29.32</v>
+      </c>
+      <c r="E699" s="3">
+        <v>135.93</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A700" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B700" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C700" s="3">
+        <v>3</v>
+      </c>
+      <c r="D700" s="3">
+        <v>28.52</v>
+      </c>
+      <c r="E700" s="3">
+        <v>180.81</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A701" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B701" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C701" s="3">
+        <v>4</v>
+      </c>
+      <c r="D701" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="E701" s="3">
+        <v>191.33</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A702" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B702" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C702" s="3">
+        <v>5</v>
+      </c>
+      <c r="D702" s="3">
+        <v>28.45</v>
+      </c>
+      <c r="E702" s="3">
+        <v>147.99</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A703" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B703" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C703" s="3">
+        <v>6</v>
+      </c>
+      <c r="D703" s="3">
+        <v>27.48</v>
+      </c>
+      <c r="E703" s="3">
+        <v>264.14999999999998</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A704" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B704" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C704" s="3">
+        <v>7</v>
+      </c>
+      <c r="D704" s="3">
+        <v>29.44</v>
+      </c>
+      <c r="E704" s="3">
+        <v>164.25</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A705" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B705" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C705" s="3">
+        <v>8</v>
+      </c>
+      <c r="D705" s="3">
+        <v>28.89</v>
+      </c>
+      <c r="E705" s="3">
+        <v>226.11</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A706" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B706" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C706" s="3">
+        <v>9</v>
+      </c>
+      <c r="D706" s="3">
+        <v>29.34</v>
+      </c>
+      <c r="E706" s="3">
+        <v>258.66000000000003</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A707" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B707" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C707" s="3">
+        <v>10</v>
+      </c>
+      <c r="D707" s="3">
+        <v>27.94</v>
+      </c>
+      <c r="E707" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A708" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B708" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C708" s="3">
+        <v>11</v>
+      </c>
+      <c r="D708" s="3">
+        <v>28.19</v>
+      </c>
+      <c r="E708" s="3">
+        <v>119.92</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A709" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B709" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C709" s="3">
+        <v>12</v>
+      </c>
+      <c r="D709" s="3">
+        <v>28.65</v>
+      </c>
+      <c r="E709" s="3">
+        <v>207.11</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A710" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B710" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C710" s="3">
+        <v>1</v>
+      </c>
+      <c r="D710" s="3">
+        <v>29.27</v>
+      </c>
+      <c r="E710" s="3">
+        <v>170.94</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A711" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B711" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C711" s="3">
+        <v>2</v>
+      </c>
+      <c r="D711" s="3">
+        <v>27.39</v>
+      </c>
+      <c r="E711" s="3">
+        <v>219.83</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A712" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B712" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C712" s="3">
+        <v>3</v>
+      </c>
+      <c r="D712" s="3">
+        <v>29.47</v>
+      </c>
+      <c r="E712" s="3">
+        <v>126.02</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A713" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B713" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C713" s="3">
+        <v>4</v>
+      </c>
+      <c r="D713" s="3">
+        <v>27.44</v>
+      </c>
+      <c r="E713" s="3">
+        <v>279.07</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A714" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B714" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C714" s="3">
+        <v>5</v>
+      </c>
+      <c r="D714" s="3">
+        <v>27.4</v>
+      </c>
+      <c r="E714" s="3">
+        <v>146.19999999999999</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A715" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B715" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C715" s="3">
+        <v>6</v>
+      </c>
+      <c r="D715" s="3">
+        <v>28.45</v>
+      </c>
+      <c r="E715" s="3">
+        <v>248.33</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A716" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B716" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C716" s="3">
+        <v>7</v>
+      </c>
+      <c r="D716" s="3">
+        <v>27.75</v>
+      </c>
+      <c r="E716" s="3">
+        <v>184.73</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A717" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B717" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C717" s="3">
+        <v>8</v>
+      </c>
+      <c r="D717" s="3">
+        <v>27.86</v>
+      </c>
+      <c r="E717" s="3">
+        <v>204.91</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A718" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B718" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C718" s="3">
+        <v>9</v>
+      </c>
+      <c r="D718" s="3">
+        <v>28.33</v>
+      </c>
+      <c r="E718" s="3">
+        <v>145.41</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A719" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B719" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C719" s="3">
+        <v>10</v>
+      </c>
+      <c r="D719" s="3">
+        <v>27.32</v>
+      </c>
+      <c r="E719" s="3">
+        <v>226.4</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A720" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B720" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C720" s="3">
+        <v>11</v>
+      </c>
+      <c r="D720" s="3">
+        <v>28.17</v>
+      </c>
+      <c r="E720" s="3">
+        <v>136.04</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A721" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B721" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C721" s="3">
+        <v>12</v>
+      </c>
+      <c r="D721" s="3">
+        <v>28.82</v>
+      </c>
+      <c r="E721" s="3">
+        <v>173.2</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A722" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B722" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C722" s="3">
+        <v>1</v>
+      </c>
+      <c r="D722" s="3">
+        <v>27.93</v>
+      </c>
+      <c r="E722" s="3">
+        <v>156.61000000000001</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A723" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B723" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C723" s="3">
+        <v>2</v>
+      </c>
+      <c r="D723" s="3">
+        <v>28.69</v>
+      </c>
+      <c r="E723" s="3">
+        <v>126.53</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A724" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B724" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C724" s="3">
+        <v>3</v>
+      </c>
+      <c r="D724" s="3">
+        <v>27.86</v>
+      </c>
+      <c r="E724" s="3">
+        <v>253.5</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A725" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B725" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C725" s="3">
+        <v>4</v>
+      </c>
+      <c r="D725" s="3">
+        <v>27.56</v>
+      </c>
+      <c r="E725" s="3">
+        <v>109.39</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A726" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B726" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C726" s="3">
+        <v>5</v>
+      </c>
+      <c r="D726" s="3">
+        <v>27.81</v>
+      </c>
+      <c r="E726" s="3">
+        <v>207.32</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A727" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B727" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C727" s="3">
+        <v>6</v>
+      </c>
+      <c r="D727" s="3">
+        <v>27.16</v>
+      </c>
+      <c r="E727" s="3">
+        <v>169.02</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A728" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B728" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C728" s="3">
+        <v>7</v>
+      </c>
+      <c r="D728" s="3">
+        <v>28.27</v>
+      </c>
+      <c r="E728" s="3">
+        <v>159.03</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A729" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B729" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C729" s="3">
+        <v>8</v>
+      </c>
+      <c r="D729" s="3">
+        <v>28.67</v>
+      </c>
+      <c r="E729" s="3">
+        <v>224.01</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A730" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B730" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C730" s="3">
+        <v>9</v>
+      </c>
+      <c r="D730" s="3">
+        <v>27.21</v>
+      </c>
+      <c r="E730" s="3">
+        <v>143.4</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A731" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B731" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C731" s="3">
+        <v>10</v>
+      </c>
+      <c r="D731" s="3">
+        <v>27.32</v>
+      </c>
+      <c r="E731" s="3">
+        <v>264.27</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A732" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B732" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C732" s="3">
+        <v>11</v>
+      </c>
+      <c r="D732" s="3">
+        <v>27.35</v>
+      </c>
+      <c r="E732" s="3">
+        <v>153.38</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A733" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B733" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C733" s="3">
+        <v>12</v>
+      </c>
+      <c r="D733" s="3">
+        <v>28.36</v>
+      </c>
+      <c r="E733" s="3">
+        <v>197.25</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A734" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B734" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C734" s="3">
+        <v>1</v>
+      </c>
+      <c r="D734" s="3">
+        <v>28.12</v>
+      </c>
+      <c r="E734" s="3">
+        <v>246.44</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A735" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B735" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C735" s="3">
+        <v>2</v>
+      </c>
+      <c r="D735" s="3">
+        <v>27.41</v>
+      </c>
+      <c r="E735" s="3">
+        <v>122.84</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A736" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B736" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C736" s="3">
+        <v>3</v>
+      </c>
+      <c r="D736" s="3">
+        <v>28.85</v>
+      </c>
+      <c r="E736" s="3">
+        <v>221.97</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A737" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B737" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C737" s="3">
+        <v>4</v>
+      </c>
+      <c r="D737" s="3">
+        <v>29.22</v>
+      </c>
+      <c r="E737" s="3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A738" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B738" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C738" s="3">
+        <v>5</v>
+      </c>
+      <c r="D738" s="3">
+        <v>28.94</v>
+      </c>
+      <c r="E738" s="3">
+        <v>242.14</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A739" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B739" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C739" s="3">
+        <v>6</v>
+      </c>
+      <c r="D739" s="3">
+        <v>27.73</v>
+      </c>
+      <c r="E739" s="3">
+        <v>234.07</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A740" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B740" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C740" s="3">
+        <v>7</v>
+      </c>
+      <c r="D740" s="3">
+        <v>29.24</v>
+      </c>
+      <c r="E740" s="3">
+        <v>110.36</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A741" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B741" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C741" s="3">
+        <v>8</v>
+      </c>
+      <c r="D741" s="3">
+        <v>28.99</v>
+      </c>
+      <c r="E741" s="3">
+        <v>142.15</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A742" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B742" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C742" s="3">
+        <v>9</v>
+      </c>
+      <c r="D742" s="3">
+        <v>29.48</v>
+      </c>
+      <c r="E742" s="3">
+        <v>191.76</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A743" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B743" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C743" s="3">
+        <v>10</v>
+      </c>
+      <c r="D743" s="3">
+        <v>27.37</v>
+      </c>
+      <c r="E743" s="3">
+        <v>246.95</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A744" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B744" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C744" s="3">
+        <v>11</v>
+      </c>
+      <c r="D744" s="3">
+        <v>27.75</v>
+      </c>
+      <c r="E744" s="3">
+        <v>151.53</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A745" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B745" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C745" s="3">
+        <v>12</v>
+      </c>
+      <c r="D745" s="3">
+        <v>29.01</v>
+      </c>
+      <c r="E745" s="3">
+        <v>174.4</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A746" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B746" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C746" s="3">
+        <v>1</v>
+      </c>
+      <c r="D746" s="3">
+        <v>28.6</v>
+      </c>
+      <c r="E746" s="3">
+        <v>259.14</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A747" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B747" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C747" s="3">
+        <v>2</v>
+      </c>
+      <c r="D747" s="3">
+        <v>28.02</v>
+      </c>
+      <c r="E747" s="3">
+        <v>290.45999999999998</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A748" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B748" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C748" s="3">
+        <v>3</v>
+      </c>
+      <c r="D748" s="3">
+        <v>27.41</v>
+      </c>
+      <c r="E748" s="3">
+        <v>223.51</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A749" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B749" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C749" s="3">
+        <v>4</v>
+      </c>
+      <c r="D749" s="3">
+        <v>27.29</v>
+      </c>
+      <c r="E749" s="3">
+        <v>135.03</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A750" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B750" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C750" s="3">
+        <v>5</v>
+      </c>
+      <c r="D750" s="3">
+        <v>28.31</v>
+      </c>
+      <c r="E750" s="3">
+        <v>232.73</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A751" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B751" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C751" s="3">
+        <v>6</v>
+      </c>
+      <c r="D751" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="E751" s="3">
+        <v>245.23</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A752" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B752" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C752" s="3">
+        <v>7</v>
+      </c>
+      <c r="D752" s="3">
+        <v>29.21</v>
+      </c>
+      <c r="E752" s="3">
+        <v>172.35</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A753" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B753" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C753" s="3">
+        <v>8</v>
+      </c>
+      <c r="D753" s="3">
+        <v>27.77</v>
+      </c>
+      <c r="E753" s="3">
+        <v>188.92</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A754" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B754" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C754" s="3">
+        <v>9</v>
+      </c>
+      <c r="D754" s="3">
+        <v>27.37</v>
+      </c>
+      <c r="E754" s="3">
+        <v>246.18</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A755" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B755" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C755" s="3">
+        <v>10</v>
+      </c>
+      <c r="D755" s="3">
+        <v>28.71</v>
+      </c>
+      <c r="E755" s="3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A756" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B756" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C756" s="3">
+        <v>11</v>
+      </c>
+      <c r="D756" s="3">
+        <v>28.06</v>
+      </c>
+      <c r="E756" s="3">
+        <v>146.41</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A757" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B757" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C757" s="3">
+        <v>12</v>
+      </c>
+      <c r="D757" s="3">
+        <v>29.13</v>
+      </c>
+      <c r="E757" s="3">
+        <v>190.63</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A758" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B758" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C758" s="3">
+        <v>1</v>
+      </c>
+      <c r="D758" s="3">
+        <v>27.1</v>
+      </c>
+      <c r="E758" s="3">
+        <v>137.61000000000001</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A759" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B759" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C759" s="3">
+        <v>2</v>
+      </c>
+      <c r="D759" s="3">
+        <v>28.51</v>
+      </c>
+      <c r="E759" s="3">
+        <v>292.44</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A760" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B760" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C760" s="3">
+        <v>3</v>
+      </c>
+      <c r="D760" s="3">
+        <v>27.34</v>
+      </c>
+      <c r="E760" s="3">
+        <v>136.37</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A761" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B761" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C761" s="3">
+        <v>4</v>
+      </c>
+      <c r="D761" s="3">
+        <v>27.18</v>
+      </c>
+      <c r="E761" s="3">
+        <v>176.32</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A762" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B762" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C762" s="3">
+        <v>5</v>
+      </c>
+      <c r="D762" s="3">
+        <v>28.63</v>
+      </c>
+      <c r="E762" s="3">
+        <v>249.4</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A763" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B763" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C763" s="3">
+        <v>6</v>
+      </c>
+      <c r="D763" s="3">
+        <v>27.27</v>
+      </c>
+      <c r="E763" s="3">
+        <v>113.11</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A764" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B764" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C764" s="3">
+        <v>7</v>
+      </c>
+      <c r="D764" s="3">
+        <v>28.66</v>
+      </c>
+      <c r="E764" s="3">
+        <v>187.32</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A765" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B765" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C765" s="3">
+        <v>8</v>
+      </c>
+      <c r="D765" s="3">
+        <v>27.15</v>
+      </c>
+      <c r="E765" s="3">
+        <v>177.74</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A766" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B766" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C766" s="3">
+        <v>9</v>
+      </c>
+      <c r="D766" s="3">
+        <v>28.22</v>
+      </c>
+      <c r="E766" s="3">
+        <v>192.07</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A767" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B767" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C767" s="3">
+        <v>10</v>
+      </c>
+      <c r="D767" s="3">
+        <v>29.42</v>
+      </c>
+      <c r="E767" s="3">
+        <v>213.26</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A768" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B768" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C768" s="3">
+        <v>11</v>
+      </c>
+      <c r="D768" s="3">
+        <v>27.93</v>
+      </c>
+      <c r="E768" s="3">
+        <v>137.77000000000001</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A769" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B769" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C769" s="3">
+        <v>12</v>
+      </c>
+      <c r="D769" s="3">
+        <v>27.3</v>
+      </c>
+      <c r="E769" s="3">
+        <v>235.42</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A770" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B770" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C770" s="3">
+        <v>1</v>
+      </c>
+      <c r="D770" s="3">
+        <v>29.22</v>
+      </c>
+      <c r="E770" s="3">
+        <v>290.79000000000002</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A771" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B771" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C771" s="3">
+        <v>2</v>
+      </c>
+      <c r="D771" s="3">
+        <v>28.79</v>
+      </c>
+      <c r="E771" s="3">
+        <v>261.89</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A772" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B772" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C772" s="3">
+        <v>3</v>
+      </c>
+      <c r="D772" s="3">
+        <v>28.38</v>
+      </c>
+      <c r="E772" s="3">
+        <v>200.22</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A773" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B773" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C773" s="3">
+        <v>4</v>
+      </c>
+      <c r="D773" s="3">
+        <v>29.41</v>
+      </c>
+      <c r="E773" s="3">
+        <v>129.32</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A774" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B774" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C774" s="3">
+        <v>5</v>
+      </c>
+      <c r="D774" s="3">
+        <v>27.28</v>
+      </c>
+      <c r="E774" s="3">
+        <v>296.49</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A775" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B775" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C775" s="3">
+        <v>6</v>
+      </c>
+      <c r="D775" s="3">
+        <v>29.35</v>
+      </c>
+      <c r="E775" s="3">
+        <v>258.95</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A776" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B776" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C776" s="3">
+        <v>7</v>
+      </c>
+      <c r="D776" s="3">
+        <v>27.49</v>
+      </c>
+      <c r="E776" s="3">
+        <v>176.56</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A777" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B777" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C777" s="3">
+        <v>8</v>
+      </c>
+      <c r="D777" s="3">
+        <v>28.48</v>
+      </c>
+      <c r="E777" s="3">
+        <v>211.4</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A778" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B778" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C778" s="3">
+        <v>9</v>
+      </c>
+      <c r="D778" s="3">
+        <v>27.52</v>
+      </c>
+      <c r="E778" s="3">
+        <v>212.89</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A779" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B779" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C779" s="3">
+        <v>10</v>
+      </c>
+      <c r="D779" s="3">
+        <v>28.33</v>
+      </c>
+      <c r="E779" s="3">
+        <v>207.94</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A780" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B780" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C780" s="3">
+        <v>11</v>
+      </c>
+      <c r="D780" s="3">
+        <v>29.19</v>
+      </c>
+      <c r="E780" s="3">
+        <v>275.52</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A781" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B781" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C781" s="3">
+        <v>12</v>
+      </c>
+      <c r="D781" s="3">
+        <v>28.15</v>
+      </c>
+      <c r="E781" s="3">
+        <v>249.71</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A782" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B782" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C782" s="3">
+        <v>1</v>
+      </c>
+      <c r="D782" s="3">
+        <v>29.02</v>
+      </c>
+      <c r="E782" s="3">
+        <v>215.24</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A783" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B783" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C783" s="3">
+        <v>2</v>
+      </c>
+      <c r="D783" s="3">
+        <v>29.49</v>
+      </c>
+      <c r="E783" s="3">
+        <v>251.57</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A784" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B784" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C784" s="3">
+        <v>3</v>
+      </c>
+      <c r="D784" s="3">
+        <v>28.36</v>
+      </c>
+      <c r="E784" s="3">
+        <v>200.03</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A785" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B785" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C785" s="3">
+        <v>4</v>
+      </c>
+      <c r="D785" s="3">
+        <v>29.23</v>
+      </c>
+      <c r="E785" s="3">
+        <v>190.1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A786" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B786" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C786" s="3">
+        <v>5</v>
+      </c>
+      <c r="D786" s="3">
+        <v>28.42</v>
+      </c>
+      <c r="E786" s="3">
+        <v>220.67</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A787" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B787" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C787" s="3">
+        <v>6</v>
+      </c>
+      <c r="D787" s="3">
+        <v>27.78</v>
+      </c>
+      <c r="E787" s="3">
+        <v>151.97</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A788" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B788" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C788" s="3">
+        <v>7</v>
+      </c>
+      <c r="D788" s="3">
+        <v>28.13</v>
+      </c>
+      <c r="E788" s="3">
+        <v>233.63</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A789" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B789" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C789" s="3">
+        <v>8</v>
+      </c>
+      <c r="D789" s="3">
+        <v>29.16</v>
+      </c>
+      <c r="E789" s="3">
+        <v>272.87</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A790" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B790" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C790" s="3">
+        <v>9</v>
+      </c>
+      <c r="D790" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="E790" s="3">
+        <v>180.1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A791" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B791" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C791" s="3">
+        <v>10</v>
+      </c>
+      <c r="D791" s="3">
+        <v>29.32</v>
+      </c>
+      <c r="E791" s="3">
+        <v>166.38</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A792" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B792" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C792" s="3">
+        <v>11</v>
+      </c>
+      <c r="D792" s="3">
+        <v>27.21</v>
+      </c>
+      <c r="E792" s="3">
+        <v>278.54000000000002</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A793" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B793" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C793" s="3">
+        <v>12</v>
+      </c>
+      <c r="D793" s="3">
+        <v>27.81</v>
+      </c>
+      <c r="E793" s="3">
+        <v>176.9</v>
       </c>
     </row>
   </sheetData>

--- a/Iklim_Sumatra.xlsx
+++ b/Iklim_Sumatra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amirs\Downloads\Project Rshiny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48981FE3-0F21-4464-B55C-3BC01F1940E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA02BE5F-8775-45D5-A868-B91F960A7DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E00CDE76-EA6C-402C-A9A6-A1123B03FB55}"/>
   </bookViews>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA0A9CD-D97B-4DFD-A731-6131B3F5BA44}">
   <dimension ref="A1:E793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A765" workbookViewId="0">
-      <selection activeCell="J782" sqref="J782"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="J418" sqref="J418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6211,8 +6211,8 @@
       <c r="C338" s="1">
         <v>1</v>
       </c>
-      <c r="D338">
-        <v>22.7</v>
+      <c r="D338" s="3">
+        <v>25.4315</v>
       </c>
       <c r="E338" s="1">
         <v>27.63</v>
@@ -6228,8 +6228,8 @@
       <c r="C339" s="1">
         <v>2</v>
       </c>
-      <c r="D339">
-        <v>22.8</v>
+      <c r="D339" s="3">
+        <v>25.773499999999999</v>
       </c>
       <c r="E339" s="1">
         <v>27</v>
@@ -6245,8 +6245,8 @@
       <c r="C340" s="1">
         <v>3</v>
       </c>
-      <c r="D340">
-        <v>21.77</v>
+      <c r="D340" s="3">
+        <v>25.7165</v>
       </c>
       <c r="E340" s="1">
         <v>27.37</v>
@@ -6262,8 +6262,8 @@
       <c r="C341" s="1">
         <v>4</v>
       </c>
-      <c r="D341">
-        <v>23.83</v>
+      <c r="D341" s="3">
+        <v>25.735499999999998</v>
       </c>
       <c r="E341" s="1">
         <v>27.43</v>
@@ -6279,8 +6279,8 @@
       <c r="C342" s="1">
         <v>5</v>
       </c>
-      <c r="D342">
-        <v>24.27</v>
+      <c r="D342" s="3">
+        <v>25.735499999999998</v>
       </c>
       <c r="E342" s="1">
         <v>27.77</v>
@@ -6296,8 +6296,8 @@
       <c r="C343" s="1">
         <v>6</v>
       </c>
-      <c r="D343">
-        <v>23.53</v>
+      <c r="D343" s="3">
+        <v>25.735499999999998</v>
       </c>
       <c r="E343" s="1">
         <v>27.73</v>
@@ -6313,8 +6313,8 @@
       <c r="C344" s="1">
         <v>7</v>
       </c>
-      <c r="D344">
-        <v>23.73</v>
+      <c r="D344" s="3">
+        <v>25.735499999999998</v>
       </c>
       <c r="E344" s="1">
         <v>27.23</v>
@@ -6330,8 +6330,8 @@
       <c r="C345" s="1">
         <v>8</v>
       </c>
-      <c r="D345">
-        <v>23.2</v>
+      <c r="D345" s="3">
+        <v>25.46</v>
       </c>
       <c r="E345" s="1">
         <v>27.63</v>
@@ -6347,8 +6347,8 @@
       <c r="C346" s="1">
         <v>9</v>
       </c>
-      <c r="D346">
-        <v>23.63</v>
+      <c r="D346" s="3">
+        <v>22.163499999999999</v>
       </c>
       <c r="E346" s="1">
         <v>27.77</v>
@@ -6364,8 +6364,8 @@
       <c r="C347" s="1">
         <v>10</v>
       </c>
-      <c r="D347">
-        <v>23.57</v>
+      <c r="D347" s="3">
+        <v>25.84</v>
       </c>
       <c r="E347" s="1">
         <v>27.73</v>
@@ -6381,8 +6381,8 @@
       <c r="C348" s="1">
         <v>11</v>
       </c>
-      <c r="D348">
-        <v>23.77</v>
+      <c r="D348" s="3">
+        <v>25.147857142857081</v>
       </c>
       <c r="E348" s="1">
         <v>27.37</v>
@@ -6398,8 +6398,8 @@
       <c r="C349" s="1">
         <v>12</v>
       </c>
-      <c r="D349">
-        <v>23.7</v>
+      <c r="D349" s="3">
+        <v>25.147857142857081</v>
       </c>
       <c r="E349" s="1">
         <v>27.5</v>
@@ -6415,8 +6415,8 @@
       <c r="C350" s="1">
         <v>1</v>
       </c>
-      <c r="D350">
-        <v>22.8</v>
+      <c r="D350" s="3">
+        <v>25.147857142857081</v>
       </c>
       <c r="E350" s="1">
         <v>26.93</v>
@@ -6432,8 +6432,8 @@
       <c r="C351" s="1">
         <v>2</v>
       </c>
-      <c r="D351">
-        <v>22.9</v>
+      <c r="D351" s="3">
+        <v>25.147857142857081</v>
       </c>
       <c r="E351" s="1">
         <v>27.37</v>
@@ -6449,8 +6449,8 @@
       <c r="C352" s="1">
         <v>3</v>
       </c>
-      <c r="D352">
-        <v>23.13</v>
+      <c r="D352" s="3">
+        <v>27.1</v>
       </c>
       <c r="E352" s="1">
         <v>27.37</v>
@@ -6466,8 +6466,8 @@
       <c r="C353" s="1">
         <v>4</v>
       </c>
-      <c r="D353">
-        <v>23.67</v>
+      <c r="D353" s="3">
+        <v>27.7</v>
       </c>
       <c r="E353" s="1">
         <v>27.73</v>
@@ -6483,8 +6483,8 @@
       <c r="C354" s="1">
         <v>5</v>
       </c>
-      <c r="D354">
-        <v>24.17</v>
+      <c r="D354" s="3">
+        <v>27.6</v>
       </c>
       <c r="E354" s="1">
         <v>28.2</v>
@@ -6500,8 +6500,8 @@
       <c r="C355" s="1">
         <v>6</v>
       </c>
-      <c r="D355">
-        <v>23.73</v>
+      <c r="D355" s="3">
+        <v>27.7</v>
       </c>
       <c r="E355" s="1">
         <v>27.9</v>
@@ -6517,8 +6517,8 @@
       <c r="C356" s="1">
         <v>7</v>
       </c>
-      <c r="D356">
-        <v>22.33</v>
+      <c r="D356" s="3">
+        <v>27.7</v>
       </c>
       <c r="E356" s="1">
         <v>26.67</v>
@@ -6534,8 +6534,8 @@
       <c r="C357" s="1">
         <v>8</v>
       </c>
-      <c r="D357">
-        <v>23</v>
+      <c r="D357" s="3">
+        <v>27.7</v>
       </c>
       <c r="E357" s="1">
         <v>27.67</v>
@@ -6551,8 +6551,8 @@
       <c r="C358" s="1">
         <v>9</v>
       </c>
-      <c r="D358">
-        <v>23</v>
+      <c r="D358" s="3">
+        <v>27.7</v>
       </c>
       <c r="E358" s="1">
         <v>27</v>
@@ -6568,8 +6568,8 @@
       <c r="C359" s="1">
         <v>10</v>
       </c>
-      <c r="D359">
-        <v>23</v>
+      <c r="D359" s="3">
+        <v>27.93</v>
       </c>
       <c r="E359" s="1">
         <v>28</v>
@@ -6585,8 +6585,8 @@
       <c r="C360" s="1">
         <v>11</v>
       </c>
-      <c r="D360">
-        <v>23.67</v>
+      <c r="D360" s="3">
+        <v>27.83</v>
       </c>
       <c r="E360" s="1">
         <v>28</v>
@@ -6602,8 +6602,8 @@
       <c r="C361" s="1">
         <v>12</v>
       </c>
-      <c r="D361">
-        <v>23</v>
+      <c r="D361" s="3">
+        <v>28.13</v>
       </c>
       <c r="E361" s="1">
         <v>28</v>
@@ -6619,8 +6619,8 @@
       <c r="C362" s="1">
         <v>1</v>
       </c>
-      <c r="D362">
-        <v>23.107999999999901</v>
+      <c r="D362" s="3">
+        <v>27.965714285714199</v>
       </c>
       <c r="E362" s="1">
         <v>37.777999999999999</v>
@@ -6636,8 +6636,8 @@
       <c r="C363" s="1">
         <v>2</v>
       </c>
-      <c r="D363">
-        <v>23.032</v>
+      <c r="D363" s="3">
+        <v>27.965714285714199</v>
       </c>
       <c r="E363" s="1">
         <v>37.387999999999998</v>
@@ -6653,8 +6653,8 @@
       <c r="C364" s="1">
         <v>3</v>
       </c>
-      <c r="D364">
-        <v>23.1</v>
+      <c r="D364" s="3">
+        <v>27.965714285714199</v>
       </c>
       <c r="E364" s="1">
         <v>38.107999999999997</v>
@@ -6670,8 +6670,8 @@
       <c r="C365" s="1">
         <v>4</v>
       </c>
-      <c r="D365">
-        <v>22.545999999999999</v>
+      <c r="D365" s="3">
+        <v>27.965714285714199</v>
       </c>
       <c r="E365" s="1">
         <v>38.137999999999998</v>
@@ -6687,8 +6687,8 @@
       <c r="C366" s="1">
         <v>5</v>
       </c>
-      <c r="D366">
-        <v>24.228000000000002</v>
+      <c r="D366" s="3">
+        <v>28.47</v>
       </c>
       <c r="E366" s="1">
         <v>38.311999999999998</v>
@@ -6704,8 +6704,8 @@
       <c r="C367" s="1">
         <v>6</v>
       </c>
-      <c r="D367">
-        <v>23.518000000000001</v>
+      <c r="D367" s="3">
+        <v>28.2</v>
       </c>
       <c r="E367" s="1">
         <v>38.305999999999997</v>
@@ -6721,8 +6721,8 @@
       <c r="C368" s="1">
         <v>7</v>
       </c>
-      <c r="D368">
-        <v>23.103999999999999</v>
+      <c r="D368" s="3">
+        <v>28.43</v>
       </c>
       <c r="E368" s="1">
         <v>37.386000000000003</v>
@@ -6738,8 +6738,8 @@
       <c r="C369" s="1">
         <v>8</v>
       </c>
-      <c r="D369">
-        <v>23.213999999999999</v>
+      <c r="D369" s="3">
+        <v>28.389999999999901</v>
       </c>
       <c r="E369" s="1">
         <v>37.213999999999999</v>
@@ -6755,8 +6755,8 @@
       <c r="C370" s="1">
         <v>9</v>
       </c>
-      <c r="D370">
-        <v>23.125999999999902</v>
+      <c r="D370" s="3">
+        <v>28.389999999999901</v>
       </c>
       <c r="E370" s="1">
         <v>37.573999999999998</v>
@@ -6772,8 +6772,8 @@
       <c r="C371" s="1">
         <v>10</v>
       </c>
-      <c r="D371">
-        <v>23.262</v>
+      <c r="D371" s="3">
+        <v>28.389999999999901</v>
       </c>
       <c r="E371" s="1">
         <v>37.799999999999997</v>
@@ -6789,8 +6789,8 @@
       <c r="C372" s="1">
         <v>11</v>
       </c>
-      <c r="D372">
-        <v>23.728000000000002</v>
+      <c r="D372" s="3">
+        <v>28.389999999999901</v>
       </c>
       <c r="E372" s="1">
         <v>38.554000000000002</v>
@@ -6806,8 +6806,8 @@
       <c r="C373" s="1">
         <v>12</v>
       </c>
-      <c r="D373">
-        <v>23.245999999999999</v>
+      <c r="D373" s="3">
+        <v>30.24</v>
       </c>
       <c r="E373" s="1">
         <v>37.838000000000001</v>
@@ -6823,8 +6823,8 @@
       <c r="C374" s="1">
         <v>1</v>
       </c>
-      <c r="D374">
-        <v>23.107999999999901</v>
+      <c r="D374" s="3">
+        <v>29.956499999999998</v>
       </c>
       <c r="E374" s="1">
         <v>37.777999999999999</v>
@@ -6840,8 +6840,8 @@
       <c r="C375" s="1">
         <v>2</v>
       </c>
-      <c r="D375">
-        <v>23.032</v>
+      <c r="D375" s="3">
+        <v>29.82</v>
       </c>
       <c r="E375" s="1">
         <v>37.387999999999998</v>
@@ -6857,8 +6857,8 @@
       <c r="C376" s="1">
         <v>3</v>
       </c>
-      <c r="D376">
-        <v>23.1</v>
+      <c r="D376" s="3">
+        <v>30.03899999999997</v>
       </c>
       <c r="E376" s="1">
         <v>38.107999999999997</v>
@@ -6874,8 +6874,8 @@
       <c r="C377" s="1">
         <v>4</v>
       </c>
-      <c r="D377">
-        <v>22.545999999999999</v>
+      <c r="D377" s="3">
+        <v>30.03899999999997</v>
       </c>
       <c r="E377" s="1">
         <v>38.137999999999998</v>
@@ -6891,8 +6891,8 @@
       <c r="C378" s="1">
         <v>5</v>
       </c>
-      <c r="D378">
-        <v>24.228000000000002</v>
+      <c r="D378" s="3">
+        <v>30.03899999999997</v>
       </c>
       <c r="E378" s="1">
         <v>38.311999999999998</v>
@@ -6908,8 +6908,8 @@
       <c r="C379" s="1">
         <v>6</v>
       </c>
-      <c r="D379">
-        <v>23.518000000000001</v>
+      <c r="D379" s="3">
+        <v>30.03899999999997</v>
       </c>
       <c r="E379" s="1">
         <v>38.305999999999997</v>
@@ -6925,8 +6925,8 @@
       <c r="C380" s="1">
         <v>7</v>
       </c>
-      <c r="D380">
-        <v>23.103999999999999</v>
+      <c r="D380" s="3">
+        <v>30.87</v>
       </c>
       <c r="E380" s="1">
         <v>37.386000000000003</v>
@@ -6942,8 +6942,8 @@
       <c r="C381" s="1">
         <v>8</v>
       </c>
-      <c r="D381">
-        <v>23.213999999999999</v>
+      <c r="D381" s="3">
+        <v>30.628499999999999</v>
       </c>
       <c r="E381" s="1">
         <v>37.213999999999999</v>
@@ -6959,8 +6959,8 @@
       <c r="C382" s="1">
         <v>9</v>
       </c>
-      <c r="D382">
-        <v>23.125999999999902</v>
+      <c r="D382" s="3">
+        <v>29.368500000000001</v>
       </c>
       <c r="E382" s="1">
         <v>37.573999999999998</v>
@@ -6976,8 +6976,8 @@
       <c r="C383" s="1">
         <v>10</v>
       </c>
-      <c r="D383">
-        <v>23.262</v>
+      <c r="D383" s="3">
+        <v>30.03149999999993</v>
       </c>
       <c r="E383" s="1">
         <v>37.799999999999997</v>
@@ -6993,8 +6993,8 @@
       <c r="C384" s="1">
         <v>11</v>
       </c>
-      <c r="D384">
-        <v>23.728000000000002</v>
+      <c r="D384" s="3">
+        <v>30.03149999999993</v>
       </c>
       <c r="E384" s="1">
         <v>38.554000000000002</v>
@@ -7010,8 +7010,8 @@
       <c r="C385" s="1">
         <v>12</v>
       </c>
-      <c r="D385">
-        <v>23.245999999999999</v>
+      <c r="D385" s="3">
+        <v>30.03149999999993</v>
       </c>
       <c r="E385" s="1">
         <v>37.838000000000001</v>
@@ -7027,8 +7027,8 @@
       <c r="C386" s="1">
         <v>1</v>
       </c>
-      <c r="D386">
-        <v>23.107999999999901</v>
+      <c r="D386" s="3">
+        <v>30.03149999999993</v>
       </c>
       <c r="E386" s="1">
         <v>37.777999999999999</v>
@@ -7044,8 +7044,8 @@
       <c r="C387" s="1">
         <v>2</v>
       </c>
-      <c r="D387">
-        <v>23.032</v>
+      <c r="D387" s="3">
+        <v>30.2715</v>
       </c>
       <c r="E387" s="1">
         <v>37.387999999999998</v>
@@ -7061,8 +7061,8 @@
       <c r="C388" s="1">
         <v>3</v>
       </c>
-      <c r="D388">
-        <v>23.1</v>
+      <c r="D388" s="3">
+        <v>30.2715</v>
       </c>
       <c r="E388" s="1">
         <v>38.107999999999997</v>
@@ -7078,8 +7078,8 @@
       <c r="C389" s="1">
         <v>4</v>
       </c>
-      <c r="D389">
-        <v>22.545999999999999</v>
+      <c r="D389" s="3">
+        <v>29.715</v>
       </c>
       <c r="E389" s="1">
         <v>38.137999999999998</v>
@@ -7095,8 +7095,8 @@
       <c r="C390" s="1">
         <v>5</v>
       </c>
-      <c r="D390">
-        <v>24.228000000000002</v>
+      <c r="D390" s="3">
+        <v>29.689499999999921</v>
       </c>
       <c r="E390" s="1">
         <v>38.311999999999998</v>
@@ -7112,8 +7112,8 @@
       <c r="C391" s="1">
         <v>6</v>
       </c>
-      <c r="D391">
-        <v>23.518000000000001</v>
+      <c r="D391" s="3">
+        <v>29.689499999999921</v>
       </c>
       <c r="E391" s="1">
         <v>38.305999999999997</v>
@@ -7129,8 +7129,8 @@
       <c r="C392" s="1">
         <v>7</v>
       </c>
-      <c r="D392">
-        <v>23.103999999999999</v>
+      <c r="D392" s="3">
+        <v>29.689499999999921</v>
       </c>
       <c r="E392" s="1">
         <v>37.386000000000003</v>
@@ -7146,8 +7146,8 @@
       <c r="C393" s="1">
         <v>8</v>
       </c>
-      <c r="D393">
-        <v>23.213999999999999</v>
+      <c r="D393" s="3">
+        <v>29.689499999999921</v>
       </c>
       <c r="E393" s="1">
         <v>37.213999999999999</v>
@@ -7163,8 +7163,8 @@
       <c r="C394" s="1">
         <v>9</v>
       </c>
-      <c r="D394">
-        <v>23.125999999999902</v>
+      <c r="D394" s="3">
+        <v>29.1585</v>
       </c>
       <c r="E394" s="1">
         <v>37.573999999999998</v>
@@ -7180,8 +7180,8 @@
       <c r="C395" s="1">
         <v>10</v>
       </c>
-      <c r="D395">
-        <v>23.262</v>
+      <c r="D395" s="3">
+        <v>28.948499999999999</v>
       </c>
       <c r="E395" s="1">
         <v>37.799999999999997</v>
@@ -7197,8 +7197,8 @@
       <c r="C396" s="1">
         <v>11</v>
       </c>
-      <c r="D396">
-        <v>23.728000000000002</v>
+      <c r="D396" s="3">
+        <v>29.295000000000002</v>
       </c>
       <c r="E396" s="1">
         <v>38.554000000000002</v>
@@ -7214,8 +7214,8 @@
       <c r="C397" s="1">
         <v>12</v>
       </c>
-      <c r="D397">
-        <v>23.245999999999999</v>
+      <c r="D397" s="3">
+        <v>29.054999999999929</v>
       </c>
       <c r="E397" s="1">
         <v>37.838000000000001</v>
@@ -7231,8 +7231,8 @@
       <c r="C398" s="1">
         <v>1</v>
       </c>
-      <c r="D398">
-        <v>23.107999999999901</v>
+      <c r="D398" s="3">
+        <v>29.054999999999929</v>
       </c>
       <c r="E398" s="1">
         <v>37.777999999999999</v>
@@ -7248,8 +7248,8 @@
       <c r="C399" s="1">
         <v>2</v>
       </c>
-      <c r="D399">
-        <v>23.032</v>
+      <c r="D399" s="3">
+        <v>29.054999999999929</v>
       </c>
       <c r="E399" s="1">
         <v>37.387999999999998</v>
@@ -7265,8 +7265,8 @@
       <c r="C400" s="1">
         <v>3</v>
       </c>
-      <c r="D400">
-        <v>23.1</v>
+      <c r="D400" s="3">
+        <v>29.054999999999929</v>
       </c>
       <c r="E400" s="1">
         <v>38.107999999999997</v>
@@ -7282,8 +7282,8 @@
       <c r="C401" s="1">
         <v>4</v>
       </c>
-      <c r="D401">
-        <v>22.545999999999999</v>
+      <c r="D401" s="3">
+        <v>27.53</v>
       </c>
       <c r="E401" s="1">
         <v>38.137999999999998</v>
@@ -7299,8 +7299,8 @@
       <c r="C402" s="1">
         <v>5</v>
       </c>
-      <c r="D402">
-        <v>24.228000000000002</v>
+      <c r="D402" s="3">
+        <v>27.27</v>
       </c>
       <c r="E402" s="1">
         <v>38.311999999999998</v>
@@ -7316,8 +7316,8 @@
       <c r="C403" s="1">
         <v>6</v>
       </c>
-      <c r="D403">
-        <v>23.518000000000001</v>
+      <c r="D403" s="3">
+        <v>26.33</v>
       </c>
       <c r="E403" s="1">
         <v>38.305999999999997</v>
@@ -7333,8 +7333,8 @@
       <c r="C404" s="1">
         <v>7</v>
       </c>
-      <c r="D404">
-        <v>23.103999999999999</v>
+      <c r="D404" s="3">
+        <v>27.128571428571401</v>
       </c>
       <c r="E404" s="1">
         <v>37.386000000000003</v>
@@ -7350,8 +7350,8 @@
       <c r="C405" s="1">
         <v>8</v>
       </c>
-      <c r="D405">
-        <v>23.213999999999999</v>
+      <c r="D405" s="3">
+        <v>27.128571428571401</v>
       </c>
       <c r="E405" s="1">
         <v>37.213999999999999</v>
@@ -7367,8 +7367,8 @@
       <c r="C406" s="1">
         <v>9</v>
       </c>
-      <c r="D406">
-        <v>23.125999999999902</v>
+      <c r="D406" s="3">
+        <v>27.128571428571401</v>
       </c>
       <c r="E406" s="1">
         <v>37.573999999999998</v>
@@ -7384,8 +7384,8 @@
       <c r="C407" s="1">
         <v>10</v>
       </c>
-      <c r="D407">
-        <v>23.262</v>
+      <c r="D407" s="3">
+        <v>27.128571428571401</v>
       </c>
       <c r="E407" s="1">
         <v>37.799999999999997</v>
@@ -7401,8 +7401,8 @@
       <c r="C408" s="1">
         <v>11</v>
       </c>
-      <c r="D408">
-        <v>23.728000000000002</v>
+      <c r="D408" s="3">
+        <v>26.096499999999999</v>
       </c>
       <c r="E408" s="1">
         <v>38.554000000000002</v>
@@ -7418,8 +7418,8 @@
       <c r="C409" s="1">
         <v>12</v>
       </c>
-      <c r="D409">
-        <v>23.245999999999999</v>
+      <c r="D409" s="3">
+        <v>25.488499999999998</v>
       </c>
       <c r="E409" s="1">
         <v>37.838000000000001</v>
@@ -7435,8 +7435,8 @@
       <c r="C410" s="1">
         <v>1</v>
       </c>
-      <c r="D410">
-        <v>23.107999999999901</v>
+      <c r="D410" s="3">
+        <v>25.84</v>
       </c>
       <c r="E410" s="1">
         <v>37.777999999999999</v>
@@ -7452,8 +7452,8 @@
       <c r="C411" s="1">
         <v>2</v>
       </c>
-      <c r="D411">
-        <v>23.032</v>
+      <c r="D411" s="3">
+        <v>25.757214285714241</v>
       </c>
       <c r="E411" s="1">
         <v>37.387999999999998</v>
@@ -7469,8 +7469,8 @@
       <c r="C412" s="1">
         <v>3</v>
       </c>
-      <c r="D412">
-        <v>23.1</v>
+      <c r="D412" s="3">
+        <v>25.757214285714241</v>
       </c>
       <c r="E412" s="1">
         <v>38.107999999999997</v>
@@ -7486,8 +7486,8 @@
       <c r="C413" s="1">
         <v>4</v>
       </c>
-      <c r="D413">
-        <v>22.545999999999999</v>
+      <c r="D413" s="3">
+        <v>25.757214285714241</v>
       </c>
       <c r="E413" s="1">
         <v>38.137999999999998</v>
@@ -7503,8 +7503,8 @@
       <c r="C414" s="1">
         <v>5</v>
       </c>
-      <c r="D414">
-        <v>24.228000000000002</v>
+      <c r="D414" s="3">
+        <v>25.757214285714241</v>
       </c>
       <c r="E414" s="1">
         <v>38.311999999999998</v>
@@ -7520,8 +7520,8 @@
       <c r="C415" s="1">
         <v>6</v>
       </c>
-      <c r="D415">
-        <v>23.518000000000001</v>
+      <c r="D415" s="3">
+        <v>25.811499999999999</v>
       </c>
       <c r="E415" s="1">
         <v>38.305999999999997</v>
@@ -7537,8 +7537,8 @@
       <c r="C416" s="1">
         <v>7</v>
       </c>
-      <c r="D416">
-        <v>23.103999999999999</v>
+      <c r="D416" s="3">
+        <v>25.84</v>
       </c>
       <c r="E416" s="1">
         <v>37.386000000000003</v>
@@ -7554,8 +7554,8 @@
       <c r="C417" s="1">
         <v>8</v>
       </c>
-      <c r="D417">
-        <v>23.213999999999999</v>
+      <c r="D417" s="3">
+        <v>25.488499999999998</v>
       </c>
       <c r="E417" s="1">
         <v>37.213999999999999</v>
@@ -7571,8 +7571,8 @@
       <c r="C418" s="1">
         <v>9</v>
       </c>
-      <c r="D418">
-        <v>23.125999999999902</v>
+      <c r="D418" s="3">
+        <v>25.645928571428492</v>
       </c>
       <c r="E418" s="1">
         <v>37.573999999999998</v>
@@ -7588,8 +7588,8 @@
       <c r="C419" s="1">
         <v>10</v>
       </c>
-      <c r="D419">
-        <v>23.262</v>
+      <c r="D419" s="3">
+        <v>25.645928571428492</v>
       </c>
       <c r="E419" s="1">
         <v>37.799999999999997</v>
@@ -7605,8 +7605,8 @@
       <c r="C420" s="1">
         <v>11</v>
       </c>
-      <c r="D420">
-        <v>23.728000000000002</v>
+      <c r="D420" s="3">
+        <v>25.645928571428492</v>
       </c>
       <c r="E420" s="1">
         <v>38.554000000000002</v>
@@ -7622,8 +7622,8 @@
       <c r="C421" s="1">
         <v>12</v>
       </c>
-      <c r="D421">
-        <v>23.245999999999999</v>
+      <c r="D421" s="3">
+        <v>25.645928571428492</v>
       </c>
       <c r="E421" s="1">
         <v>37.838000000000001</v>
@@ -9058,4898 +9058,4898 @@
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A506" s="3" t="s">
+      <c r="A506" t="s">
         <v>11</v>
       </c>
-      <c r="B506" s="3">
+      <c r="B506">
         <v>2017</v>
       </c>
-      <c r="C506" s="3">
+      <c r="C506">
         <v>1</v>
       </c>
-      <c r="D506" s="3">
+      <c r="D506">
         <v>26.79</v>
       </c>
-      <c r="E506" s="3">
+      <c r="E506">
         <v>377.52</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A507" s="3" t="s">
+      <c r="A507" t="s">
         <v>11</v>
       </c>
-      <c r="B507" s="3">
+      <c r="B507">
         <v>2017</v>
       </c>
-      <c r="C507" s="3">
+      <c r="C507">
         <v>2</v>
       </c>
-      <c r="D507" s="3">
+      <c r="D507">
         <v>27.19</v>
       </c>
-      <c r="E507" s="3">
+      <c r="E507">
         <v>365.8</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A508" s="3" t="s">
+      <c r="A508" t="s">
         <v>11</v>
       </c>
-      <c r="B508" s="3">
+      <c r="B508">
         <v>2017</v>
       </c>
-      <c r="C508" s="3">
+      <c r="C508">
         <v>3</v>
       </c>
-      <c r="D508" s="3">
+      <c r="D508">
         <v>27.55</v>
       </c>
-      <c r="E508" s="3">
+      <c r="E508">
         <v>265.55</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A509" s="3" t="s">
+      <c r="A509" t="s">
         <v>11</v>
       </c>
-      <c r="B509" s="3">
+      <c r="B509">
         <v>2017</v>
       </c>
-      <c r="C509" s="3">
+      <c r="C509">
         <v>4</v>
       </c>
-      <c r="D509" s="3">
+      <c r="D509">
         <v>27.85</v>
       </c>
-      <c r="E509" s="3">
+      <c r="E509">
         <v>384.39</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A510" s="3" t="s">
+      <c r="A510" t="s">
         <v>11</v>
       </c>
-      <c r="B510" s="3">
+      <c r="B510">
         <v>2017</v>
       </c>
-      <c r="C510" s="3">
-        <v>5</v>
-      </c>
-      <c r="D510" s="3">
+      <c r="C510">
+        <v>5</v>
+      </c>
+      <c r="D510">
         <v>26.68</v>
       </c>
-      <c r="E510" s="3">
+      <c r="E510">
         <v>331.57</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A511" s="3" t="s">
+      <c r="A511" t="s">
         <v>11</v>
       </c>
-      <c r="B511" s="3">
+      <c r="B511">
         <v>2017</v>
       </c>
-      <c r="C511" s="3">
-        <v>6</v>
-      </c>
-      <c r="D511" s="3">
+      <c r="C511">
+        <v>6</v>
+      </c>
+      <c r="D511">
         <v>26.71</v>
       </c>
-      <c r="E511" s="3">
+      <c r="E511">
         <v>217.83</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A512" s="3" t="s">
+      <c r="A512" t="s">
         <v>11</v>
       </c>
-      <c r="B512" s="3">
+      <c r="B512">
         <v>2017</v>
       </c>
-      <c r="C512" s="3">
-        <v>7</v>
-      </c>
-      <c r="D512" s="3">
+      <c r="C512">
+        <v>7</v>
+      </c>
+      <c r="D512">
         <v>27.37</v>
       </c>
-      <c r="E512" s="3">
+      <c r="E512">
         <v>238.05</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A513" s="3" t="s">
+      <c r="A513" t="s">
         <v>11</v>
       </c>
-      <c r="B513" s="3">
+      <c r="B513">
         <v>2017</v>
       </c>
-      <c r="C513" s="3">
-        <v>8</v>
-      </c>
-      <c r="D513" s="3">
+      <c r="C513">
+        <v>8</v>
+      </c>
+      <c r="D513">
         <v>27.16</v>
       </c>
-      <c r="E513" s="3">
+      <c r="E513">
         <v>262.64</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A514" s="3" t="s">
+      <c r="A514" t="s">
         <v>11</v>
       </c>
-      <c r="B514" s="3">
+      <c r="B514">
         <v>2017</v>
       </c>
-      <c r="C514" s="3">
-        <v>9</v>
-      </c>
-      <c r="D514" s="3">
+      <c r="C514">
+        <v>9</v>
+      </c>
+      <c r="D514">
         <v>27.92</v>
       </c>
-      <c r="E514" s="3">
+      <c r="E514">
         <v>299.35000000000002</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A515" s="3" t="s">
+      <c r="A515" t="s">
         <v>11</v>
       </c>
-      <c r="B515" s="3">
+      <c r="B515">
         <v>2017</v>
       </c>
-      <c r="C515" s="3">
-        <v>10</v>
-      </c>
-      <c r="D515" s="3">
+      <c r="C515">
+        <v>10</v>
+      </c>
+      <c r="D515">
         <v>27.17</v>
       </c>
-      <c r="E515" s="3">
+      <c r="E515">
         <v>376.64</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A516" s="3" t="s">
+      <c r="A516" t="s">
         <v>11</v>
       </c>
-      <c r="B516" s="3">
+      <c r="B516">
         <v>2017</v>
       </c>
-      <c r="C516" s="3">
+      <c r="C516">
         <v>11</v>
       </c>
-      <c r="D516" s="3">
+      <c r="D516">
         <v>27.19</v>
       </c>
-      <c r="E516" s="3">
+      <c r="E516">
         <v>357.79</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A517" s="3" t="s">
+      <c r="A517" t="s">
         <v>11</v>
       </c>
-      <c r="B517" s="3">
+      <c r="B517">
         <v>2017</v>
       </c>
-      <c r="C517" s="3">
+      <c r="C517">
         <v>12</v>
       </c>
-      <c r="D517" s="3">
+      <c r="D517">
         <v>26.64</v>
       </c>
-      <c r="E517" s="3">
+      <c r="E517">
         <v>390.05</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A518" s="3" t="s">
+      <c r="A518" t="s">
         <v>11</v>
       </c>
-      <c r="B518" s="3">
+      <c r="B518">
         <v>2018</v>
       </c>
-      <c r="C518" s="3">
+      <c r="C518">
         <v>1</v>
       </c>
-      <c r="D518" s="3">
+      <c r="D518">
         <v>26.54</v>
       </c>
-      <c r="E518" s="3">
+      <c r="E518">
         <v>372.97</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A519" s="3" t="s">
+      <c r="A519" t="s">
         <v>11</v>
       </c>
-      <c r="B519" s="3">
+      <c r="B519">
         <v>2018</v>
       </c>
-      <c r="C519" s="3">
+      <c r="C519">
         <v>2</v>
       </c>
-      <c r="D519" s="3">
+      <c r="D519">
         <v>27.58</v>
       </c>
-      <c r="E519" s="3">
+      <c r="E519">
         <v>314.58</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A520" s="3" t="s">
+      <c r="A520" t="s">
         <v>11</v>
       </c>
-      <c r="B520" s="3">
+      <c r="B520">
         <v>2018</v>
       </c>
-      <c r="C520" s="3">
+      <c r="C520">
         <v>3</v>
       </c>
-      <c r="D520" s="3">
+      <c r="D520">
         <v>27.73</v>
       </c>
-      <c r="E520" s="3">
+      <c r="E520">
         <v>213.85</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A521" s="3" t="s">
+      <c r="A521" t="s">
         <v>11</v>
       </c>
-      <c r="B521" s="3">
+      <c r="B521">
         <v>2018</v>
       </c>
-      <c r="C521" s="3">
+      <c r="C521">
         <v>4</v>
       </c>
-      <c r="D521" s="3">
+      <c r="D521">
         <v>27.09</v>
       </c>
-      <c r="E521" s="3">
+      <c r="E521">
         <v>396.83</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A522" s="3" t="s">
+      <c r="A522" t="s">
         <v>11</v>
       </c>
-      <c r="B522" s="3">
+      <c r="B522">
         <v>2018</v>
       </c>
-      <c r="C522" s="3">
-        <v>5</v>
-      </c>
-      <c r="D522" s="3">
+      <c r="C522">
+        <v>5</v>
+      </c>
+      <c r="D522">
         <v>26.9</v>
       </c>
-      <c r="E522" s="3">
+      <c r="E522">
         <v>319.19</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A523" s="3" t="s">
+      <c r="A523" t="s">
         <v>11</v>
       </c>
-      <c r="B523" s="3">
+      <c r="B523">
         <v>2018</v>
       </c>
-      <c r="C523" s="3">
-        <v>6</v>
-      </c>
-      <c r="D523" s="3">
+      <c r="C523">
+        <v>6</v>
+      </c>
+      <c r="D523">
         <v>27.21</v>
       </c>
-      <c r="E523" s="3">
+      <c r="E523">
         <v>385.78</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A524" s="3" t="s">
+      <c r="A524" t="s">
         <v>11</v>
       </c>
-      <c r="B524" s="3">
+      <c r="B524">
         <v>2018</v>
       </c>
-      <c r="C524" s="3">
-        <v>7</v>
-      </c>
-      <c r="D524" s="3">
+      <c r="C524">
+        <v>7</v>
+      </c>
+      <c r="D524">
         <v>27.28</v>
       </c>
-      <c r="E524" s="3">
+      <c r="E524">
         <v>381.2</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A525" s="3" t="s">
+      <c r="A525" t="s">
         <v>11</v>
       </c>
-      <c r="B525" s="3">
+      <c r="B525">
         <v>2018</v>
       </c>
-      <c r="C525" s="3">
-        <v>8</v>
-      </c>
-      <c r="D525" s="3">
+      <c r="C525">
+        <v>8</v>
+      </c>
+      <c r="D525">
         <v>26.57</v>
       </c>
-      <c r="E525" s="3">
+      <c r="E525">
         <v>320.01</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A526" s="3" t="s">
+      <c r="A526" t="s">
         <v>11</v>
       </c>
-      <c r="B526" s="3">
+      <c r="B526">
         <v>2018</v>
       </c>
-      <c r="C526" s="3">
-        <v>9</v>
-      </c>
-      <c r="D526" s="3">
+      <c r="C526">
+        <v>9</v>
+      </c>
+      <c r="D526">
         <v>26.78</v>
       </c>
-      <c r="E526" s="3">
+      <c r="E526">
         <v>221.48</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A527" s="3" t="s">
+      <c r="A527" t="s">
         <v>11</v>
       </c>
-      <c r="B527" s="3">
+      <c r="B527">
         <v>2018</v>
       </c>
-      <c r="C527" s="3">
-        <v>10</v>
-      </c>
-      <c r="D527" s="3">
+      <c r="C527">
+        <v>10</v>
+      </c>
+      <c r="D527">
         <v>27.44</v>
       </c>
-      <c r="E527" s="3">
+      <c r="E527">
         <v>382.05</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A528" s="3" t="s">
+      <c r="A528" t="s">
         <v>11</v>
       </c>
-      <c r="B528" s="3">
+      <c r="B528">
         <v>2018</v>
       </c>
-      <c r="C528" s="3">
+      <c r="C528">
         <v>11</v>
       </c>
-      <c r="D528" s="3">
+      <c r="D528">
         <v>27.89</v>
       </c>
-      <c r="E528" s="3">
+      <c r="E528">
         <v>296.49</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A529" s="3" t="s">
+      <c r="A529" t="s">
         <v>11</v>
       </c>
-      <c r="B529" s="3">
+      <c r="B529">
         <v>2018</v>
       </c>
-      <c r="C529" s="3">
+      <c r="C529">
         <v>12</v>
       </c>
-      <c r="D529" s="3">
+      <c r="D529">
         <v>27.64</v>
       </c>
-      <c r="E529" s="3">
+      <c r="E529">
         <v>372.1</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A530" s="3" t="s">
+      <c r="A530" t="s">
         <v>11</v>
       </c>
-      <c r="B530" s="3">
+      <c r="B530">
         <v>2019</v>
       </c>
-      <c r="C530" s="3">
+      <c r="C530">
         <v>1</v>
       </c>
-      <c r="D530" s="3">
+      <c r="D530">
         <v>26.73</v>
       </c>
-      <c r="E530" s="3">
+      <c r="E530">
         <v>325.91000000000003</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A531" s="3" t="s">
+      <c r="A531" t="s">
         <v>11</v>
       </c>
-      <c r="B531" s="3">
+      <c r="B531">
         <v>2019</v>
       </c>
-      <c r="C531" s="3">
+      <c r="C531">
         <v>2</v>
       </c>
-      <c r="D531" s="3">
+      <c r="D531">
         <v>27.26</v>
       </c>
-      <c r="E531" s="3">
+      <c r="E531">
         <v>289.56</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A532" s="3" t="s">
+      <c r="A532" t="s">
         <v>11</v>
       </c>
-      <c r="B532" s="3">
+      <c r="B532">
         <v>2019</v>
       </c>
-      <c r="C532" s="3">
+      <c r="C532">
         <v>3</v>
       </c>
-      <c r="D532" s="3">
+      <c r="D532">
         <v>26.89</v>
       </c>
-      <c r="E532" s="3">
+      <c r="E532">
         <v>307.86</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A533" s="3" t="s">
+      <c r="A533" t="s">
         <v>11</v>
       </c>
-      <c r="B533" s="3">
+      <c r="B533">
         <v>2019</v>
       </c>
-      <c r="C533" s="3">
+      <c r="C533">
         <v>4</v>
       </c>
-      <c r="D533" s="3">
+      <c r="D533">
         <v>26.51</v>
       </c>
-      <c r="E533" s="3">
+      <c r="E533">
         <v>342.72</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A534" s="3" t="s">
+      <c r="A534" t="s">
         <v>11</v>
       </c>
-      <c r="B534" s="3">
+      <c r="B534">
         <v>2019</v>
       </c>
-      <c r="C534" s="3">
-        <v>5</v>
-      </c>
-      <c r="D534" s="3">
+      <c r="C534">
+        <v>5</v>
+      </c>
+      <c r="D534">
         <v>27.48</v>
       </c>
-      <c r="E534" s="3">
+      <c r="E534">
         <v>256.33999999999997</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A535" s="3" t="s">
+      <c r="A535" t="s">
         <v>11</v>
       </c>
-      <c r="B535" s="3">
+      <c r="B535">
         <v>2019</v>
       </c>
-      <c r="C535" s="3">
-        <v>6</v>
-      </c>
-      <c r="D535" s="3">
+      <c r="C535">
+        <v>6</v>
+      </c>
+      <c r="D535">
         <v>26.96</v>
       </c>
-      <c r="E535" s="3">
+      <c r="E535">
         <v>336.66</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A536" s="3" t="s">
+      <c r="A536" t="s">
         <v>11</v>
       </c>
-      <c r="B536" s="3">
+      <c r="B536">
         <v>2019</v>
       </c>
-      <c r="C536" s="3">
-        <v>7</v>
-      </c>
-      <c r="D536" s="3">
+      <c r="C536">
+        <v>7</v>
+      </c>
+      <c r="D536">
         <v>26.78</v>
       </c>
-      <c r="E536" s="3">
+      <c r="E536">
         <v>328.04</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A537" s="3" t="s">
+      <c r="A537" t="s">
         <v>11</v>
       </c>
-      <c r="B537" s="3">
+      <c r="B537">
         <v>2019</v>
       </c>
-      <c r="C537" s="3">
-        <v>8</v>
-      </c>
-      <c r="D537" s="3">
+      <c r="C537">
+        <v>8</v>
+      </c>
+      <c r="D537">
         <v>26.72</v>
       </c>
-      <c r="E537" s="3">
+      <c r="E537">
         <v>278.2</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A538" s="3" t="s">
+      <c r="A538" t="s">
         <v>11</v>
       </c>
-      <c r="B538" s="3">
+      <c r="B538">
         <v>2019</v>
       </c>
-      <c r="C538" s="3">
-        <v>9</v>
-      </c>
-      <c r="D538" s="3">
+      <c r="C538">
+        <v>9</v>
+      </c>
+      <c r="D538">
         <v>26.94</v>
       </c>
-      <c r="E538" s="3">
+      <c r="E538">
         <v>303.11</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A539" s="3" t="s">
+      <c r="A539" t="s">
         <v>11</v>
       </c>
-      <c r="B539" s="3">
+      <c r="B539">
         <v>2019</v>
       </c>
-      <c r="C539" s="3">
-        <v>10</v>
-      </c>
-      <c r="D539" s="3">
+      <c r="C539">
+        <v>10</v>
+      </c>
+      <c r="D539">
         <v>27.7</v>
       </c>
-      <c r="E539" s="3">
+      <c r="E539">
         <v>319.19</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A540" s="3" t="s">
+      <c r="A540" t="s">
         <v>11</v>
       </c>
-      <c r="B540" s="3">
+      <c r="B540">
         <v>2019</v>
       </c>
-      <c r="C540" s="3">
+      <c r="C540">
         <v>11</v>
       </c>
-      <c r="D540" s="3">
+      <c r="D540">
         <v>26.98</v>
       </c>
-      <c r="E540" s="3">
+      <c r="E540">
         <v>239.94</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A541" s="3" t="s">
+      <c r="A541" t="s">
         <v>11</v>
       </c>
-      <c r="B541" s="3">
+      <c r="B541">
         <v>2019</v>
       </c>
-      <c r="C541" s="3">
+      <c r="C541">
         <v>12</v>
       </c>
-      <c r="D541" s="3">
+      <c r="D541">
         <v>26.98</v>
       </c>
-      <c r="E541" s="3">
+      <c r="E541">
         <v>386.54</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A542" s="3" t="s">
+      <c r="A542" t="s">
         <v>11</v>
       </c>
-      <c r="B542" s="3">
+      <c r="B542">
         <v>2020</v>
       </c>
-      <c r="C542" s="3">
+      <c r="C542">
         <v>1</v>
       </c>
-      <c r="D542" s="3">
+      <c r="D542">
         <v>27.01</v>
       </c>
-      <c r="E542" s="3">
+      <c r="E542">
         <v>233.4</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A543" s="3" t="s">
+      <c r="A543" t="s">
         <v>11</v>
       </c>
-      <c r="B543" s="3">
+      <c r="B543">
         <v>2020</v>
       </c>
-      <c r="C543" s="3">
+      <c r="C543">
         <v>2</v>
       </c>
-      <c r="D543" s="3">
+      <c r="D543">
         <v>27.96</v>
       </c>
-      <c r="E543" s="3">
+      <c r="E543">
         <v>272.99</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A544" s="3" t="s">
+      <c r="A544" t="s">
         <v>11</v>
       </c>
-      <c r="B544" s="3">
+      <c r="B544">
         <v>2020</v>
       </c>
-      <c r="C544" s="3">
+      <c r="C544">
         <v>3</v>
       </c>
-      <c r="D544" s="3">
+      <c r="D544">
         <v>27.37</v>
       </c>
-      <c r="E544" s="3">
+      <c r="E544">
         <v>307.83999999999997</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A545" s="3" t="s">
+      <c r="A545" t="s">
         <v>11</v>
       </c>
-      <c r="B545" s="3">
+      <c r="B545">
         <v>2020</v>
       </c>
-      <c r="C545" s="3">
+      <c r="C545">
         <v>4</v>
       </c>
-      <c r="D545" s="3">
+      <c r="D545">
         <v>27.02</v>
       </c>
-      <c r="E545" s="3">
+      <c r="E545">
         <v>379.99</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A546" s="3" t="s">
+      <c r="A546" t="s">
         <v>11</v>
       </c>
-      <c r="B546" s="3">
+      <c r="B546">
         <v>2020</v>
       </c>
-      <c r="C546" s="3">
-        <v>5</v>
-      </c>
-      <c r="D546" s="3">
+      <c r="C546">
+        <v>5</v>
+      </c>
+      <c r="D546">
         <v>27.92</v>
       </c>
-      <c r="E546" s="3">
+      <c r="E546">
         <v>363.43</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A547" s="3" t="s">
+      <c r="A547" t="s">
         <v>11</v>
       </c>
-      <c r="B547" s="3">
+      <c r="B547">
         <v>2020</v>
       </c>
-      <c r="C547" s="3">
-        <v>6</v>
-      </c>
-      <c r="D547" s="3">
+      <c r="C547">
+        <v>6</v>
+      </c>
+      <c r="D547">
         <v>27.13</v>
       </c>
-      <c r="E547" s="3">
+      <c r="E547">
         <v>242.09</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A548" s="3" t="s">
+      <c r="A548" t="s">
         <v>11</v>
       </c>
-      <c r="B548" s="3">
+      <c r="B548">
         <v>2020</v>
       </c>
-      <c r="C548" s="3">
-        <v>7</v>
-      </c>
-      <c r="D548" s="3">
+      <c r="C548">
+        <v>7</v>
+      </c>
+      <c r="D548">
         <v>26.86</v>
       </c>
-      <c r="E548" s="3">
+      <c r="E548">
         <v>384.35</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A549" s="3" t="s">
+      <c r="A549" t="s">
         <v>11</v>
       </c>
-      <c r="B549" s="3">
+      <c r="B549">
         <v>2020</v>
       </c>
-      <c r="C549" s="3">
-        <v>8</v>
-      </c>
-      <c r="D549" s="3">
+      <c r="C549">
+        <v>8</v>
+      </c>
+      <c r="D549">
         <v>26.71</v>
       </c>
-      <c r="E549" s="3">
+      <c r="E549">
         <v>381.39</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A550" s="3" t="s">
+      <c r="A550" t="s">
         <v>11</v>
       </c>
-      <c r="B550" s="3">
+      <c r="B550">
         <v>2020</v>
       </c>
-      <c r="C550" s="3">
-        <v>9</v>
-      </c>
-      <c r="D550" s="3">
+      <c r="C550">
+        <v>9</v>
+      </c>
+      <c r="D550">
         <v>27.99</v>
       </c>
-      <c r="E550" s="3">
+      <c r="E550">
         <v>279.7</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A551" s="3" t="s">
+      <c r="A551" t="s">
         <v>11</v>
       </c>
-      <c r="B551" s="3">
+      <c r="B551">
         <v>2020</v>
       </c>
-      <c r="C551" s="3">
-        <v>10</v>
-      </c>
-      <c r="D551" s="3">
+      <c r="C551">
+        <v>10</v>
+      </c>
+      <c r="D551">
         <v>27.02</v>
       </c>
-      <c r="E551" s="3">
+      <c r="E551">
         <v>240.56</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A552" s="3" t="s">
+      <c r="A552" t="s">
         <v>11</v>
       </c>
-      <c r="B552" s="3">
+      <c r="B552">
         <v>2020</v>
       </c>
-      <c r="C552" s="3">
+      <c r="C552">
         <v>11</v>
       </c>
-      <c r="D552" s="3">
+      <c r="D552">
         <v>27.25</v>
       </c>
-      <c r="E552" s="3">
+      <c r="E552">
         <v>259.18</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A553" s="3" t="s">
+      <c r="A553" t="s">
         <v>11</v>
       </c>
-      <c r="B553" s="3">
+      <c r="B553">
         <v>2020</v>
       </c>
-      <c r="C553" s="3">
+      <c r="C553">
         <v>12</v>
       </c>
-      <c r="D553" s="3">
+      <c r="D553">
         <v>27.81</v>
       </c>
-      <c r="E553" s="3">
+      <c r="E553">
         <v>306.11</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A554" s="3" t="s">
+      <c r="A554" t="s">
         <v>11</v>
       </c>
-      <c r="B554" s="3">
+      <c r="B554">
         <v>2021</v>
       </c>
-      <c r="C554" s="3">
+      <c r="C554">
         <v>1</v>
       </c>
-      <c r="D554" s="3">
+      <c r="D554">
         <v>27.58</v>
       </c>
-      <c r="E554" s="3">
+      <c r="E554">
         <v>368.42</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A555" s="3" t="s">
+      <c r="A555" t="s">
         <v>11</v>
       </c>
-      <c r="B555" s="3">
+      <c r="B555">
         <v>2021</v>
       </c>
-      <c r="C555" s="3">
+      <c r="C555">
         <v>2</v>
       </c>
-      <c r="D555" s="3">
+      <c r="D555">
         <v>26.52</v>
       </c>
-      <c r="E555" s="3">
+      <c r="E555">
         <v>282.04000000000002</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A556" s="3" t="s">
+      <c r="A556" t="s">
         <v>11</v>
       </c>
-      <c r="B556" s="3">
+      <c r="B556">
         <v>2021</v>
       </c>
-      <c r="C556" s="3">
+      <c r="C556">
         <v>3</v>
       </c>
-      <c r="D556" s="3">
+      <c r="D556">
         <v>27.23</v>
       </c>
-      <c r="E556" s="3">
+      <c r="E556">
         <v>238.74</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A557" s="3" t="s">
+      <c r="A557" t="s">
         <v>11</v>
       </c>
-      <c r="B557" s="3">
+      <c r="B557">
         <v>2021</v>
       </c>
-      <c r="C557" s="3">
+      <c r="C557">
         <v>4</v>
       </c>
-      <c r="D557" s="3">
+      <c r="D557">
         <v>26.93</v>
       </c>
-      <c r="E557" s="3">
+      <c r="E557">
         <v>270.52999999999997</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A558" s="3" t="s">
+      <c r="A558" t="s">
         <v>11</v>
       </c>
-      <c r="B558" s="3">
+      <c r="B558">
         <v>2021</v>
       </c>
-      <c r="C558" s="3">
-        <v>5</v>
-      </c>
-      <c r="D558" s="3">
+      <c r="C558">
+        <v>5</v>
+      </c>
+      <c r="D558">
         <v>26.54</v>
       </c>
-      <c r="E558" s="3">
+      <c r="E558">
         <v>308.08999999999997</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A559" s="3" t="s">
+      <c r="A559" t="s">
         <v>11</v>
       </c>
-      <c r="B559" s="3">
+      <c r="B559">
         <v>2021</v>
       </c>
-      <c r="C559" s="3">
-        <v>6</v>
-      </c>
-      <c r="D559" s="3">
+      <c r="C559">
+        <v>6</v>
+      </c>
+      <c r="D559">
         <v>27.03</v>
       </c>
-      <c r="E559" s="3">
+      <c r="E559">
         <v>327.93</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A560" s="3" t="s">
+      <c r="A560" t="s">
         <v>11</v>
       </c>
-      <c r="B560" s="3">
+      <c r="B560">
         <v>2021</v>
       </c>
-      <c r="C560" s="3">
-        <v>7</v>
-      </c>
-      <c r="D560" s="3">
+      <c r="C560">
+        <v>7</v>
+      </c>
+      <c r="D560">
         <v>26.92</v>
       </c>
-      <c r="E560" s="3">
+      <c r="E560">
         <v>348.87</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A561" s="3" t="s">
+      <c r="A561" t="s">
         <v>11</v>
       </c>
-      <c r="B561" s="3">
+      <c r="B561">
         <v>2021</v>
       </c>
-      <c r="C561" s="3">
-        <v>8</v>
-      </c>
-      <c r="D561" s="3">
+      <c r="C561">
+        <v>8</v>
+      </c>
+      <c r="D561">
         <v>27.13</v>
       </c>
-      <c r="E561" s="3">
+      <c r="E561">
         <v>360.64</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A562" s="3" t="s">
+      <c r="A562" t="s">
         <v>11</v>
       </c>
-      <c r="B562" s="3">
+      <c r="B562">
         <v>2021</v>
       </c>
-      <c r="C562" s="3">
-        <v>9</v>
-      </c>
-      <c r="D562" s="3">
+      <c r="C562">
+        <v>9</v>
+      </c>
+      <c r="D562">
         <v>27.68</v>
       </c>
-      <c r="E562" s="3">
+      <c r="E562">
         <v>319.20999999999998</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A563" s="3" t="s">
+      <c r="A563" t="s">
         <v>11</v>
       </c>
-      <c r="B563" s="3">
+      <c r="B563">
         <v>2021</v>
       </c>
-      <c r="C563" s="3">
-        <v>10</v>
-      </c>
-      <c r="D563" s="3">
+      <c r="C563">
+        <v>10</v>
+      </c>
+      <c r="D563">
         <v>27.9</v>
       </c>
-      <c r="E563" s="3">
+      <c r="E563">
         <v>369.6</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A564" s="3" t="s">
+      <c r="A564" t="s">
         <v>11</v>
       </c>
-      <c r="B564" s="3">
+      <c r="B564">
         <v>2021</v>
       </c>
-      <c r="C564" s="3">
+      <c r="C564">
         <v>11</v>
       </c>
-      <c r="D564" s="3">
+      <c r="D564">
         <v>26.67</v>
       </c>
-      <c r="E564" s="3">
+      <c r="E564">
         <v>355.56</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A565" s="3" t="s">
+      <c r="A565" t="s">
         <v>11</v>
       </c>
-      <c r="B565" s="3">
+      <c r="B565">
         <v>2021</v>
       </c>
-      <c r="C565" s="3">
+      <c r="C565">
         <v>12</v>
       </c>
-      <c r="D565" s="3">
+      <c r="D565">
         <v>26.5</v>
       </c>
-      <c r="E565" s="3">
+      <c r="E565">
         <v>301.27999999999997</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A566" s="3" t="s">
+      <c r="A566" t="s">
         <v>11</v>
       </c>
-      <c r="B566" s="3">
+      <c r="B566">
         <v>2022</v>
       </c>
-      <c r="C566" s="3">
+      <c r="C566">
         <v>1</v>
       </c>
-      <c r="D566" s="3">
+      <c r="D566">
         <v>26.91</v>
       </c>
-      <c r="E566" s="3">
+      <c r="E566">
         <v>238.55</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A567" s="3" t="s">
+      <c r="A567" t="s">
         <v>11</v>
       </c>
-      <c r="B567" s="3">
+      <c r="B567">
         <v>2022</v>
       </c>
-      <c r="C567" s="3">
+      <c r="C567">
         <v>2</v>
       </c>
-      <c r="D567" s="3">
+      <c r="D567">
         <v>27.14</v>
       </c>
-      <c r="E567" s="3">
+      <c r="E567">
         <v>331.43</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A568" s="3" t="s">
+      <c r="A568" t="s">
         <v>11</v>
       </c>
-      <c r="B568" s="3">
+      <c r="B568">
         <v>2022</v>
       </c>
-      <c r="C568" s="3">
+      <c r="C568">
         <v>3</v>
       </c>
-      <c r="D568" s="3">
+      <c r="D568">
         <v>27.36</v>
       </c>
-      <c r="E568" s="3">
+      <c r="E568">
         <v>339.91</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A569" s="3" t="s">
+      <c r="A569" t="s">
         <v>11</v>
       </c>
-      <c r="B569" s="3">
+      <c r="B569">
         <v>2022</v>
       </c>
-      <c r="C569" s="3">
+      <c r="C569">
         <v>4</v>
       </c>
-      <c r="D569" s="3">
+      <c r="D569">
         <v>27.32</v>
       </c>
-      <c r="E569" s="3">
+      <c r="E569">
         <v>323.8</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A570" s="3" t="s">
+      <c r="A570" t="s">
         <v>11</v>
       </c>
-      <c r="B570" s="3">
+      <c r="B570">
         <v>2022</v>
       </c>
-      <c r="C570" s="3">
-        <v>5</v>
-      </c>
-      <c r="D570" s="3">
+      <c r="C570">
+        <v>5</v>
+      </c>
+      <c r="D570">
         <v>27.67</v>
       </c>
-      <c r="E570" s="3">
+      <c r="E570">
         <v>218.61</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A571" s="3" t="s">
+      <c r="A571" t="s">
         <v>11</v>
       </c>
-      <c r="B571" s="3">
+      <c r="B571">
         <v>2022</v>
       </c>
-      <c r="C571" s="3">
-        <v>6</v>
-      </c>
-      <c r="D571" s="3">
+      <c r="C571">
+        <v>6</v>
+      </c>
+      <c r="D571">
         <v>26.69</v>
       </c>
-      <c r="E571" s="3">
+      <c r="E571">
         <v>311.27999999999997</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A572" s="3" t="s">
+      <c r="A572" t="s">
         <v>11</v>
       </c>
-      <c r="B572" s="3">
+      <c r="B572">
         <v>2022</v>
       </c>
-      <c r="C572" s="3">
-        <v>7</v>
-      </c>
-      <c r="D572" s="3">
+      <c r="C572">
+        <v>7</v>
+      </c>
+      <c r="D572">
         <v>27.87</v>
       </c>
-      <c r="E572" s="3">
+      <c r="E572">
         <v>296.48</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A573" s="3" t="s">
+      <c r="A573" t="s">
         <v>11</v>
       </c>
-      <c r="B573" s="3">
+      <c r="B573">
         <v>2022</v>
       </c>
-      <c r="C573" s="3">
-        <v>8</v>
-      </c>
-      <c r="D573" s="3">
+      <c r="C573">
+        <v>8</v>
+      </c>
+      <c r="D573">
         <v>27.14</v>
       </c>
-      <c r="E573" s="3">
+      <c r="E573">
         <v>223.86</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A574" s="3" t="s">
+      <c r="A574" t="s">
         <v>11</v>
       </c>
-      <c r="B574" s="3">
+      <c r="B574">
         <v>2022</v>
       </c>
-      <c r="C574" s="3">
-        <v>9</v>
-      </c>
-      <c r="D574" s="3">
+      <c r="C574">
+        <v>9</v>
+      </c>
+      <c r="D574">
         <v>27.24</v>
       </c>
-      <c r="E574" s="3">
+      <c r="E574">
         <v>316.57</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A575" s="3" t="s">
+      <c r="A575" t="s">
         <v>11</v>
       </c>
-      <c r="B575" s="3">
+      <c r="B575">
         <v>2022</v>
       </c>
-      <c r="C575" s="3">
-        <v>10</v>
-      </c>
-      <c r="D575" s="3">
+      <c r="C575">
+        <v>10</v>
+      </c>
+      <c r="D575">
         <v>27.96</v>
       </c>
-      <c r="E575" s="3">
+      <c r="E575">
         <v>352.26</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A576" s="3" t="s">
+      <c r="A576" t="s">
         <v>11</v>
       </c>
-      <c r="B576" s="3">
+      <c r="B576">
         <v>2022</v>
       </c>
-      <c r="C576" s="3">
+      <c r="C576">
         <v>11</v>
       </c>
-      <c r="D576" s="3">
+      <c r="D576">
         <v>27.99</v>
       </c>
-      <c r="E576" s="3">
+      <c r="E576">
         <v>263.02</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A577" s="3" t="s">
+      <c r="A577" t="s">
         <v>11</v>
       </c>
-      <c r="B577" s="3">
+      <c r="B577">
         <v>2022</v>
       </c>
-      <c r="C577" s="3">
+      <c r="C577">
         <v>12</v>
       </c>
-      <c r="D577" s="3">
+      <c r="D577">
         <v>27.14</v>
       </c>
-      <c r="E577" s="3">
+      <c r="E577">
         <v>222.39</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A578" s="3" t="s">
+      <c r="A578" t="s">
         <v>12</v>
       </c>
-      <c r="B578" s="3">
+      <c r="B578">
         <v>2017</v>
       </c>
-      <c r="C578" s="3">
+      <c r="C578">
         <v>1</v>
       </c>
-      <c r="D578" s="3">
+      <c r="D578">
         <v>28.14</v>
       </c>
-      <c r="E578" s="3">
+      <c r="E578">
         <v>202.32</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A579" s="3" t="s">
+      <c r="A579" t="s">
         <v>12</v>
       </c>
-      <c r="B579" s="3">
+      <c r="B579">
         <v>2017</v>
       </c>
-      <c r="C579" s="3">
+      <c r="C579">
         <v>2</v>
       </c>
-      <c r="D579" s="3">
+      <c r="D579">
         <v>27.41</v>
       </c>
-      <c r="E579" s="3">
+      <c r="E579">
         <v>145.55000000000001</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A580" s="3" t="s">
+      <c r="A580" t="s">
         <v>12</v>
       </c>
-      <c r="B580" s="3">
+      <c r="B580">
         <v>2017</v>
       </c>
-      <c r="C580" s="3">
+      <c r="C580">
         <v>3</v>
       </c>
-      <c r="D580" s="3">
+      <c r="D580">
         <v>28.35</v>
       </c>
-      <c r="E580" s="3">
+      <c r="E580">
         <v>152.16999999999999</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A581" s="3" t="s">
+      <c r="A581" t="s">
         <v>12</v>
       </c>
-      <c r="B581" s="3">
+      <c r="B581">
         <v>2017</v>
       </c>
-      <c r="C581" s="3">
+      <c r="C581">
         <v>4</v>
       </c>
-      <c r="D581" s="3">
+      <c r="D581">
         <v>28.03</v>
       </c>
-      <c r="E581" s="3">
+      <c r="E581">
         <v>111.27</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A582" s="3" t="s">
+      <c r="A582" t="s">
         <v>12</v>
       </c>
-      <c r="B582" s="3">
+      <c r="B582">
         <v>2017</v>
       </c>
-      <c r="C582" s="3">
-        <v>5</v>
-      </c>
-      <c r="D582" s="3">
+      <c r="C582">
+        <v>5</v>
+      </c>
+      <c r="D582">
         <v>27.42</v>
       </c>
-      <c r="E582" s="3">
+      <c r="E582">
         <v>136.22</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A583" s="3" t="s">
+      <c r="A583" t="s">
         <v>12</v>
       </c>
-      <c r="B583" s="3">
+      <c r="B583">
         <v>2017</v>
       </c>
-      <c r="C583" s="3">
-        <v>6</v>
-      </c>
-      <c r="D583" s="3">
+      <c r="C583">
+        <v>6</v>
+      </c>
+      <c r="D583">
         <v>28.04</v>
       </c>
-      <c r="E583" s="3">
+      <c r="E583">
         <v>111.84</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A584" s="3" t="s">
+      <c r="A584" t="s">
         <v>12</v>
       </c>
-      <c r="B584" s="3">
+      <c r="B584">
         <v>2017</v>
       </c>
-      <c r="C584" s="3">
-        <v>7</v>
-      </c>
-      <c r="D584" s="3">
+      <c r="C584">
+        <v>7</v>
+      </c>
+      <c r="D584">
         <v>27.5</v>
       </c>
-      <c r="E584" s="3">
+      <c r="E584">
         <v>107.26</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A585" s="3" t="s">
+      <c r="A585" t="s">
         <v>12</v>
       </c>
-      <c r="B585" s="3">
+      <c r="B585">
         <v>2017</v>
       </c>
-      <c r="C585" s="3">
-        <v>8</v>
-      </c>
-      <c r="D585" s="3">
+      <c r="C585">
+        <v>8</v>
+      </c>
+      <c r="D585">
         <v>28.74</v>
       </c>
-      <c r="E585" s="3">
+      <c r="E585">
         <v>266.67</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A586" s="3" t="s">
+      <c r="A586" t="s">
         <v>12</v>
       </c>
-      <c r="B586" s="3">
+      <c r="B586">
         <v>2017</v>
       </c>
-      <c r="C586" s="3">
-        <v>9</v>
-      </c>
-      <c r="D586" s="3">
+      <c r="C586">
+        <v>9</v>
+      </c>
+      <c r="D586">
         <v>28.03</v>
       </c>
-      <c r="E586" s="3">
+      <c r="E586">
         <v>240.27</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A587" s="3" t="s">
+      <c r="A587" t="s">
         <v>12</v>
       </c>
-      <c r="B587" s="3">
+      <c r="B587">
         <v>2017</v>
       </c>
-      <c r="C587" s="3">
-        <v>10</v>
-      </c>
-      <c r="D587" s="3">
+      <c r="C587">
+        <v>10</v>
+      </c>
+      <c r="D587">
         <v>27.59</v>
       </c>
-      <c r="E587" s="3">
+      <c r="E587">
         <v>259.83</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A588" s="3" t="s">
+      <c r="A588" t="s">
         <v>12</v>
       </c>
-      <c r="B588" s="3">
+      <c r="B588">
         <v>2017</v>
       </c>
-      <c r="C588" s="3">
+      <c r="C588">
         <v>11</v>
       </c>
-      <c r="D588" s="3">
+      <c r="D588">
         <v>27.66</v>
       </c>
-      <c r="E588" s="3">
+      <c r="E588">
         <v>286.32</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A589" s="3" t="s">
+      <c r="A589" t="s">
         <v>12</v>
       </c>
-      <c r="B589" s="3">
+      <c r="B589">
         <v>2017</v>
       </c>
-      <c r="C589" s="3">
+      <c r="C589">
         <v>12</v>
       </c>
-      <c r="D589" s="3">
+      <c r="D589">
         <v>28.85</v>
       </c>
-      <c r="E589" s="3">
+      <c r="E589">
         <v>260.48</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A590" s="3" t="s">
+      <c r="A590" t="s">
         <v>12</v>
       </c>
-      <c r="B590" s="3">
+      <c r="B590">
         <v>2018</v>
       </c>
-      <c r="C590" s="3">
+      <c r="C590">
         <v>1</v>
       </c>
-      <c r="D590" s="3">
+      <c r="D590">
         <v>28.51</v>
       </c>
-      <c r="E590" s="3">
+      <c r="E590">
         <v>115.06</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A591" s="3" t="s">
+      <c r="A591" t="s">
         <v>12</v>
       </c>
-      <c r="B591" s="3">
+      <c r="B591">
         <v>2018</v>
       </c>
-      <c r="C591" s="3">
+      <c r="C591">
         <v>2</v>
       </c>
-      <c r="D591" s="3">
+      <c r="D591">
         <v>29.35</v>
       </c>
-      <c r="E591" s="3">
+      <c r="E591">
         <v>281.06</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A592" s="3" t="s">
+      <c r="A592" t="s">
         <v>12</v>
       </c>
-      <c r="B592" s="3">
+      <c r="B592">
         <v>2018</v>
       </c>
-      <c r="C592" s="3">
+      <c r="C592">
         <v>3</v>
       </c>
-      <c r="D592" s="3">
+      <c r="D592">
         <v>27.67</v>
       </c>
-      <c r="E592" s="3">
+      <c r="E592">
         <v>219.26</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A593" s="3" t="s">
+      <c r="A593" t="s">
         <v>12</v>
       </c>
-      <c r="B593" s="3">
+      <c r="B593">
         <v>2018</v>
       </c>
-      <c r="C593" s="3">
+      <c r="C593">
         <v>4</v>
       </c>
-      <c r="D593" s="3">
+      <c r="D593">
         <v>29.17</v>
       </c>
-      <c r="E593" s="3">
+      <c r="E593">
         <v>178.28</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A594" s="3" t="s">
+      <c r="A594" t="s">
         <v>12</v>
       </c>
-      <c r="B594" s="3">
+      <c r="B594">
         <v>2018</v>
       </c>
-      <c r="C594" s="3">
-        <v>5</v>
-      </c>
-      <c r="D594" s="3">
+      <c r="C594">
+        <v>5</v>
+      </c>
+      <c r="D594">
         <v>28.2</v>
       </c>
-      <c r="E594" s="3">
+      <c r="E594">
         <v>158.28</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A595" s="3" t="s">
+      <c r="A595" t="s">
         <v>12</v>
       </c>
-      <c r="B595" s="3">
+      <c r="B595">
         <v>2018</v>
       </c>
-      <c r="C595" s="3">
-        <v>6</v>
-      </c>
-      <c r="D595" s="3">
+      <c r="C595">
+        <v>6</v>
+      </c>
+      <c r="D595">
         <v>27.8</v>
       </c>
-      <c r="E595" s="3">
+      <c r="E595">
         <v>113.7</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A596" s="3" t="s">
+      <c r="A596" t="s">
         <v>12</v>
       </c>
-      <c r="B596" s="3">
+      <c r="B596">
         <v>2018</v>
       </c>
-      <c r="C596" s="3">
-        <v>7</v>
-      </c>
-      <c r="D596" s="3">
+      <c r="C596">
+        <v>7</v>
+      </c>
+      <c r="D596">
         <v>27.36</v>
       </c>
-      <c r="E596" s="3">
+      <c r="E596">
         <v>133.16999999999999</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A597" s="3" t="s">
+      <c r="A597" t="s">
         <v>12</v>
       </c>
-      <c r="B597" s="3">
+      <c r="B597">
         <v>2018</v>
       </c>
-      <c r="C597" s="3">
-        <v>8</v>
-      </c>
-      <c r="D597" s="3">
+      <c r="C597">
+        <v>8</v>
+      </c>
+      <c r="D597">
         <v>28.66</v>
       </c>
-      <c r="E597" s="3">
+      <c r="E597">
         <v>233</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A598" s="3" t="s">
+      <c r="A598" t="s">
         <v>12</v>
       </c>
-      <c r="B598" s="3">
+      <c r="B598">
         <v>2018</v>
       </c>
-      <c r="C598" s="3">
-        <v>9</v>
-      </c>
-      <c r="D598" s="3">
+      <c r="C598">
+        <v>9</v>
+      </c>
+      <c r="D598">
         <v>28.32</v>
       </c>
-      <c r="E598" s="3">
+      <c r="E598">
         <v>152.08000000000001</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A599" s="3" t="s">
+      <c r="A599" t="s">
         <v>12</v>
       </c>
-      <c r="B599" s="3">
+      <c r="B599">
         <v>2018</v>
       </c>
-      <c r="C599" s="3">
-        <v>10</v>
-      </c>
-      <c r="D599" s="3">
+      <c r="C599">
+        <v>10</v>
+      </c>
+      <c r="D599">
         <v>27.14</v>
       </c>
-      <c r="E599" s="3">
+      <c r="E599">
         <v>255.12</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A600" s="3" t="s">
+      <c r="A600" t="s">
         <v>12</v>
       </c>
-      <c r="B600" s="3">
+      <c r="B600">
         <v>2018</v>
       </c>
-      <c r="C600" s="3">
+      <c r="C600">
         <v>11</v>
       </c>
-      <c r="D600" s="3">
+      <c r="D600">
         <v>28.72</v>
       </c>
-      <c r="E600" s="3">
+      <c r="E600">
         <v>299.14999999999998</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A601" s="3" t="s">
+      <c r="A601" t="s">
         <v>12</v>
       </c>
-      <c r="B601" s="3">
+      <c r="B601">
         <v>2018</v>
       </c>
-      <c r="C601" s="3">
+      <c r="C601">
         <v>12</v>
       </c>
-      <c r="D601" s="3">
+      <c r="D601">
         <v>27.07</v>
       </c>
-      <c r="E601" s="3">
+      <c r="E601">
         <v>173.72</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A602" s="3" t="s">
+      <c r="A602" t="s">
         <v>12</v>
       </c>
-      <c r="B602" s="3">
+      <c r="B602">
         <v>2019</v>
       </c>
-      <c r="C602" s="3">
+      <c r="C602">
         <v>1</v>
       </c>
-      <c r="D602" s="3">
+      <c r="D602">
         <v>28.27</v>
       </c>
-      <c r="E602" s="3">
+      <c r="E602">
         <v>275.39999999999998</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A603" s="3" t="s">
+      <c r="A603" t="s">
         <v>12</v>
       </c>
-      <c r="B603" s="3">
+      <c r="B603">
         <v>2019</v>
       </c>
-      <c r="C603" s="3">
+      <c r="C603">
         <v>2</v>
       </c>
-      <c r="D603" s="3">
+      <c r="D603">
         <v>29.01</v>
       </c>
-      <c r="E603" s="3">
+      <c r="E603">
         <v>195.14</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A604" s="3" t="s">
+      <c r="A604" t="s">
         <v>12</v>
       </c>
-      <c r="B604" s="3">
+      <c r="B604">
         <v>2019</v>
       </c>
-      <c r="C604" s="3">
+      <c r="C604">
         <v>3</v>
       </c>
-      <c r="D604" s="3">
+      <c r="D604">
         <v>29</v>
       </c>
-      <c r="E604" s="3">
+      <c r="E604">
         <v>101.37</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A605" s="3" t="s">
+      <c r="A605" t="s">
         <v>12</v>
       </c>
-      <c r="B605" s="3">
+      <c r="B605">
         <v>2019</v>
       </c>
-      <c r="C605" s="3">
+      <c r="C605">
         <v>4</v>
       </c>
-      <c r="D605" s="3">
+      <c r="D605">
         <v>27.7</v>
       </c>
-      <c r="E605" s="3">
+      <c r="E605">
         <v>159.58000000000001</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A606" s="3" t="s">
+      <c r="A606" t="s">
         <v>12</v>
       </c>
-      <c r="B606" s="3">
+      <c r="B606">
         <v>2019</v>
       </c>
-      <c r="C606" s="3">
-        <v>5</v>
-      </c>
-      <c r="D606" s="3">
+      <c r="C606">
+        <v>5</v>
+      </c>
+      <c r="D606">
         <v>27.86</v>
       </c>
-      <c r="E606" s="3">
+      <c r="E606">
         <v>185.57</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A607" s="3" t="s">
+      <c r="A607" t="s">
         <v>12</v>
       </c>
-      <c r="B607" s="3">
+      <c r="B607">
         <v>2019</v>
       </c>
-      <c r="C607" s="3">
-        <v>6</v>
-      </c>
-      <c r="D607" s="3">
+      <c r="C607">
+        <v>6</v>
+      </c>
+      <c r="D607">
         <v>28.36</v>
       </c>
-      <c r="E607" s="3">
+      <c r="E607">
         <v>178.27</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A608" s="3" t="s">
+      <c r="A608" t="s">
         <v>12</v>
       </c>
-      <c r="B608" s="3">
+      <c r="B608">
         <v>2019</v>
       </c>
-      <c r="C608" s="3">
-        <v>7</v>
-      </c>
-      <c r="D608" s="3">
+      <c r="C608">
+        <v>7</v>
+      </c>
+      <c r="D608">
         <v>29.15</v>
       </c>
-      <c r="E608" s="3">
+      <c r="E608">
         <v>226.86</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A609" s="3" t="s">
+      <c r="A609" t="s">
         <v>12</v>
       </c>
-      <c r="B609" s="3">
+      <c r="B609">
         <v>2019</v>
       </c>
-      <c r="C609" s="3">
-        <v>8</v>
-      </c>
-      <c r="D609" s="3">
+      <c r="C609">
+        <v>8</v>
+      </c>
+      <c r="D609">
         <v>27.79</v>
       </c>
-      <c r="E609" s="3">
+      <c r="E609">
         <v>117.35</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A610" s="3" t="s">
+      <c r="A610" t="s">
         <v>12</v>
       </c>
-      <c r="B610" s="3">
+      <c r="B610">
         <v>2019</v>
       </c>
-      <c r="C610" s="3">
-        <v>9</v>
-      </c>
-      <c r="D610" s="3">
+      <c r="C610">
+        <v>9</v>
+      </c>
+      <c r="D610">
         <v>28.1</v>
       </c>
-      <c r="E610" s="3">
+      <c r="E610">
         <v>274.07</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A611" s="3" t="s">
+      <c r="A611" t="s">
         <v>12</v>
       </c>
-      <c r="B611" s="3">
+      <c r="B611">
         <v>2019</v>
       </c>
-      <c r="C611" s="3">
-        <v>10</v>
-      </c>
-      <c r="D611" s="3">
+      <c r="C611">
+        <v>10</v>
+      </c>
+      <c r="D611">
         <v>27.69</v>
       </c>
-      <c r="E611" s="3">
+      <c r="E611">
         <v>183.85</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A612" s="3" t="s">
+      <c r="A612" t="s">
         <v>12</v>
       </c>
-      <c r="B612" s="3">
+      <c r="B612">
         <v>2019</v>
       </c>
-      <c r="C612" s="3">
+      <c r="C612">
         <v>11</v>
       </c>
-      <c r="D612" s="3">
+      <c r="D612">
         <v>27.13</v>
       </c>
-      <c r="E612" s="3">
+      <c r="E612">
         <v>260.31</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A613" s="3" t="s">
+      <c r="A613" t="s">
         <v>12</v>
       </c>
-      <c r="B613" s="3">
+      <c r="B613">
         <v>2019</v>
       </c>
-      <c r="C613" s="3">
+      <c r="C613">
         <v>12</v>
       </c>
-      <c r="D613" s="3">
+      <c r="D613">
         <v>28.82</v>
       </c>
-      <c r="E613" s="3">
+      <c r="E613">
         <v>168.17</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A614" s="3" t="s">
+      <c r="A614" t="s">
         <v>12</v>
       </c>
-      <c r="B614" s="3">
+      <c r="B614">
         <v>2020</v>
       </c>
-      <c r="C614" s="3">
+      <c r="C614">
         <v>1</v>
       </c>
-      <c r="D614" s="3">
+      <c r="D614">
         <v>29.2</v>
       </c>
-      <c r="E614" s="3">
+      <c r="E614">
         <v>228.99</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A615" s="3" t="s">
+      <c r="A615" t="s">
         <v>12</v>
       </c>
-      <c r="B615" s="3">
+      <c r="B615">
         <v>2020</v>
       </c>
-      <c r="C615" s="3">
+      <c r="C615">
         <v>2</v>
       </c>
-      <c r="D615" s="3">
+      <c r="D615">
         <v>27.01</v>
       </c>
-      <c r="E615" s="3">
+      <c r="E615">
         <v>277.39</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A616" s="3" t="s">
+      <c r="A616" t="s">
         <v>12</v>
       </c>
-      <c r="B616" s="3">
+      <c r="B616">
         <v>2020</v>
       </c>
-      <c r="C616" s="3">
+      <c r="C616">
         <v>3</v>
       </c>
-      <c r="D616" s="3">
+      <c r="D616">
         <v>28.84</v>
       </c>
-      <c r="E616" s="3">
+      <c r="E616">
         <v>247.43</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A617" s="3" t="s">
+      <c r="A617" t="s">
         <v>12</v>
       </c>
-      <c r="B617" s="3">
+      <c r="B617">
         <v>2020</v>
       </c>
-      <c r="C617" s="3">
+      <c r="C617">
         <v>4</v>
       </c>
-      <c r="D617" s="3">
+      <c r="D617">
         <v>28.66</v>
       </c>
-      <c r="E617" s="3">
+      <c r="E617">
         <v>156.94</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A618" s="3" t="s">
+      <c r="A618" t="s">
         <v>12</v>
       </c>
-      <c r="B618" s="3">
+      <c r="B618">
         <v>2020</v>
       </c>
-      <c r="C618" s="3">
-        <v>5</v>
-      </c>
-      <c r="D618" s="3">
+      <c r="C618">
+        <v>5</v>
+      </c>
+      <c r="D618">
         <v>29.4</v>
       </c>
-      <c r="E618" s="3">
+      <c r="E618">
         <v>240.97</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A619" s="3" t="s">
+      <c r="A619" t="s">
         <v>12</v>
       </c>
-      <c r="B619" s="3">
+      <c r="B619">
         <v>2020</v>
       </c>
-      <c r="C619" s="3">
-        <v>6</v>
-      </c>
-      <c r="D619" s="3">
+      <c r="C619">
+        <v>6</v>
+      </c>
+      <c r="D619">
         <v>27.18</v>
       </c>
-      <c r="E619" s="3">
+      <c r="E619">
         <v>165.76</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A620" s="3" t="s">
+      <c r="A620" t="s">
         <v>12</v>
       </c>
-      <c r="B620" s="3">
+      <c r="B620">
         <v>2020</v>
       </c>
-      <c r="C620" s="3">
-        <v>7</v>
-      </c>
-      <c r="D620" s="3">
+      <c r="C620">
+        <v>7</v>
+      </c>
+      <c r="D620">
         <v>28.3</v>
       </c>
-      <c r="E620" s="3">
+      <c r="E620">
         <v>130.07</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A621" s="3" t="s">
+      <c r="A621" t="s">
         <v>12</v>
       </c>
-      <c r="B621" s="3">
+      <c r="B621">
         <v>2020</v>
       </c>
-      <c r="C621" s="3">
-        <v>8</v>
-      </c>
-      <c r="D621" s="3">
+      <c r="C621">
+        <v>8</v>
+      </c>
+      <c r="D621">
         <v>28.67</v>
       </c>
-      <c r="E621" s="3">
+      <c r="E621">
         <v>218.44</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A622" s="3" t="s">
+      <c r="A622" t="s">
         <v>12</v>
       </c>
-      <c r="B622" s="3">
+      <c r="B622">
         <v>2020</v>
       </c>
-      <c r="C622" s="3">
-        <v>9</v>
-      </c>
-      <c r="D622" s="3">
+      <c r="C622">
+        <v>9</v>
+      </c>
+      <c r="D622">
         <v>28.44</v>
       </c>
-      <c r="E622" s="3">
+      <c r="E622">
         <v>255.68</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A623" s="3" t="s">
+      <c r="A623" t="s">
         <v>12</v>
       </c>
-      <c r="B623" s="3">
+      <c r="B623">
         <v>2020</v>
       </c>
-      <c r="C623" s="3">
-        <v>10</v>
-      </c>
-      <c r="D623" s="3">
+      <c r="C623">
+        <v>10</v>
+      </c>
+      <c r="D623">
         <v>27.39</v>
       </c>
-      <c r="E623" s="3">
+      <c r="E623">
         <v>256.06</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A624" s="3" t="s">
+      <c r="A624" t="s">
         <v>12</v>
       </c>
-      <c r="B624" s="3">
+      <c r="B624">
         <v>2020</v>
       </c>
-      <c r="C624" s="3">
+      <c r="C624">
         <v>11</v>
       </c>
-      <c r="D624" s="3">
+      <c r="D624">
         <v>29.39</v>
       </c>
-      <c r="E624" s="3">
+      <c r="E624">
         <v>110.2</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A625" s="3" t="s">
+      <c r="A625" t="s">
         <v>12</v>
       </c>
-      <c r="B625" s="3">
+      <c r="B625">
         <v>2020</v>
       </c>
-      <c r="C625" s="3">
+      <c r="C625">
         <v>12</v>
       </c>
-      <c r="D625" s="3">
+      <c r="D625">
         <v>27.31</v>
       </c>
-      <c r="E625" s="3">
+      <c r="E625">
         <v>167.68</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A626" s="3" t="s">
+      <c r="A626" t="s">
         <v>12</v>
       </c>
-      <c r="B626" s="3">
+      <c r="B626">
         <v>2021</v>
       </c>
-      <c r="C626" s="3">
+      <c r="C626">
         <v>1</v>
       </c>
-      <c r="D626" s="3">
+      <c r="D626">
         <v>27.88</v>
       </c>
-      <c r="E626" s="3">
+      <c r="E626">
         <v>226.71</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A627" s="3" t="s">
+      <c r="A627" t="s">
         <v>12</v>
       </c>
-      <c r="B627" s="3">
+      <c r="B627">
         <v>2021</v>
       </c>
-      <c r="C627" s="3">
+      <c r="C627">
         <v>2</v>
       </c>
-      <c r="D627" s="3">
+      <c r="D627">
         <v>28.45</v>
       </c>
-      <c r="E627" s="3">
+      <c r="E627">
         <v>247.81</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A628" s="3" t="s">
+      <c r="A628" t="s">
         <v>12</v>
       </c>
-      <c r="B628" s="3">
+      <c r="B628">
         <v>2021</v>
       </c>
-      <c r="C628" s="3">
+      <c r="C628">
         <v>3</v>
       </c>
-      <c r="D628" s="3">
+      <c r="D628">
         <v>27.78</v>
       </c>
-      <c r="E628" s="3">
+      <c r="E628">
         <v>172.76</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A629" s="3" t="s">
+      <c r="A629" t="s">
         <v>12</v>
       </c>
-      <c r="B629" s="3">
+      <c r="B629">
         <v>2021</v>
       </c>
-      <c r="C629" s="3">
+      <c r="C629">
         <v>4</v>
       </c>
-      <c r="D629" s="3">
+      <c r="D629">
         <v>28.45</v>
       </c>
-      <c r="E629" s="3">
+      <c r="E629">
         <v>155.44</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A630" s="3" t="s">
+      <c r="A630" t="s">
         <v>12</v>
       </c>
-      <c r="B630" s="3">
+      <c r="B630">
         <v>2021</v>
       </c>
-      <c r="C630" s="3">
-        <v>5</v>
-      </c>
-      <c r="D630" s="3">
+      <c r="C630">
+        <v>5</v>
+      </c>
+      <c r="D630">
         <v>27.96</v>
       </c>
-      <c r="E630" s="3">
+      <c r="E630">
         <v>174.77</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A631" s="3" t="s">
+      <c r="A631" t="s">
         <v>12</v>
       </c>
-      <c r="B631" s="3">
+      <c r="B631">
         <v>2021</v>
       </c>
-      <c r="C631" s="3">
-        <v>6</v>
-      </c>
-      <c r="D631" s="3">
+      <c r="C631">
+        <v>6</v>
+      </c>
+      <c r="D631">
         <v>29.38</v>
       </c>
-      <c r="E631" s="3">
+      <c r="E631">
         <v>123.43</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A632" s="3" t="s">
+      <c r="A632" t="s">
         <v>12</v>
       </c>
-      <c r="B632" s="3">
+      <c r="B632">
         <v>2021</v>
       </c>
-      <c r="C632" s="3">
-        <v>7</v>
-      </c>
-      <c r="D632" s="3">
+      <c r="C632">
+        <v>7</v>
+      </c>
+      <c r="D632">
         <v>28.09</v>
       </c>
-      <c r="E632" s="3">
+      <c r="E632">
         <v>292.27</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A633" s="3" t="s">
+      <c r="A633" t="s">
         <v>12</v>
       </c>
-      <c r="B633" s="3">
+      <c r="B633">
         <v>2021</v>
       </c>
-      <c r="C633" s="3">
-        <v>8</v>
-      </c>
-      <c r="D633" s="3">
+      <c r="C633">
+        <v>8</v>
+      </c>
+      <c r="D633">
         <v>29.44</v>
       </c>
-      <c r="E633" s="3">
+      <c r="E633">
         <v>297.99</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A634" s="3" t="s">
+      <c r="A634" t="s">
         <v>12</v>
       </c>
-      <c r="B634" s="3">
+      <c r="B634">
         <v>2021</v>
       </c>
-      <c r="C634" s="3">
-        <v>9</v>
-      </c>
-      <c r="D634" s="3">
+      <c r="C634">
+        <v>9</v>
+      </c>
+      <c r="D634">
         <v>28.68</v>
       </c>
-      <c r="E634" s="3">
+      <c r="E634">
         <v>277.2</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A635" s="3" t="s">
+      <c r="A635" t="s">
         <v>12</v>
       </c>
-      <c r="B635" s="3">
+      <c r="B635">
         <v>2021</v>
       </c>
-      <c r="C635" s="3">
-        <v>10</v>
-      </c>
-      <c r="D635" s="3">
+      <c r="C635">
+        <v>10</v>
+      </c>
+      <c r="D635">
         <v>27.02</v>
       </c>
-      <c r="E635" s="3">
+      <c r="E635">
         <v>296.14</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A636" s="3" t="s">
+      <c r="A636" t="s">
         <v>12</v>
       </c>
-      <c r="B636" s="3">
+      <c r="B636">
         <v>2021</v>
       </c>
-      <c r="C636" s="3">
+      <c r="C636">
         <v>11</v>
       </c>
-      <c r="D636" s="3">
+      <c r="D636">
         <v>29.02</v>
       </c>
-      <c r="E636" s="3">
+      <c r="E636">
         <v>172.24</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A637" s="3" t="s">
+      <c r="A637" t="s">
         <v>12</v>
       </c>
-      <c r="B637" s="3">
+      <c r="B637">
         <v>2021</v>
       </c>
-      <c r="C637" s="3">
+      <c r="C637">
         <v>12</v>
       </c>
-      <c r="D637" s="3">
+      <c r="D637">
         <v>27.65</v>
       </c>
-      <c r="E637" s="3">
+      <c r="E637">
         <v>176.23</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A638" s="3" t="s">
+      <c r="A638" t="s">
         <v>12</v>
       </c>
-      <c r="B638" s="3">
+      <c r="B638">
         <v>2022</v>
       </c>
-      <c r="C638" s="3">
+      <c r="C638">
         <v>1</v>
       </c>
-      <c r="D638" s="3">
+      <c r="D638">
         <v>29.15</v>
       </c>
-      <c r="E638" s="3">
+      <c r="E638">
         <v>277.29000000000002</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A639" s="3" t="s">
+      <c r="A639" t="s">
         <v>12</v>
       </c>
-      <c r="B639" s="3">
+      <c r="B639">
         <v>2022</v>
       </c>
-      <c r="C639" s="3">
+      <c r="C639">
         <v>2</v>
       </c>
-      <c r="D639" s="3">
+      <c r="D639">
         <v>27.57</v>
       </c>
-      <c r="E639" s="3">
+      <c r="E639">
         <v>117.1</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A640" s="3" t="s">
+      <c r="A640" t="s">
         <v>12</v>
       </c>
-      <c r="B640" s="3">
+      <c r="B640">
         <v>2022</v>
       </c>
-      <c r="C640" s="3">
+      <c r="C640">
         <v>3</v>
       </c>
-      <c r="D640" s="3">
+      <c r="D640">
         <v>27.93</v>
       </c>
-      <c r="E640" s="3">
+      <c r="E640">
         <v>125.04</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A641" s="3" t="s">
+      <c r="A641" t="s">
         <v>12</v>
       </c>
-      <c r="B641" s="3">
+      <c r="B641">
         <v>2022</v>
       </c>
-      <c r="C641" s="3">
+      <c r="C641">
         <v>4</v>
       </c>
-      <c r="D641" s="3">
+      <c r="D641">
         <v>27.86</v>
       </c>
-      <c r="E641" s="3">
+      <c r="E641">
         <v>201.69</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A642" s="3" t="s">
+      <c r="A642" t="s">
         <v>12</v>
       </c>
-      <c r="B642" s="3">
+      <c r="B642">
         <v>2022</v>
       </c>
-      <c r="C642" s="3">
-        <v>5</v>
-      </c>
-      <c r="D642" s="3">
+      <c r="C642">
+        <v>5</v>
+      </c>
+      <c r="D642">
         <v>27.17</v>
       </c>
-      <c r="E642" s="3">
+      <c r="E642">
         <v>247.86</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A643" s="3" t="s">
+      <c r="A643" t="s">
         <v>12</v>
       </c>
-      <c r="B643" s="3">
+      <c r="B643">
         <v>2022</v>
       </c>
-      <c r="C643" s="3">
-        <v>6</v>
-      </c>
-      <c r="D643" s="3">
+      <c r="C643">
+        <v>6</v>
+      </c>
+      <c r="D643">
         <v>29.49</v>
       </c>
-      <c r="E643" s="3">
+      <c r="E643">
         <v>144.47999999999999</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A644" s="3" t="s">
+      <c r="A644" t="s">
         <v>12</v>
       </c>
-      <c r="B644" s="3">
+      <c r="B644">
         <v>2022</v>
       </c>
-      <c r="C644" s="3">
-        <v>7</v>
-      </c>
-      <c r="D644" s="3">
+      <c r="C644">
+        <v>7</v>
+      </c>
+      <c r="D644">
         <v>28.35</v>
       </c>
-      <c r="E644" s="3">
+      <c r="E644">
         <v>100.73</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A645" s="3" t="s">
+      <c r="A645" t="s">
         <v>12</v>
       </c>
-      <c r="B645" s="3">
+      <c r="B645">
         <v>2022</v>
       </c>
-      <c r="C645" s="3">
-        <v>8</v>
-      </c>
-      <c r="D645" s="3">
+      <c r="C645">
+        <v>8</v>
+      </c>
+      <c r="D645">
         <v>29.15</v>
       </c>
-      <c r="E645" s="3">
+      <c r="E645">
         <v>272.2</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A646" s="3" t="s">
+      <c r="A646" t="s">
         <v>12</v>
       </c>
-      <c r="B646" s="3">
+      <c r="B646">
         <v>2022</v>
       </c>
-      <c r="C646" s="3">
-        <v>9</v>
-      </c>
-      <c r="D646" s="3">
+      <c r="C646">
+        <v>9</v>
+      </c>
+      <c r="D646">
         <v>27.88</v>
       </c>
-      <c r="E646" s="3">
+      <c r="E646">
         <v>180.8</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A647" s="3" t="s">
+      <c r="A647" t="s">
         <v>12</v>
       </c>
-      <c r="B647" s="3">
+      <c r="B647">
         <v>2022</v>
       </c>
-      <c r="C647" s="3">
-        <v>10</v>
-      </c>
-      <c r="D647" s="3">
+      <c r="C647">
+        <v>10</v>
+      </c>
+      <c r="D647">
         <v>28.86</v>
       </c>
-      <c r="E647" s="3">
+      <c r="E647">
         <v>211.61</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A648" s="3" t="s">
+      <c r="A648" t="s">
         <v>12</v>
       </c>
-      <c r="B648" s="3">
+      <c r="B648">
         <v>2022</v>
       </c>
-      <c r="C648" s="3">
+      <c r="C648">
         <v>11</v>
       </c>
-      <c r="D648" s="3">
+      <c r="D648">
         <v>28.7</v>
       </c>
-      <c r="E648" s="3">
+      <c r="E648">
         <v>110.18</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A649" s="3" t="s">
+      <c r="A649" t="s">
         <v>12</v>
       </c>
-      <c r="B649" s="3">
+      <c r="B649">
         <v>2022</v>
       </c>
-      <c r="C649" s="3">
+      <c r="C649">
         <v>12</v>
       </c>
-      <c r="D649" s="3">
+      <c r="D649">
         <v>29.18</v>
       </c>
-      <c r="E649" s="3">
+      <c r="E649">
         <v>231.12</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A650" s="3" t="s">
+      <c r="A650" t="s">
         <v>13</v>
       </c>
-      <c r="B650" s="3">
+      <c r="B650">
         <v>2017</v>
       </c>
-      <c r="C650" s="3">
+      <c r="C650">
         <v>1</v>
       </c>
-      <c r="D650" s="3">
+      <c r="D650">
         <v>28.67</v>
       </c>
-      <c r="E650" s="3">
+      <c r="E650">
         <v>248.63</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A651" s="3" t="s">
+      <c r="A651" t="s">
         <v>13</v>
       </c>
-      <c r="B651" s="3">
+      <c r="B651">
         <v>2017</v>
       </c>
-      <c r="C651" s="3">
+      <c r="C651">
         <v>2</v>
       </c>
-      <c r="D651" s="3">
+      <c r="D651">
         <v>29.04</v>
       </c>
-      <c r="E651" s="3">
+      <c r="E651">
         <v>175.29</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A652" s="3" t="s">
+      <c r="A652" t="s">
         <v>13</v>
       </c>
-      <c r="B652" s="3">
+      <c r="B652">
         <v>2017</v>
       </c>
-      <c r="C652" s="3">
+      <c r="C652">
         <v>3</v>
       </c>
-      <c r="D652" s="3">
+      <c r="D652">
         <v>27.23</v>
       </c>
-      <c r="E652" s="3">
+      <c r="E652">
         <v>121.11</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A653" s="3" t="s">
+      <c r="A653" t="s">
         <v>13</v>
       </c>
-      <c r="B653" s="3">
+      <c r="B653">
         <v>2017</v>
       </c>
-      <c r="C653" s="3">
+      <c r="C653">
         <v>4</v>
       </c>
-      <c r="D653" s="3">
+      <c r="D653">
         <v>28.91</v>
       </c>
-      <c r="E653" s="3">
+      <c r="E653">
         <v>251.09</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A654" s="3" t="s">
+      <c r="A654" t="s">
         <v>13</v>
       </c>
-      <c r="B654" s="3">
+      <c r="B654">
         <v>2017</v>
       </c>
-      <c r="C654" s="3">
-        <v>5</v>
-      </c>
-      <c r="D654" s="3">
+      <c r="C654">
+        <v>5</v>
+      </c>
+      <c r="D654">
         <v>27.71</v>
       </c>
-      <c r="E654" s="3">
+      <c r="E654">
         <v>165.61</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A655" s="3" t="s">
+      <c r="A655" t="s">
         <v>13</v>
       </c>
-      <c r="B655" s="3">
+      <c r="B655">
         <v>2017</v>
       </c>
-      <c r="C655" s="3">
-        <v>6</v>
-      </c>
-      <c r="D655" s="3">
+      <c r="C655">
+        <v>6</v>
+      </c>
+      <c r="D655">
         <v>27.37</v>
       </c>
-      <c r="E655" s="3">
+      <c r="E655">
         <v>120.68</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A656" s="3" t="s">
+      <c r="A656" t="s">
         <v>13</v>
       </c>
-      <c r="B656" s="3">
+      <c r="B656">
         <v>2017</v>
       </c>
-      <c r="C656" s="3">
-        <v>7</v>
-      </c>
-      <c r="D656" s="3">
+      <c r="C656">
+        <v>7</v>
+      </c>
+      <c r="D656">
         <v>28.01</v>
       </c>
-      <c r="E656" s="3">
+      <c r="E656">
         <v>122.62</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A657" s="3" t="s">
+      <c r="A657" t="s">
         <v>13</v>
       </c>
-      <c r="B657" s="3">
+      <c r="B657">
         <v>2017</v>
       </c>
-      <c r="C657" s="3">
-        <v>8</v>
-      </c>
-      <c r="D657" s="3">
+      <c r="C657">
+        <v>8</v>
+      </c>
+      <c r="D657">
         <v>28.33</v>
       </c>
-      <c r="E657" s="3">
+      <c r="E657">
         <v>264.95</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A658" s="3" t="s">
+      <c r="A658" t="s">
         <v>13</v>
       </c>
-      <c r="B658" s="3">
+      <c r="B658">
         <v>2017</v>
       </c>
-      <c r="C658" s="3">
-        <v>9</v>
-      </c>
-      <c r="D658" s="3">
+      <c r="C658">
+        <v>9</v>
+      </c>
+      <c r="D658">
         <v>28.03</v>
       </c>
-      <c r="E658" s="3">
+      <c r="E658">
         <v>248.21</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A659" s="3" t="s">
+      <c r="A659" t="s">
         <v>13</v>
       </c>
-      <c r="B659" s="3">
+      <c r="B659">
         <v>2017</v>
       </c>
-      <c r="C659" s="3">
-        <v>10</v>
-      </c>
-      <c r="D659" s="3">
+      <c r="C659">
+        <v>10</v>
+      </c>
+      <c r="D659">
         <v>28.37</v>
       </c>
-      <c r="E659" s="3">
+      <c r="E659">
         <v>195.9</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A660" s="3" t="s">
+      <c r="A660" t="s">
         <v>13</v>
       </c>
-      <c r="B660" s="3">
+      <c r="B660">
         <v>2017</v>
       </c>
-      <c r="C660" s="3">
+      <c r="C660">
         <v>11</v>
       </c>
-      <c r="D660" s="3">
+      <c r="D660">
         <v>28.82</v>
       </c>
-      <c r="E660" s="3">
+      <c r="E660">
         <v>159.59</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A661" s="3" t="s">
+      <c r="A661" t="s">
         <v>13</v>
       </c>
-      <c r="B661" s="3">
+      <c r="B661">
         <v>2017</v>
       </c>
-      <c r="C661" s="3">
+      <c r="C661">
         <v>12</v>
       </c>
-      <c r="D661" s="3">
+      <c r="D661">
         <v>28.04</v>
       </c>
-      <c r="E661" s="3">
+      <c r="E661">
         <v>184.2</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A662" s="3" t="s">
+      <c r="A662" t="s">
         <v>13</v>
       </c>
-      <c r="B662" s="3">
+      <c r="B662">
         <v>2018</v>
       </c>
-      <c r="C662" s="3">
+      <c r="C662">
         <v>1</v>
       </c>
-      <c r="D662" s="3">
+      <c r="D662">
         <v>28.99</v>
       </c>
-      <c r="E662" s="3">
+      <c r="E662">
         <v>118.16</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A663" s="3" t="s">
+      <c r="A663" t="s">
         <v>13</v>
       </c>
-      <c r="B663" s="3">
+      <c r="B663">
         <v>2018</v>
       </c>
-      <c r="C663" s="3">
+      <c r="C663">
         <v>2</v>
       </c>
-      <c r="D663" s="3">
+      <c r="D663">
         <v>28.92</v>
       </c>
-      <c r="E663" s="3">
+      <c r="E663">
         <v>146.54</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A664" s="3" t="s">
+      <c r="A664" t="s">
         <v>13</v>
       </c>
-      <c r="B664" s="3">
+      <c r="B664">
         <v>2018</v>
       </c>
-      <c r="C664" s="3">
+      <c r="C664">
         <v>3</v>
       </c>
-      <c r="D664" s="3">
+      <c r="D664">
         <v>28.68</v>
       </c>
-      <c r="E664" s="3">
+      <c r="E664">
         <v>236.41</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A665" s="3" t="s">
+      <c r="A665" t="s">
         <v>13</v>
       </c>
-      <c r="B665" s="3">
+      <c r="B665">
         <v>2018</v>
       </c>
-      <c r="C665" s="3">
+      <c r="C665">
         <v>4</v>
       </c>
-      <c r="D665" s="3">
+      <c r="D665">
         <v>28.88</v>
       </c>
-      <c r="E665" s="3">
+      <c r="E665">
         <v>185.97</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A666" s="3" t="s">
+      <c r="A666" t="s">
         <v>13</v>
       </c>
-      <c r="B666" s="3">
+      <c r="B666">
         <v>2018</v>
       </c>
-      <c r="C666" s="3">
-        <v>5</v>
-      </c>
-      <c r="D666" s="3">
+      <c r="C666">
+        <v>5</v>
+      </c>
+      <c r="D666">
         <v>27.31</v>
       </c>
-      <c r="E666" s="3">
+      <c r="E666">
         <v>260.67</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A667" s="3" t="s">
+      <c r="A667" t="s">
         <v>13</v>
       </c>
-      <c r="B667" s="3">
+      <c r="B667">
         <v>2018</v>
       </c>
-      <c r="C667" s="3">
-        <v>6</v>
-      </c>
-      <c r="D667" s="3">
+      <c r="C667">
+        <v>6</v>
+      </c>
+      <c r="D667">
         <v>27.02</v>
       </c>
-      <c r="E667" s="3">
+      <c r="E667">
         <v>109.3</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A668" s="3" t="s">
+      <c r="A668" t="s">
         <v>13</v>
       </c>
-      <c r="B668" s="3">
+      <c r="B668">
         <v>2018</v>
       </c>
-      <c r="C668" s="3">
-        <v>7</v>
-      </c>
-      <c r="D668" s="3">
+      <c r="C668">
+        <v>7</v>
+      </c>
+      <c r="D668">
         <v>27.11</v>
       </c>
-      <c r="E668" s="3">
+      <c r="E668">
         <v>174.43</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A669" s="3" t="s">
+      <c r="A669" t="s">
         <v>13</v>
       </c>
-      <c r="B669" s="3">
+      <c r="B669">
         <v>2018</v>
       </c>
-      <c r="C669" s="3">
-        <v>8</v>
-      </c>
-      <c r="D669" s="3">
+      <c r="C669">
+        <v>8</v>
+      </c>
+      <c r="D669">
         <v>27.98</v>
       </c>
-      <c r="E669" s="3">
+      <c r="E669">
         <v>120.39</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A670" s="3" t="s">
+      <c r="A670" t="s">
         <v>13</v>
       </c>
-      <c r="B670" s="3">
+      <c r="B670">
         <v>2018</v>
       </c>
-      <c r="C670" s="3">
-        <v>9</v>
-      </c>
-      <c r="D670" s="3">
+      <c r="C670">
+        <v>9</v>
+      </c>
+      <c r="D670">
         <v>29.44</v>
       </c>
-      <c r="E670" s="3">
+      <c r="E670">
         <v>205.27</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A671" s="3" t="s">
+      <c r="A671" t="s">
         <v>13</v>
       </c>
-      <c r="B671" s="3">
+      <c r="B671">
         <v>2018</v>
       </c>
-      <c r="C671" s="3">
-        <v>10</v>
-      </c>
-      <c r="D671" s="3">
+      <c r="C671">
+        <v>10</v>
+      </c>
+      <c r="D671">
         <v>27.16</v>
       </c>
-      <c r="E671" s="3">
+      <c r="E671">
         <v>105.09</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A672" s="3" t="s">
+      <c r="A672" t="s">
         <v>13</v>
       </c>
-      <c r="B672" s="3">
+      <c r="B672">
         <v>2018</v>
       </c>
-      <c r="C672" s="3">
+      <c r="C672">
         <v>11</v>
       </c>
-      <c r="D672" s="3">
+      <c r="D672">
         <v>29.39</v>
       </c>
-      <c r="E672" s="3">
+      <c r="E672">
         <v>222.77</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A673" s="3" t="s">
+      <c r="A673" t="s">
         <v>13</v>
       </c>
-      <c r="B673" s="3">
+      <c r="B673">
         <v>2018</v>
       </c>
-      <c r="C673" s="3">
+      <c r="C673">
         <v>12</v>
       </c>
-      <c r="D673" s="3">
+      <c r="D673">
         <v>27.87</v>
       </c>
-      <c r="E673" s="3">
+      <c r="E673">
         <v>144.5</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A674" s="3" t="s">
+      <c r="A674" t="s">
         <v>13</v>
       </c>
-      <c r="B674" s="3">
+      <c r="B674">
         <v>2019</v>
       </c>
-      <c r="C674" s="3">
+      <c r="C674">
         <v>1</v>
       </c>
-      <c r="D674" s="3">
+      <c r="D674">
         <v>28.62</v>
       </c>
-      <c r="E674" s="3">
+      <c r="E674">
         <v>199.78</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A675" s="3" t="s">
+      <c r="A675" t="s">
         <v>13</v>
       </c>
-      <c r="B675" s="3">
+      <c r="B675">
         <v>2019</v>
       </c>
-      <c r="C675" s="3">
+      <c r="C675">
         <v>2</v>
       </c>
-      <c r="D675" s="3">
+      <c r="D675">
         <v>29.18</v>
       </c>
-      <c r="E675" s="3">
+      <c r="E675">
         <v>250.16</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A676" s="3" t="s">
+      <c r="A676" t="s">
         <v>13</v>
       </c>
-      <c r="B676" s="3">
+      <c r="B676">
         <v>2019</v>
       </c>
-      <c r="C676" s="3">
+      <c r="C676">
         <v>3</v>
       </c>
-      <c r="D676" s="3">
+      <c r="D676">
         <v>28.48</v>
       </c>
-      <c r="E676" s="3">
+      <c r="E676">
         <v>132.30000000000001</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A677" s="3" t="s">
+      <c r="A677" t="s">
         <v>13</v>
       </c>
-      <c r="B677" s="3">
+      <c r="B677">
         <v>2019</v>
       </c>
-      <c r="C677" s="3">
+      <c r="C677">
         <v>4</v>
       </c>
-      <c r="D677" s="3">
+      <c r="D677">
         <v>27.17</v>
       </c>
-      <c r="E677" s="3">
+      <c r="E677">
         <v>186.05</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A678" s="3" t="s">
+      <c r="A678" t="s">
         <v>13</v>
       </c>
-      <c r="B678" s="3">
+      <c r="B678">
         <v>2019</v>
       </c>
-      <c r="C678" s="3">
-        <v>5</v>
-      </c>
-      <c r="D678" s="3">
+      <c r="C678">
+        <v>5</v>
+      </c>
+      <c r="D678">
         <v>28.74</v>
       </c>
-      <c r="E678" s="3">
+      <c r="E678">
         <v>119.57</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A679" s="3" t="s">
+      <c r="A679" t="s">
         <v>13</v>
       </c>
-      <c r="B679" s="3">
+      <c r="B679">
         <v>2019</v>
       </c>
-      <c r="C679" s="3">
-        <v>6</v>
-      </c>
-      <c r="D679" s="3">
+      <c r="C679">
+        <v>6</v>
+      </c>
+      <c r="D679">
         <v>28.96</v>
       </c>
-      <c r="E679" s="3">
+      <c r="E679">
         <v>296.82</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A680" s="3" t="s">
+      <c r="A680" t="s">
         <v>13</v>
       </c>
-      <c r="B680" s="3">
+      <c r="B680">
         <v>2019</v>
       </c>
-      <c r="C680" s="3">
-        <v>7</v>
-      </c>
-      <c r="D680" s="3">
+      <c r="C680">
+        <v>7</v>
+      </c>
+      <c r="D680">
         <v>28.05</v>
       </c>
-      <c r="E680" s="3">
+      <c r="E680">
         <v>271</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A681" s="3" t="s">
+      <c r="A681" t="s">
         <v>13</v>
       </c>
-      <c r="B681" s="3">
+      <c r="B681">
         <v>2019</v>
       </c>
-      <c r="C681" s="3">
-        <v>8</v>
-      </c>
-      <c r="D681" s="3">
+      <c r="C681">
+        <v>8</v>
+      </c>
+      <c r="D681">
         <v>28.06</v>
       </c>
-      <c r="E681" s="3">
+      <c r="E681">
         <v>258.72000000000003</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A682" s="3" t="s">
+      <c r="A682" t="s">
         <v>13</v>
       </c>
-      <c r="B682" s="3">
+      <c r="B682">
         <v>2019</v>
       </c>
-      <c r="C682" s="3">
-        <v>9</v>
-      </c>
-      <c r="D682" s="3">
+      <c r="C682">
+        <v>9</v>
+      </c>
+      <c r="D682">
         <v>28.49</v>
       </c>
-      <c r="E682" s="3">
+      <c r="E682">
         <v>230.11</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A683" s="3" t="s">
+      <c r="A683" t="s">
         <v>13</v>
       </c>
-      <c r="B683" s="3">
+      <c r="B683">
         <v>2019</v>
       </c>
-      <c r="C683" s="3">
-        <v>10</v>
-      </c>
-      <c r="D683" s="3">
+      <c r="C683">
+        <v>10</v>
+      </c>
+      <c r="D683">
         <v>28.94</v>
       </c>
-      <c r="E683" s="3">
+      <c r="E683">
         <v>229.76</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A684" s="3" t="s">
+      <c r="A684" t="s">
         <v>13</v>
       </c>
-      <c r="B684" s="3">
+      <c r="B684">
         <v>2019</v>
       </c>
-      <c r="C684" s="3">
+      <c r="C684">
         <v>11</v>
       </c>
-      <c r="D684" s="3">
+      <c r="D684">
         <v>27.98</v>
       </c>
-      <c r="E684" s="3">
+      <c r="E684">
         <v>106.08</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A685" s="3" t="s">
+      <c r="A685" t="s">
         <v>13</v>
       </c>
-      <c r="B685" s="3">
+      <c r="B685">
         <v>2019</v>
       </c>
-      <c r="C685" s="3">
+      <c r="C685">
         <v>12</v>
       </c>
-      <c r="D685" s="3">
+      <c r="D685">
         <v>27.08</v>
       </c>
-      <c r="E685" s="3">
+      <c r="E685">
         <v>220.11</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A686" s="3" t="s">
+      <c r="A686" t="s">
         <v>13</v>
       </c>
-      <c r="B686" s="3">
+      <c r="B686">
         <v>2020</v>
       </c>
-      <c r="C686" s="3">
+      <c r="C686">
         <v>1</v>
       </c>
-      <c r="D686" s="3">
+      <c r="D686">
         <v>27.36</v>
       </c>
-      <c r="E686" s="3">
+      <c r="E686">
         <v>233.64</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A687" s="3" t="s">
+      <c r="A687" t="s">
         <v>13</v>
       </c>
-      <c r="B687" s="3">
+      <c r="B687">
         <v>2020</v>
       </c>
-      <c r="C687" s="3">
+      <c r="C687">
         <v>2</v>
       </c>
-      <c r="D687" s="3">
+      <c r="D687">
         <v>27.49</v>
       </c>
-      <c r="E687" s="3">
+      <c r="E687">
         <v>111</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A688" s="3" t="s">
+      <c r="A688" t="s">
         <v>13</v>
       </c>
-      <c r="B688" s="3">
+      <c r="B688">
         <v>2020</v>
       </c>
-      <c r="C688" s="3">
+      <c r="C688">
         <v>3</v>
       </c>
-      <c r="D688" s="3">
+      <c r="D688">
         <v>29.05</v>
       </c>
-      <c r="E688" s="3">
+      <c r="E688">
         <v>279.64999999999998</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A689" s="3" t="s">
+      <c r="A689" t="s">
         <v>13</v>
       </c>
-      <c r="B689" s="3">
+      <c r="B689">
         <v>2020</v>
       </c>
-      <c r="C689" s="3">
+      <c r="C689">
         <v>4</v>
       </c>
-      <c r="D689" s="3">
+      <c r="D689">
         <v>27.35</v>
       </c>
-      <c r="E689" s="3">
+      <c r="E689">
         <v>282.54000000000002</v>
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A690" s="3" t="s">
+      <c r="A690" t="s">
         <v>13</v>
       </c>
-      <c r="B690" s="3">
+      <c r="B690">
         <v>2020</v>
       </c>
-      <c r="C690" s="3">
-        <v>5</v>
-      </c>
-      <c r="D690" s="3">
+      <c r="C690">
+        <v>5</v>
+      </c>
+      <c r="D690">
         <v>28.41</v>
       </c>
-      <c r="E690" s="3">
+      <c r="E690">
         <v>197.9</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A691" s="3" t="s">
+      <c r="A691" t="s">
         <v>13</v>
       </c>
-      <c r="B691" s="3">
+      <c r="B691">
         <v>2020</v>
       </c>
-      <c r="C691" s="3">
-        <v>6</v>
-      </c>
-      <c r="D691" s="3">
+      <c r="C691">
+        <v>6</v>
+      </c>
+      <c r="D691">
         <v>28.79</v>
       </c>
-      <c r="E691" s="3">
+      <c r="E691">
         <v>274.92</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A692" s="3" t="s">
+      <c r="A692" t="s">
         <v>13</v>
       </c>
-      <c r="B692" s="3">
+      <c r="B692">
         <v>2020</v>
       </c>
-      <c r="C692" s="3">
-        <v>7</v>
-      </c>
-      <c r="D692" s="3">
+      <c r="C692">
+        <v>7</v>
+      </c>
+      <c r="D692">
         <v>27.24</v>
       </c>
-      <c r="E692" s="3">
+      <c r="E692">
         <v>289.83</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A693" s="3" t="s">
+      <c r="A693" t="s">
         <v>13</v>
       </c>
-      <c r="B693" s="3">
+      <c r="B693">
         <v>2020</v>
       </c>
-      <c r="C693" s="3">
-        <v>8</v>
-      </c>
-      <c r="D693" s="3">
+      <c r="C693">
+        <v>8</v>
+      </c>
+      <c r="D693">
         <v>27.42</v>
       </c>
-      <c r="E693" s="3">
+      <c r="E693">
         <v>179.55</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A694" s="3" t="s">
+      <c r="A694" t="s">
         <v>13</v>
       </c>
-      <c r="B694" s="3">
+      <c r="B694">
         <v>2020</v>
       </c>
-      <c r="C694" s="3">
-        <v>9</v>
-      </c>
-      <c r="D694" s="3">
+      <c r="C694">
+        <v>9</v>
+      </c>
+      <c r="D694">
         <v>28.33</v>
       </c>
-      <c r="E694" s="3">
+      <c r="E694">
         <v>166.57</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A695" s="3" t="s">
+      <c r="A695" t="s">
         <v>13</v>
       </c>
-      <c r="B695" s="3">
+      <c r="B695">
         <v>2020</v>
       </c>
-      <c r="C695" s="3">
-        <v>10</v>
-      </c>
-      <c r="D695" s="3">
+      <c r="C695">
+        <v>10</v>
+      </c>
+      <c r="D695">
         <v>29.27</v>
       </c>
-      <c r="E695" s="3">
+      <c r="E695">
         <v>283.61</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A696" s="3" t="s">
+      <c r="A696" t="s">
         <v>13</v>
       </c>
-      <c r="B696" s="3">
+      <c r="B696">
         <v>2020</v>
       </c>
-      <c r="C696" s="3">
+      <c r="C696">
         <v>11</v>
       </c>
-      <c r="D696" s="3">
+      <c r="D696">
         <v>28.58</v>
       </c>
-      <c r="E696" s="3">
+      <c r="E696">
         <v>173.76</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A697" s="3" t="s">
+      <c r="A697" t="s">
         <v>13</v>
       </c>
-      <c r="B697" s="3">
+      <c r="B697">
         <v>2020</v>
       </c>
-      <c r="C697" s="3">
+      <c r="C697">
         <v>12</v>
       </c>
-      <c r="D697" s="3">
+      <c r="D697">
         <v>28.34</v>
       </c>
-      <c r="E697" s="3">
+      <c r="E697">
         <v>223.28</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A698" s="3" t="s">
+      <c r="A698" t="s">
         <v>13</v>
       </c>
-      <c r="B698" s="3">
+      <c r="B698">
         <v>2021</v>
       </c>
-      <c r="C698" s="3">
+      <c r="C698">
         <v>1</v>
       </c>
-      <c r="D698" s="3">
+      <c r="D698">
         <v>28.56</v>
       </c>
-      <c r="E698" s="3">
+      <c r="E698">
         <v>193.73</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A699" s="3" t="s">
+      <c r="A699" t="s">
         <v>13</v>
       </c>
-      <c r="B699" s="3">
+      <c r="B699">
         <v>2021</v>
       </c>
-      <c r="C699" s="3">
+      <c r="C699">
         <v>2</v>
       </c>
-      <c r="D699" s="3">
+      <c r="D699">
         <v>29.32</v>
       </c>
-      <c r="E699" s="3">
+      <c r="E699">
         <v>135.93</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A700" s="3" t="s">
+      <c r="A700" t="s">
         <v>13</v>
       </c>
-      <c r="B700" s="3">
+      <c r="B700">
         <v>2021</v>
       </c>
-      <c r="C700" s="3">
+      <c r="C700">
         <v>3</v>
       </c>
-      <c r="D700" s="3">
+      <c r="D700">
         <v>28.52</v>
       </c>
-      <c r="E700" s="3">
+      <c r="E700">
         <v>180.81</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A701" s="3" t="s">
+      <c r="A701" t="s">
         <v>13</v>
       </c>
-      <c r="B701" s="3">
+      <c r="B701">
         <v>2021</v>
       </c>
-      <c r="C701" s="3">
+      <c r="C701">
         <v>4</v>
       </c>
-      <c r="D701" s="3">
+      <c r="D701">
         <v>27.7</v>
       </c>
-      <c r="E701" s="3">
+      <c r="E701">
         <v>191.33</v>
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A702" s="3" t="s">
+      <c r="A702" t="s">
         <v>13</v>
       </c>
-      <c r="B702" s="3">
+      <c r="B702">
         <v>2021</v>
       </c>
-      <c r="C702" s="3">
-        <v>5</v>
-      </c>
-      <c r="D702" s="3">
+      <c r="C702">
+        <v>5</v>
+      </c>
+      <c r="D702">
         <v>28.45</v>
       </c>
-      <c r="E702" s="3">
+      <c r="E702">
         <v>147.99</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A703" s="3" t="s">
+      <c r="A703" t="s">
         <v>13</v>
       </c>
-      <c r="B703" s="3">
+      <c r="B703">
         <v>2021</v>
       </c>
-      <c r="C703" s="3">
-        <v>6</v>
-      </c>
-      <c r="D703" s="3">
+      <c r="C703">
+        <v>6</v>
+      </c>
+      <c r="D703">
         <v>27.48</v>
       </c>
-      <c r="E703" s="3">
+      <c r="E703">
         <v>264.14999999999998</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A704" s="3" t="s">
+      <c r="A704" t="s">
         <v>13</v>
       </c>
-      <c r="B704" s="3">
+      <c r="B704">
         <v>2021</v>
       </c>
-      <c r="C704" s="3">
-        <v>7</v>
-      </c>
-      <c r="D704" s="3">
+      <c r="C704">
+        <v>7</v>
+      </c>
+      <c r="D704">
         <v>29.44</v>
       </c>
-      <c r="E704" s="3">
+      <c r="E704">
         <v>164.25</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A705" s="3" t="s">
+      <c r="A705" t="s">
         <v>13</v>
       </c>
-      <c r="B705" s="3">
+      <c r="B705">
         <v>2021</v>
       </c>
-      <c r="C705" s="3">
-        <v>8</v>
-      </c>
-      <c r="D705" s="3">
+      <c r="C705">
+        <v>8</v>
+      </c>
+      <c r="D705">
         <v>28.89</v>
       </c>
-      <c r="E705" s="3">
+      <c r="E705">
         <v>226.11</v>
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A706" s="3" t="s">
+      <c r="A706" t="s">
         <v>13</v>
       </c>
-      <c r="B706" s="3">
+      <c r="B706">
         <v>2021</v>
       </c>
-      <c r="C706" s="3">
-        <v>9</v>
-      </c>
-      <c r="D706" s="3">
+      <c r="C706">
+        <v>9</v>
+      </c>
+      <c r="D706">
         <v>29.34</v>
       </c>
-      <c r="E706" s="3">
+      <c r="E706">
         <v>258.66000000000003</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A707" s="3" t="s">
+      <c r="A707" t="s">
         <v>13</v>
       </c>
-      <c r="B707" s="3">
+      <c r="B707">
         <v>2021</v>
       </c>
-      <c r="C707" s="3">
-        <v>10</v>
-      </c>
-      <c r="D707" s="3">
+      <c r="C707">
+        <v>10</v>
+      </c>
+      <c r="D707">
         <v>27.94</v>
       </c>
-      <c r="E707" s="3">
+      <c r="E707">
         <v>111</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A708" s="3" t="s">
+      <c r="A708" t="s">
         <v>13</v>
       </c>
-      <c r="B708" s="3">
+      <c r="B708">
         <v>2021</v>
       </c>
-      <c r="C708" s="3">
+      <c r="C708">
         <v>11</v>
       </c>
-      <c r="D708" s="3">
+      <c r="D708">
         <v>28.19</v>
       </c>
-      <c r="E708" s="3">
+      <c r="E708">
         <v>119.92</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A709" s="3" t="s">
+      <c r="A709" t="s">
         <v>13</v>
       </c>
-      <c r="B709" s="3">
+      <c r="B709">
         <v>2021</v>
       </c>
-      <c r="C709" s="3">
+      <c r="C709">
         <v>12</v>
       </c>
-      <c r="D709" s="3">
+      <c r="D709">
         <v>28.65</v>
       </c>
-      <c r="E709" s="3">
+      <c r="E709">
         <v>207.11</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A710" s="3" t="s">
+      <c r="A710" t="s">
         <v>13</v>
       </c>
-      <c r="B710" s="3">
+      <c r="B710">
         <v>2022</v>
       </c>
-      <c r="C710" s="3">
+      <c r="C710">
         <v>1</v>
       </c>
-      <c r="D710" s="3">
+      <c r="D710">
         <v>29.27</v>
       </c>
-      <c r="E710" s="3">
+      <c r="E710">
         <v>170.94</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A711" s="3" t="s">
+      <c r="A711" t="s">
         <v>13</v>
       </c>
-      <c r="B711" s="3">
+      <c r="B711">
         <v>2022</v>
       </c>
-      <c r="C711" s="3">
+      <c r="C711">
         <v>2</v>
       </c>
-      <c r="D711" s="3">
+      <c r="D711">
         <v>27.39</v>
       </c>
-      <c r="E711" s="3">
+      <c r="E711">
         <v>219.83</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A712" s="3" t="s">
+      <c r="A712" t="s">
         <v>13</v>
       </c>
-      <c r="B712" s="3">
+      <c r="B712">
         <v>2022</v>
       </c>
-      <c r="C712" s="3">
+      <c r="C712">
         <v>3</v>
       </c>
-      <c r="D712" s="3">
+      <c r="D712">
         <v>29.47</v>
       </c>
-      <c r="E712" s="3">
+      <c r="E712">
         <v>126.02</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A713" s="3" t="s">
+      <c r="A713" t="s">
         <v>13</v>
       </c>
-      <c r="B713" s="3">
+      <c r="B713">
         <v>2022</v>
       </c>
-      <c r="C713" s="3">
+      <c r="C713">
         <v>4</v>
       </c>
-      <c r="D713" s="3">
+      <c r="D713">
         <v>27.44</v>
       </c>
-      <c r="E713" s="3">
+      <c r="E713">
         <v>279.07</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A714" s="3" t="s">
+      <c r="A714" t="s">
         <v>13</v>
       </c>
-      <c r="B714" s="3">
+      <c r="B714">
         <v>2022</v>
       </c>
-      <c r="C714" s="3">
-        <v>5</v>
-      </c>
-      <c r="D714" s="3">
+      <c r="C714">
+        <v>5</v>
+      </c>
+      <c r="D714">
         <v>27.4</v>
       </c>
-      <c r="E714" s="3">
+      <c r="E714">
         <v>146.19999999999999</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A715" s="3" t="s">
+      <c r="A715" t="s">
         <v>13</v>
       </c>
-      <c r="B715" s="3">
+      <c r="B715">
         <v>2022</v>
       </c>
-      <c r="C715" s="3">
-        <v>6</v>
-      </c>
-      <c r="D715" s="3">
+      <c r="C715">
+        <v>6</v>
+      </c>
+      <c r="D715">
         <v>28.45</v>
       </c>
-      <c r="E715" s="3">
+      <c r="E715">
         <v>248.33</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A716" s="3" t="s">
+      <c r="A716" t="s">
         <v>13</v>
       </c>
-      <c r="B716" s="3">
+      <c r="B716">
         <v>2022</v>
       </c>
-      <c r="C716" s="3">
-        <v>7</v>
-      </c>
-      <c r="D716" s="3">
+      <c r="C716">
+        <v>7</v>
+      </c>
+      <c r="D716">
         <v>27.75</v>
       </c>
-      <c r="E716" s="3">
+      <c r="E716">
         <v>184.73</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A717" s="3" t="s">
+      <c r="A717" t="s">
         <v>13</v>
       </c>
-      <c r="B717" s="3">
+      <c r="B717">
         <v>2022</v>
       </c>
-      <c r="C717" s="3">
-        <v>8</v>
-      </c>
-      <c r="D717" s="3">
+      <c r="C717">
+        <v>8</v>
+      </c>
+      <c r="D717">
         <v>27.86</v>
       </c>
-      <c r="E717" s="3">
+      <c r="E717">
         <v>204.91</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A718" s="3" t="s">
+      <c r="A718" t="s">
         <v>13</v>
       </c>
-      <c r="B718" s="3">
+      <c r="B718">
         <v>2022</v>
       </c>
-      <c r="C718" s="3">
-        <v>9</v>
-      </c>
-      <c r="D718" s="3">
+      <c r="C718">
+        <v>9</v>
+      </c>
+      <c r="D718">
         <v>28.33</v>
       </c>
-      <c r="E718" s="3">
+      <c r="E718">
         <v>145.41</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A719" s="3" t="s">
+      <c r="A719" t="s">
         <v>13</v>
       </c>
-      <c r="B719" s="3">
+      <c r="B719">
         <v>2022</v>
       </c>
-      <c r="C719" s="3">
-        <v>10</v>
-      </c>
-      <c r="D719" s="3">
+      <c r="C719">
+        <v>10</v>
+      </c>
+      <c r="D719">
         <v>27.32</v>
       </c>
-      <c r="E719" s="3">
+      <c r="E719">
         <v>226.4</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A720" s="3" t="s">
+      <c r="A720" t="s">
         <v>13</v>
       </c>
-      <c r="B720" s="3">
+      <c r="B720">
         <v>2022</v>
       </c>
-      <c r="C720" s="3">
+      <c r="C720">
         <v>11</v>
       </c>
-      <c r="D720" s="3">
+      <c r="D720">
         <v>28.17</v>
       </c>
-      <c r="E720" s="3">
+      <c r="E720">
         <v>136.04</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A721" s="3" t="s">
+      <c r="A721" t="s">
         <v>13</v>
       </c>
-      <c r="B721" s="3">
+      <c r="B721">
         <v>2022</v>
       </c>
-      <c r="C721" s="3">
+      <c r="C721">
         <v>12</v>
       </c>
-      <c r="D721" s="3">
+      <c r="D721">
         <v>28.82</v>
       </c>
-      <c r="E721" s="3">
+      <c r="E721">
         <v>173.2</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A722" s="3" t="s">
+      <c r="A722" t="s">
         <v>14</v>
       </c>
-      <c r="B722" s="3">
+      <c r="B722">
         <v>2017</v>
       </c>
-      <c r="C722" s="3">
+      <c r="C722">
         <v>1</v>
       </c>
-      <c r="D722" s="3">
+      <c r="D722">
         <v>27.93</v>
       </c>
-      <c r="E722" s="3">
+      <c r="E722">
         <v>156.61000000000001</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A723" s="3" t="s">
+      <c r="A723" t="s">
         <v>14</v>
       </c>
-      <c r="B723" s="3">
+      <c r="B723">
         <v>2017</v>
       </c>
-      <c r="C723" s="3">
+      <c r="C723">
         <v>2</v>
       </c>
-      <c r="D723" s="3">
+      <c r="D723">
         <v>28.69</v>
       </c>
-      <c r="E723" s="3">
+      <c r="E723">
         <v>126.53</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A724" s="3" t="s">
+      <c r="A724" t="s">
         <v>14</v>
       </c>
-      <c r="B724" s="3">
+      <c r="B724">
         <v>2017</v>
       </c>
-      <c r="C724" s="3">
+      <c r="C724">
         <v>3</v>
       </c>
-      <c r="D724" s="3">
+      <c r="D724">
         <v>27.86</v>
       </c>
-      <c r="E724" s="3">
+      <c r="E724">
         <v>253.5</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A725" s="3" t="s">
+      <c r="A725" t="s">
         <v>14</v>
       </c>
-      <c r="B725" s="3">
+      <c r="B725">
         <v>2017</v>
       </c>
-      <c r="C725" s="3">
+      <c r="C725">
         <v>4</v>
       </c>
-      <c r="D725" s="3">
+      <c r="D725">
         <v>27.56</v>
       </c>
-      <c r="E725" s="3">
+      <c r="E725">
         <v>109.39</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A726" s="3" t="s">
+      <c r="A726" t="s">
         <v>14</v>
       </c>
-      <c r="B726" s="3">
+      <c r="B726">
         <v>2017</v>
       </c>
-      <c r="C726" s="3">
-        <v>5</v>
-      </c>
-      <c r="D726" s="3">
+      <c r="C726">
+        <v>5</v>
+      </c>
+      <c r="D726">
         <v>27.81</v>
       </c>
-      <c r="E726" s="3">
+      <c r="E726">
         <v>207.32</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A727" s="3" t="s">
+      <c r="A727" t="s">
         <v>14</v>
       </c>
-      <c r="B727" s="3">
+      <c r="B727">
         <v>2017</v>
       </c>
-      <c r="C727" s="3">
-        <v>6</v>
-      </c>
-      <c r="D727" s="3">
+      <c r="C727">
+        <v>6</v>
+      </c>
+      <c r="D727">
         <v>27.16</v>
       </c>
-      <c r="E727" s="3">
+      <c r="E727">
         <v>169.02</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A728" s="3" t="s">
+      <c r="A728" t="s">
         <v>14</v>
       </c>
-      <c r="B728" s="3">
+      <c r="B728">
         <v>2017</v>
       </c>
-      <c r="C728" s="3">
-        <v>7</v>
-      </c>
-      <c r="D728" s="3">
+      <c r="C728">
+        <v>7</v>
+      </c>
+      <c r="D728">
         <v>28.27</v>
       </c>
-      <c r="E728" s="3">
+      <c r="E728">
         <v>159.03</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A729" s="3" t="s">
+      <c r="A729" t="s">
         <v>14</v>
       </c>
-      <c r="B729" s="3">
+      <c r="B729">
         <v>2017</v>
       </c>
-      <c r="C729" s="3">
-        <v>8</v>
-      </c>
-      <c r="D729" s="3">
+      <c r="C729">
+        <v>8</v>
+      </c>
+      <c r="D729">
         <v>28.67</v>
       </c>
-      <c r="E729" s="3">
+      <c r="E729">
         <v>224.01</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A730" s="3" t="s">
+      <c r="A730" t="s">
         <v>14</v>
       </c>
-      <c r="B730" s="3">
+      <c r="B730">
         <v>2017</v>
       </c>
-      <c r="C730" s="3">
-        <v>9</v>
-      </c>
-      <c r="D730" s="3">
+      <c r="C730">
+        <v>9</v>
+      </c>
+      <c r="D730">
         <v>27.21</v>
       </c>
-      <c r="E730" s="3">
+      <c r="E730">
         <v>143.4</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A731" s="3" t="s">
+      <c r="A731" t="s">
         <v>14</v>
       </c>
-      <c r="B731" s="3">
+      <c r="B731">
         <v>2017</v>
       </c>
-      <c r="C731" s="3">
-        <v>10</v>
-      </c>
-      <c r="D731" s="3">
+      <c r="C731">
+        <v>10</v>
+      </c>
+      <c r="D731">
         <v>27.32</v>
       </c>
-      <c r="E731" s="3">
+      <c r="E731">
         <v>264.27</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A732" s="3" t="s">
+      <c r="A732" t="s">
         <v>14</v>
       </c>
-      <c r="B732" s="3">
+      <c r="B732">
         <v>2017</v>
       </c>
-      <c r="C732" s="3">
+      <c r="C732">
         <v>11</v>
       </c>
-      <c r="D732" s="3">
+      <c r="D732">
         <v>27.35</v>
       </c>
-      <c r="E732" s="3">
+      <c r="E732">
         <v>153.38</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A733" s="3" t="s">
+      <c r="A733" t="s">
         <v>14</v>
       </c>
-      <c r="B733" s="3">
+      <c r="B733">
         <v>2017</v>
       </c>
-      <c r="C733" s="3">
+      <c r="C733">
         <v>12</v>
       </c>
-      <c r="D733" s="3">
+      <c r="D733">
         <v>28.36</v>
       </c>
-      <c r="E733" s="3">
+      <c r="E733">
         <v>197.25</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A734" s="3" t="s">
+      <c r="A734" t="s">
         <v>14</v>
       </c>
-      <c r="B734" s="3">
+      <c r="B734">
         <v>2018</v>
       </c>
-      <c r="C734" s="3">
+      <c r="C734">
         <v>1</v>
       </c>
-      <c r="D734" s="3">
+      <c r="D734">
         <v>28.12</v>
       </c>
-      <c r="E734" s="3">
+      <c r="E734">
         <v>246.44</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A735" s="3" t="s">
+      <c r="A735" t="s">
         <v>14</v>
       </c>
-      <c r="B735" s="3">
+      <c r="B735">
         <v>2018</v>
       </c>
-      <c r="C735" s="3">
+      <c r="C735">
         <v>2</v>
       </c>
-      <c r="D735" s="3">
+      <c r="D735">
         <v>27.41</v>
       </c>
-      <c r="E735" s="3">
+      <c r="E735">
         <v>122.84</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A736" s="3" t="s">
+      <c r="A736" t="s">
         <v>14</v>
       </c>
-      <c r="B736" s="3">
+      <c r="B736">
         <v>2018</v>
       </c>
-      <c r="C736" s="3">
+      <c r="C736">
         <v>3</v>
       </c>
-      <c r="D736" s="3">
+      <c r="D736">
         <v>28.85</v>
       </c>
-      <c r="E736" s="3">
+      <c r="E736">
         <v>221.97</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A737" s="3" t="s">
+      <c r="A737" t="s">
         <v>14</v>
       </c>
-      <c r="B737" s="3">
+      <c r="B737">
         <v>2018</v>
       </c>
-      <c r="C737" s="3">
+      <c r="C737">
         <v>4</v>
       </c>
-      <c r="D737" s="3">
+      <c r="D737">
         <v>29.22</v>
       </c>
-      <c r="E737" s="3">
+      <c r="E737">
         <v>199</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A738" s="3" t="s">
+      <c r="A738" t="s">
         <v>14</v>
       </c>
-      <c r="B738" s="3">
+      <c r="B738">
         <v>2018</v>
       </c>
-      <c r="C738" s="3">
-        <v>5</v>
-      </c>
-      <c r="D738" s="3">
+      <c r="C738">
+        <v>5</v>
+      </c>
+      <c r="D738">
         <v>28.94</v>
       </c>
-      <c r="E738" s="3">
+      <c r="E738">
         <v>242.14</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A739" s="3" t="s">
+      <c r="A739" t="s">
         <v>14</v>
       </c>
-      <c r="B739" s="3">
+      <c r="B739">
         <v>2018</v>
       </c>
-      <c r="C739" s="3">
-        <v>6</v>
-      </c>
-      <c r="D739" s="3">
+      <c r="C739">
+        <v>6</v>
+      </c>
+      <c r="D739">
         <v>27.73</v>
       </c>
-      <c r="E739" s="3">
+      <c r="E739">
         <v>234.07</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A740" s="3" t="s">
+      <c r="A740" t="s">
         <v>14</v>
       </c>
-      <c r="B740" s="3">
+      <c r="B740">
         <v>2018</v>
       </c>
-      <c r="C740" s="3">
-        <v>7</v>
-      </c>
-      <c r="D740" s="3">
+      <c r="C740">
+        <v>7</v>
+      </c>
+      <c r="D740">
         <v>29.24</v>
       </c>
-      <c r="E740" s="3">
+      <c r="E740">
         <v>110.36</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A741" s="3" t="s">
+      <c r="A741" t="s">
         <v>14</v>
       </c>
-      <c r="B741" s="3">
+      <c r="B741">
         <v>2018</v>
       </c>
-      <c r="C741" s="3">
-        <v>8</v>
-      </c>
-      <c r="D741" s="3">
+      <c r="C741">
+        <v>8</v>
+      </c>
+      <c r="D741">
         <v>28.99</v>
       </c>
-      <c r="E741" s="3">
+      <c r="E741">
         <v>142.15</v>
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A742" s="3" t="s">
+      <c r="A742" t="s">
         <v>14</v>
       </c>
-      <c r="B742" s="3">
+      <c r="B742">
         <v>2018</v>
       </c>
-      <c r="C742" s="3">
-        <v>9</v>
-      </c>
-      <c r="D742" s="3">
+      <c r="C742">
+        <v>9</v>
+      </c>
+      <c r="D742">
         <v>29.48</v>
       </c>
-      <c r="E742" s="3">
+      <c r="E742">
         <v>191.76</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A743" s="3" t="s">
+      <c r="A743" t="s">
         <v>14</v>
       </c>
-      <c r="B743" s="3">
+      <c r="B743">
         <v>2018</v>
       </c>
-      <c r="C743" s="3">
-        <v>10</v>
-      </c>
-      <c r="D743" s="3">
+      <c r="C743">
+        <v>10</v>
+      </c>
+      <c r="D743">
         <v>27.37</v>
       </c>
-      <c r="E743" s="3">
+      <c r="E743">
         <v>246.95</v>
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A744" s="3" t="s">
+      <c r="A744" t="s">
         <v>14</v>
       </c>
-      <c r="B744" s="3">
+      <c r="B744">
         <v>2018</v>
       </c>
-      <c r="C744" s="3">
+      <c r="C744">
         <v>11</v>
       </c>
-      <c r="D744" s="3">
+      <c r="D744">
         <v>27.75</v>
       </c>
-      <c r="E744" s="3">
+      <c r="E744">
         <v>151.53</v>
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A745" s="3" t="s">
+      <c r="A745" t="s">
         <v>14</v>
       </c>
-      <c r="B745" s="3">
+      <c r="B745">
         <v>2018</v>
       </c>
-      <c r="C745" s="3">
+      <c r="C745">
         <v>12</v>
       </c>
-      <c r="D745" s="3">
+      <c r="D745">
         <v>29.01</v>
       </c>
-      <c r="E745" s="3">
+      <c r="E745">
         <v>174.4</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A746" s="3" t="s">
+      <c r="A746" t="s">
         <v>14</v>
       </c>
-      <c r="B746" s="3">
+      <c r="B746">
         <v>2019</v>
       </c>
-      <c r="C746" s="3">
+      <c r="C746">
         <v>1</v>
       </c>
-      <c r="D746" s="3">
+      <c r="D746">
         <v>28.6</v>
       </c>
-      <c r="E746" s="3">
+      <c r="E746">
         <v>259.14</v>
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A747" s="3" t="s">
+      <c r="A747" t="s">
         <v>14</v>
       </c>
-      <c r="B747" s="3">
+      <c r="B747">
         <v>2019</v>
       </c>
-      <c r="C747" s="3">
+      <c r="C747">
         <v>2</v>
       </c>
-      <c r="D747" s="3">
+      <c r="D747">
         <v>28.02</v>
       </c>
-      <c r="E747" s="3">
+      <c r="E747">
         <v>290.45999999999998</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A748" s="3" t="s">
+      <c r="A748" t="s">
         <v>14</v>
       </c>
-      <c r="B748" s="3">
+      <c r="B748">
         <v>2019</v>
       </c>
-      <c r="C748" s="3">
+      <c r="C748">
         <v>3</v>
       </c>
-      <c r="D748" s="3">
+      <c r="D748">
         <v>27.41</v>
       </c>
-      <c r="E748" s="3">
+      <c r="E748">
         <v>223.51</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A749" s="3" t="s">
+      <c r="A749" t="s">
         <v>14</v>
       </c>
-      <c r="B749" s="3">
+      <c r="B749">
         <v>2019</v>
       </c>
-      <c r="C749" s="3">
+      <c r="C749">
         <v>4</v>
       </c>
-      <c r="D749" s="3">
+      <c r="D749">
         <v>27.29</v>
       </c>
-      <c r="E749" s="3">
+      <c r="E749">
         <v>135.03</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A750" s="3" t="s">
+      <c r="A750" t="s">
         <v>14</v>
       </c>
-      <c r="B750" s="3">
+      <c r="B750">
         <v>2019</v>
       </c>
-      <c r="C750" s="3">
-        <v>5</v>
-      </c>
-      <c r="D750" s="3">
+      <c r="C750">
+        <v>5</v>
+      </c>
+      <c r="D750">
         <v>28.31</v>
       </c>
-      <c r="E750" s="3">
+      <c r="E750">
         <v>232.73</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A751" s="3" t="s">
+      <c r="A751" t="s">
         <v>14</v>
       </c>
-      <c r="B751" s="3">
+      <c r="B751">
         <v>2019</v>
       </c>
-      <c r="C751" s="3">
-        <v>6</v>
-      </c>
-      <c r="D751" s="3">
+      <c r="C751">
+        <v>6</v>
+      </c>
+      <c r="D751">
         <v>28.9</v>
       </c>
-      <c r="E751" s="3">
+      <c r="E751">
         <v>245.23</v>
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A752" s="3" t="s">
+      <c r="A752" t="s">
         <v>14</v>
       </c>
-      <c r="B752" s="3">
+      <c r="B752">
         <v>2019</v>
       </c>
-      <c r="C752" s="3">
-        <v>7</v>
-      </c>
-      <c r="D752" s="3">
+      <c r="C752">
+        <v>7</v>
+      </c>
+      <c r="D752">
         <v>29.21</v>
       </c>
-      <c r="E752" s="3">
+      <c r="E752">
         <v>172.35</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A753" s="3" t="s">
+      <c r="A753" t="s">
         <v>14</v>
       </c>
-      <c r="B753" s="3">
+      <c r="B753">
         <v>2019</v>
       </c>
-      <c r="C753" s="3">
-        <v>8</v>
-      </c>
-      <c r="D753" s="3">
+      <c r="C753">
+        <v>8</v>
+      </c>
+      <c r="D753">
         <v>27.77</v>
       </c>
-      <c r="E753" s="3">
+      <c r="E753">
         <v>188.92</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A754" s="3" t="s">
+      <c r="A754" t="s">
         <v>14</v>
       </c>
-      <c r="B754" s="3">
+      <c r="B754">
         <v>2019</v>
       </c>
-      <c r="C754" s="3">
-        <v>9</v>
-      </c>
-      <c r="D754" s="3">
+      <c r="C754">
+        <v>9</v>
+      </c>
+      <c r="D754">
         <v>27.37</v>
       </c>
-      <c r="E754" s="3">
+      <c r="E754">
         <v>246.18</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A755" s="3" t="s">
+      <c r="A755" t="s">
         <v>14</v>
       </c>
-      <c r="B755" s="3">
+      <c r="B755">
         <v>2019</v>
       </c>
-      <c r="C755" s="3">
-        <v>10</v>
-      </c>
-      <c r="D755" s="3">
+      <c r="C755">
+        <v>10</v>
+      </c>
+      <c r="D755">
         <v>28.71</v>
       </c>
-      <c r="E755" s="3">
+      <c r="E755">
         <v>146</v>
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A756" s="3" t="s">
+      <c r="A756" t="s">
         <v>14</v>
       </c>
-      <c r="B756" s="3">
+      <c r="B756">
         <v>2019</v>
       </c>
-      <c r="C756" s="3">
+      <c r="C756">
         <v>11</v>
       </c>
-      <c r="D756" s="3">
+      <c r="D756">
         <v>28.06</v>
       </c>
-      <c r="E756" s="3">
+      <c r="E756">
         <v>146.41</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A757" s="3" t="s">
+      <c r="A757" t="s">
         <v>14</v>
       </c>
-      <c r="B757" s="3">
+      <c r="B757">
         <v>2019</v>
       </c>
-      <c r="C757" s="3">
+      <c r="C757">
         <v>12</v>
       </c>
-      <c r="D757" s="3">
+      <c r="D757">
         <v>29.13</v>
       </c>
-      <c r="E757" s="3">
+      <c r="E757">
         <v>190.63</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A758" s="3" t="s">
+      <c r="A758" t="s">
         <v>14</v>
       </c>
-      <c r="B758" s="3">
+      <c r="B758">
         <v>2020</v>
       </c>
-      <c r="C758" s="3">
+      <c r="C758">
         <v>1</v>
       </c>
-      <c r="D758" s="3">
+      <c r="D758">
         <v>27.1</v>
       </c>
-      <c r="E758" s="3">
+      <c r="E758">
         <v>137.61000000000001</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A759" s="3" t="s">
+      <c r="A759" t="s">
         <v>14</v>
       </c>
-      <c r="B759" s="3">
+      <c r="B759">
         <v>2020</v>
       </c>
-      <c r="C759" s="3">
+      <c r="C759">
         <v>2</v>
       </c>
-      <c r="D759" s="3">
+      <c r="D759">
         <v>28.51</v>
       </c>
-      <c r="E759" s="3">
+      <c r="E759">
         <v>292.44</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A760" s="3" t="s">
+      <c r="A760" t="s">
         <v>14</v>
       </c>
-      <c r="B760" s="3">
+      <c r="B760">
         <v>2020</v>
       </c>
-      <c r="C760" s="3">
+      <c r="C760">
         <v>3</v>
       </c>
-      <c r="D760" s="3">
+      <c r="D760">
         <v>27.34</v>
       </c>
-      <c r="E760" s="3">
+      <c r="E760">
         <v>136.37</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A761" s="3" t="s">
+      <c r="A761" t="s">
         <v>14</v>
       </c>
-      <c r="B761" s="3">
+      <c r="B761">
         <v>2020</v>
       </c>
-      <c r="C761" s="3">
+      <c r="C761">
         <v>4</v>
       </c>
-      <c r="D761" s="3">
+      <c r="D761">
         <v>27.18</v>
       </c>
-      <c r="E761" s="3">
+      <c r="E761">
         <v>176.32</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A762" s="3" t="s">
+      <c r="A762" t="s">
         <v>14</v>
       </c>
-      <c r="B762" s="3">
+      <c r="B762">
         <v>2020</v>
       </c>
-      <c r="C762" s="3">
-        <v>5</v>
-      </c>
-      <c r="D762" s="3">
+      <c r="C762">
+        <v>5</v>
+      </c>
+      <c r="D762">
         <v>28.63</v>
       </c>
-      <c r="E762" s="3">
+      <c r="E762">
         <v>249.4</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A763" s="3" t="s">
+      <c r="A763" t="s">
         <v>14</v>
       </c>
-      <c r="B763" s="3">
+      <c r="B763">
         <v>2020</v>
       </c>
-      <c r="C763" s="3">
-        <v>6</v>
-      </c>
-      <c r="D763" s="3">
+      <c r="C763">
+        <v>6</v>
+      </c>
+      <c r="D763">
         <v>27.27</v>
       </c>
-      <c r="E763" s="3">
+      <c r="E763">
         <v>113.11</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A764" s="3" t="s">
+      <c r="A764" t="s">
         <v>14</v>
       </c>
-      <c r="B764" s="3">
+      <c r="B764">
         <v>2020</v>
       </c>
-      <c r="C764" s="3">
-        <v>7</v>
-      </c>
-      <c r="D764" s="3">
+      <c r="C764">
+        <v>7</v>
+      </c>
+      <c r="D764">
         <v>28.66</v>
       </c>
-      <c r="E764" s="3">
+      <c r="E764">
         <v>187.32</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A765" s="3" t="s">
+      <c r="A765" t="s">
         <v>14</v>
       </c>
-      <c r="B765" s="3">
+      <c r="B765">
         <v>2020</v>
       </c>
-      <c r="C765" s="3">
-        <v>8</v>
-      </c>
-      <c r="D765" s="3">
+      <c r="C765">
+        <v>8</v>
+      </c>
+      <c r="D765">
         <v>27.15</v>
       </c>
-      <c r="E765" s="3">
+      <c r="E765">
         <v>177.74</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A766" s="3" t="s">
+      <c r="A766" t="s">
         <v>14</v>
       </c>
-      <c r="B766" s="3">
+      <c r="B766">
         <v>2020</v>
       </c>
-      <c r="C766" s="3">
-        <v>9</v>
-      </c>
-      <c r="D766" s="3">
+      <c r="C766">
+        <v>9</v>
+      </c>
+      <c r="D766">
         <v>28.22</v>
       </c>
-      <c r="E766" s="3">
+      <c r="E766">
         <v>192.07</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A767" s="3" t="s">
+      <c r="A767" t="s">
         <v>14</v>
       </c>
-      <c r="B767" s="3">
+      <c r="B767">
         <v>2020</v>
       </c>
-      <c r="C767" s="3">
-        <v>10</v>
-      </c>
-      <c r="D767" s="3">
+      <c r="C767">
+        <v>10</v>
+      </c>
+      <c r="D767">
         <v>29.42</v>
       </c>
-      <c r="E767" s="3">
+      <c r="E767">
         <v>213.26</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A768" s="3" t="s">
+      <c r="A768" t="s">
         <v>14</v>
       </c>
-      <c r="B768" s="3">
+      <c r="B768">
         <v>2020</v>
       </c>
-      <c r="C768" s="3">
+      <c r="C768">
         <v>11</v>
       </c>
-      <c r="D768" s="3">
+      <c r="D768">
         <v>27.93</v>
       </c>
-      <c r="E768" s="3">
+      <c r="E768">
         <v>137.77000000000001</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A769" s="3" t="s">
+      <c r="A769" t="s">
         <v>14</v>
       </c>
-      <c r="B769" s="3">
+      <c r="B769">
         <v>2020</v>
       </c>
-      <c r="C769" s="3">
+      <c r="C769">
         <v>12</v>
       </c>
-      <c r="D769" s="3">
+      <c r="D769">
         <v>27.3</v>
       </c>
-      <c r="E769" s="3">
+      <c r="E769">
         <v>235.42</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A770" s="3" t="s">
+      <c r="A770" t="s">
         <v>14</v>
       </c>
-      <c r="B770" s="3">
+      <c r="B770">
         <v>2021</v>
       </c>
-      <c r="C770" s="3">
+      <c r="C770">
         <v>1</v>
       </c>
-      <c r="D770" s="3">
+      <c r="D770">
         <v>29.22</v>
       </c>
-      <c r="E770" s="3">
+      <c r="E770">
         <v>290.79000000000002</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A771" s="3" t="s">
+      <c r="A771" t="s">
         <v>14</v>
       </c>
-      <c r="B771" s="3">
+      <c r="B771">
         <v>2021</v>
       </c>
-      <c r="C771" s="3">
+      <c r="C771">
         <v>2</v>
       </c>
-      <c r="D771" s="3">
+      <c r="D771">
         <v>28.79</v>
       </c>
-      <c r="E771" s="3">
+      <c r="E771">
         <v>261.89</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A772" s="3" t="s">
+      <c r="A772" t="s">
         <v>14</v>
       </c>
-      <c r="B772" s="3">
+      <c r="B772">
         <v>2021</v>
       </c>
-      <c r="C772" s="3">
+      <c r="C772">
         <v>3</v>
       </c>
-      <c r="D772" s="3">
+      <c r="D772">
         <v>28.38</v>
       </c>
-      <c r="E772" s="3">
+      <c r="E772">
         <v>200.22</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A773" s="3" t="s">
+      <c r="A773" t="s">
         <v>14</v>
       </c>
-      <c r="B773" s="3">
+      <c r="B773">
         <v>2021</v>
       </c>
-      <c r="C773" s="3">
+      <c r="C773">
         <v>4</v>
       </c>
-      <c r="D773" s="3">
+      <c r="D773">
         <v>29.41</v>
       </c>
-      <c r="E773" s="3">
+      <c r="E773">
         <v>129.32</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A774" s="3" t="s">
+      <c r="A774" t="s">
         <v>14</v>
       </c>
-      <c r="B774" s="3">
+      <c r="B774">
         <v>2021</v>
       </c>
-      <c r="C774" s="3">
-        <v>5</v>
-      </c>
-      <c r="D774" s="3">
+      <c r="C774">
+        <v>5</v>
+      </c>
+      <c r="D774">
         <v>27.28</v>
       </c>
-      <c r="E774" s="3">
+      <c r="E774">
         <v>296.49</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A775" s="3" t="s">
+      <c r="A775" t="s">
         <v>14</v>
       </c>
-      <c r="B775" s="3">
+      <c r="B775">
         <v>2021</v>
       </c>
-      <c r="C775" s="3">
-        <v>6</v>
-      </c>
-      <c r="D775" s="3">
+      <c r="C775">
+        <v>6</v>
+      </c>
+      <c r="D775">
         <v>29.35</v>
       </c>
-      <c r="E775" s="3">
+      <c r="E775">
         <v>258.95</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A776" s="3" t="s">
+      <c r="A776" t="s">
         <v>14</v>
       </c>
-      <c r="B776" s="3">
+      <c r="B776">
         <v>2021</v>
       </c>
-      <c r="C776" s="3">
-        <v>7</v>
-      </c>
-      <c r="D776" s="3">
+      <c r="C776">
+        <v>7</v>
+      </c>
+      <c r="D776">
         <v>27.49</v>
       </c>
-      <c r="E776" s="3">
+      <c r="E776">
         <v>176.56</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A777" s="3" t="s">
+      <c r="A777" t="s">
         <v>14</v>
       </c>
-      <c r="B777" s="3">
+      <c r="B777">
         <v>2021</v>
       </c>
-      <c r="C777" s="3">
-        <v>8</v>
-      </c>
-      <c r="D777" s="3">
+      <c r="C777">
+        <v>8</v>
+      </c>
+      <c r="D777">
         <v>28.48</v>
       </c>
-      <c r="E777" s="3">
+      <c r="E777">
         <v>211.4</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A778" s="3" t="s">
+      <c r="A778" t="s">
         <v>14</v>
       </c>
-      <c r="B778" s="3">
+      <c r="B778">
         <v>2021</v>
       </c>
-      <c r="C778" s="3">
-        <v>9</v>
-      </c>
-      <c r="D778" s="3">
+      <c r="C778">
+        <v>9</v>
+      </c>
+      <c r="D778">
         <v>27.52</v>
       </c>
-      <c r="E778" s="3">
+      <c r="E778">
         <v>212.89</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A779" s="3" t="s">
+      <c r="A779" t="s">
         <v>14</v>
       </c>
-      <c r="B779" s="3">
+      <c r="B779">
         <v>2021</v>
       </c>
-      <c r="C779" s="3">
-        <v>10</v>
-      </c>
-      <c r="D779" s="3">
+      <c r="C779">
+        <v>10</v>
+      </c>
+      <c r="D779">
         <v>28.33</v>
       </c>
-      <c r="E779" s="3">
+      <c r="E779">
         <v>207.94</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A780" s="3" t="s">
+      <c r="A780" t="s">
         <v>14</v>
       </c>
-      <c r="B780" s="3">
+      <c r="B780">
         <v>2021</v>
       </c>
-      <c r="C780" s="3">
+      <c r="C780">
         <v>11</v>
       </c>
-      <c r="D780" s="3">
+      <c r="D780">
         <v>29.19</v>
       </c>
-      <c r="E780" s="3">
+      <c r="E780">
         <v>275.52</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A781" s="3" t="s">
+      <c r="A781" t="s">
         <v>14</v>
       </c>
-      <c r="B781" s="3">
+      <c r="B781">
         <v>2021</v>
       </c>
-      <c r="C781" s="3">
+      <c r="C781">
         <v>12</v>
       </c>
-      <c r="D781" s="3">
+      <c r="D781">
         <v>28.15</v>
       </c>
-      <c r="E781" s="3">
+      <c r="E781">
         <v>249.71</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A782" s="3" t="s">
+      <c r="A782" t="s">
         <v>14</v>
       </c>
-      <c r="B782" s="3">
+      <c r="B782">
         <v>2022</v>
       </c>
-      <c r="C782" s="3">
+      <c r="C782">
         <v>1</v>
       </c>
-      <c r="D782" s="3">
+      <c r="D782">
         <v>29.02</v>
       </c>
-      <c r="E782" s="3">
+      <c r="E782">
         <v>215.24</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A783" s="3" t="s">
+      <c r="A783" t="s">
         <v>14</v>
       </c>
-      <c r="B783" s="3">
+      <c r="B783">
         <v>2022</v>
       </c>
-      <c r="C783" s="3">
+      <c r="C783">
         <v>2</v>
       </c>
-      <c r="D783" s="3">
+      <c r="D783">
         <v>29.49</v>
       </c>
-      <c r="E783" s="3">
+      <c r="E783">
         <v>251.57</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A784" s="3" t="s">
+      <c r="A784" t="s">
         <v>14</v>
       </c>
-      <c r="B784" s="3">
+      <c r="B784">
         <v>2022</v>
       </c>
-      <c r="C784" s="3">
+      <c r="C784">
         <v>3</v>
       </c>
-      <c r="D784" s="3">
+      <c r="D784">
         <v>28.36</v>
       </c>
-      <c r="E784" s="3">
+      <c r="E784">
         <v>200.03</v>
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A785" s="3" t="s">
+      <c r="A785" t="s">
         <v>14</v>
       </c>
-      <c r="B785" s="3">
+      <c r="B785">
         <v>2022</v>
       </c>
-      <c r="C785" s="3">
+      <c r="C785">
         <v>4</v>
       </c>
-      <c r="D785" s="3">
+      <c r="D785">
         <v>29.23</v>
       </c>
-      <c r="E785" s="3">
+      <c r="E785">
         <v>190.1</v>
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A786" s="3" t="s">
+      <c r="A786" t="s">
         <v>14</v>
       </c>
-      <c r="B786" s="3">
+      <c r="B786">
         <v>2022</v>
       </c>
-      <c r="C786" s="3">
-        <v>5</v>
-      </c>
-      <c r="D786" s="3">
+      <c r="C786">
+        <v>5</v>
+      </c>
+      <c r="D786">
         <v>28.42</v>
       </c>
-      <c r="E786" s="3">
+      <c r="E786">
         <v>220.67</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A787" s="3" t="s">
+      <c r="A787" t="s">
         <v>14</v>
       </c>
-      <c r="B787" s="3">
+      <c r="B787">
         <v>2022</v>
       </c>
-      <c r="C787" s="3">
-        <v>6</v>
-      </c>
-      <c r="D787" s="3">
+      <c r="C787">
+        <v>6</v>
+      </c>
+      <c r="D787">
         <v>27.78</v>
       </c>
-      <c r="E787" s="3">
+      <c r="E787">
         <v>151.97</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A788" s="3" t="s">
+      <c r="A788" t="s">
         <v>14</v>
       </c>
-      <c r="B788" s="3">
+      <c r="B788">
         <v>2022</v>
       </c>
-      <c r="C788" s="3">
-        <v>7</v>
-      </c>
-      <c r="D788" s="3">
+      <c r="C788">
+        <v>7</v>
+      </c>
+      <c r="D788">
         <v>28.13</v>
       </c>
-      <c r="E788" s="3">
+      <c r="E788">
         <v>233.63</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A789" s="3" t="s">
+      <c r="A789" t="s">
         <v>14</v>
       </c>
-      <c r="B789" s="3">
+      <c r="B789">
         <v>2022</v>
       </c>
-      <c r="C789" s="3">
-        <v>8</v>
-      </c>
-      <c r="D789" s="3">
+      <c r="C789">
+        <v>8</v>
+      </c>
+      <c r="D789">
         <v>29.16</v>
       </c>
-      <c r="E789" s="3">
+      <c r="E789">
         <v>272.87</v>
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A790" s="3" t="s">
+      <c r="A790" t="s">
         <v>14</v>
       </c>
-      <c r="B790" s="3">
+      <c r="B790">
         <v>2022</v>
       </c>
-      <c r="C790" s="3">
-        <v>9</v>
-      </c>
-      <c r="D790" s="3">
+      <c r="C790">
+        <v>9</v>
+      </c>
+      <c r="D790">
         <v>28.8</v>
       </c>
-      <c r="E790" s="3">
+      <c r="E790">
         <v>180.1</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A791" s="3" t="s">
+      <c r="A791" t="s">
         <v>14</v>
       </c>
-      <c r="B791" s="3">
+      <c r="B791">
         <v>2022</v>
       </c>
-      <c r="C791" s="3">
-        <v>10</v>
-      </c>
-      <c r="D791" s="3">
+      <c r="C791">
+        <v>10</v>
+      </c>
+      <c r="D791">
         <v>29.32</v>
       </c>
-      <c r="E791" s="3">
+      <c r="E791">
         <v>166.38</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A792" s="3" t="s">
+      <c r="A792" t="s">
         <v>14</v>
       </c>
-      <c r="B792" s="3">
+      <c r="B792">
         <v>2022</v>
       </c>
-      <c r="C792" s="3">
+      <c r="C792">
         <v>11</v>
       </c>
-      <c r="D792" s="3">
+      <c r="D792">
         <v>27.21</v>
       </c>
-      <c r="E792" s="3">
+      <c r="E792">
         <v>278.54000000000002</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A793" s="3" t="s">
+      <c r="A793" t="s">
         <v>14</v>
       </c>
-      <c r="B793" s="3">
+      <c r="B793">
         <v>2022</v>
       </c>
-      <c r="C793" s="3">
+      <c r="C793">
         <v>12</v>
       </c>
-      <c r="D793" s="3">
+      <c r="D793">
         <v>27.81</v>
       </c>
-      <c r="E793" s="3">
+      <c r="E793">
         <v>176.9</v>
       </c>
     </row>
